--- a/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
+++ b/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="YbGeSiO Calib. ERD" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ta-Nb-V Calib. ERD" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Ta-Nb-V Calib - RBS1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t xml:space="preserve">2000 keV</t>
   </si>
@@ -114,12 +113,6 @@
     <t xml:space="preserve">keV</t>
   </si>
   <si>
-    <t xml:space="preserve">Au dens.ty = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">g/cm^3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Element</t>
   </si>
   <si>
@@ -129,7 +122,7 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Kinematic factor</t>
+    <t xml:space="preserve">kinematic factor</t>
   </si>
   <si>
     <t xml:space="preserve">Back Energy (keV)</t>
@@ -142,39 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy (MeV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop. Pow. MeV cm^2/g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop. Pow. MeV/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eloss factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x (cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x (nm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinematic factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective energy</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
@@ -190,16 +150,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -243,22 +201,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -274,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,19 +242,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -337,6 +283,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
@@ -345,18 +297,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE5D6"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDFF"/>
-        <bgColor rgb="FFFFEFFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEFFD"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -402,59 +342,59 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="hair"/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="hair"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="hair"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left/>
+      <right style="hair"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -483,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,63 +468,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,127 +488,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -720,35 +520,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,7 +564,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,23 +584,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,12 +639,12 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFDEEBF7"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFDDDFF"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFBDD7EE"/>
       <rgbColor rgb="FF000080"/>
@@ -849,9 +665,9 @@
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFFEFFD"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
@@ -868,7 +684,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -880,7 +696,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-PT" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -888,13 +704,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="pt-PT" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>RBS YbGeSiO</a:t>
+              <a:t>Calib.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -915,20 +731,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"RBS YbGeSiO"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RBS YbGeSiO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="a5a5a5"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -939,7 +744,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="a5a5a5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -971,23 +776,7 @@
             <c:spPr>
               <a:ln cap="rnd" w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="5b9bd5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln cap="rnd" w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="5b9bd5"/>
+                  <a:srgbClr val="a5a5a5"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
                 <a:round/>
@@ -1001,31 +790,34 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'YbGeSiO Calib. ERD'!$H$4:$H$7</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1'!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>261</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>429</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>623</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>708</c:v>
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'YbGeSiO Calib. ERD'!$G$4:$G$7</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>731.837406140239</c:v>
                 </c:pt>
@@ -1033,21 +825,24 @@
                   <c:v>1137.56051351891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1610.01192803455</c:v>
+                  <c:v>1467.5088098187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1826.10999490888</c:v>
+                  <c:v>1688.17404547264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1833.37861732485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41331675"/>
-        <c:axId val="47684641"/>
+        <c:axId val="53916164"/>
+        <c:axId val="46444463"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41331675"/>
+        <c:axId val="53916164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,12 +918,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47684641"/>
+        <c:crossAx val="46444463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47684641"/>
+        <c:axId val="46444463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,361 +999,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41331675"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="pt-PT" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="pt-PT" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Calib.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"RBS"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RBS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln cap="rnd" w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="a5a5a5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ta-Nb-V Calib. ERD'!$H$4:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>656</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ta-Nb-V Calib. ERD'!$G$4:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>731.837406140239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1137.56051351891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1467.5088098187</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1688.17404547264</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1833.37861732485</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="51221029"/>
-        <c:axId val="80877374"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="51221029"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Channel</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80877374"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="80877374"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Energy (keV)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51221029"/>
+        <c:crossAx val="53916164"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1590,16 +1031,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>116280</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1607,43 +1048,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="384120" y="2114640"/>
-        <a:ext cx="5438160" cy="3618360"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>446760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="7518240" y="266400"/>
-        <a:ext cx="5218200" cy="2754720"/>
+        <a:off x="7528680" y="257760"/>
+        <a:ext cx="5226480" cy="2731320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1662,13 +1068,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
+      <xdr:colOff>31320</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 2" descr=""/>
+        <xdr:cNvPr id="1" name="Imagem 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1678,8 +1084,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="311040" y="1784160"/>
-          <a:ext cx="5723280" cy="3789720"/>
+          <a:off x="311040" y="1751400"/>
+          <a:ext cx="5731560" cy="3790440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1701,11 +1107,11 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.09"/>
@@ -2290,269 +1696,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="12" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>4.0026</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>15.999</v>
-      </c>
-      <c r="F4" s="17" t="n">
-        <f aca="false">((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
-        <v>0.365918703070119</v>
-      </c>
-      <c r="G4" s="18" t="n">
-        <f aca="false">$B$1*F4</f>
-        <v>731.837406140239</v>
-      </c>
-      <c r="H4" s="15" t="n">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="20" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" s="21" t="n">
-        <v>28.085</v>
-      </c>
-      <c r="F5" s="22" t="n">
-        <f aca="false">((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
-        <v>0.568780256759455</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <f aca="false">$B$1*F5</f>
-        <v>1137.56051351891</v>
-      </c>
-      <c r="H5" s="24" t="n">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="26" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" s="27" t="n">
-        <v>72.63</v>
-      </c>
-      <c r="F6" s="28" t="n">
-        <f aca="false">((SQRT(1-(4.0026/E6)^2*SIN(RADIANS(165))^2)+4.0026/E6*COS(RADIANS(165)))/(1+4.0026/E6))^2</f>
-        <v>0.805005964017277</v>
-      </c>
-      <c r="G6" s="29" t="n">
-        <f aca="false">$B$1*F6</f>
-        <v>1610.01192803455</v>
-      </c>
-      <c r="H6" s="26" t="n">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="31" t="n">
-        <v>70</v>
-      </c>
-      <c r="E7" s="32" t="n">
-        <v>173.05</v>
-      </c>
-      <c r="F7" s="33" t="n">
-        <f aca="false">((SQRT(1-(4.0026/E7)^2*SIN(RADIANS(165))^2)+4.0026/E7*COS(RADIANS(165)))/(1+4.0026/E7))^2</f>
-        <v>0.91305499745444</v>
-      </c>
-      <c r="G7" s="34" t="n">
-        <f aca="false">$B$1*F7</f>
-        <v>1826.10999490888</v>
-      </c>
-      <c r="H7" s="31" t="n">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="29.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="35" t="n">
-        <v>79</v>
-      </c>
-      <c r="E8" s="35" t="n">
-        <v>196.97</v>
-      </c>
-      <c r="F8" s="36" t="n">
-        <f aca="false">((SQRT(1-(4.0026/E8)^2*SIN(RADIANS(165))^2)+4.0026/E8*COS(RADIANS(165)))/(1+4.0026/E8))^2</f>
-        <v>0.923199622117802</v>
-      </c>
-      <c r="G8" s="37" t="n">
-        <f aca="false">$B$1*F8</f>
-        <v>1846.39924423561</v>
-      </c>
-      <c r="H8" s="35"/>
-      <c r="J8" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" s="42" t="n">
-        <v>347.3</v>
-      </c>
-      <c r="L9" s="43" t="n">
-        <f aca="false">K9*$J$1</f>
-        <v>6702.89</v>
-      </c>
-      <c r="M9" s="44" t="n">
-        <f aca="false">(F8*L9+L10/COS(RADIANS(15)))</f>
-        <v>13788.8133543375</v>
-      </c>
-      <c r="N9" s="45" t="n">
-        <f aca="false">(B1-G8)/1000/M9</f>
-        <v>1.11395195378489E-005</v>
-      </c>
-      <c r="O9" s="46" t="n">
-        <f aca="false">N9*10^7</f>
-        <v>111.395195378489</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J10" s="47" t="n">
-        <f aca="false">G8/1000</f>
-        <v>1.84639924423561</v>
-      </c>
-      <c r="K10" s="48" t="n">
-        <v>380.4</v>
-      </c>
-      <c r="L10" s="49" t="n">
-        <f aca="false">K10*$J$1</f>
-        <v>7341.72</v>
-      </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -2563,141 +1720,136 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="13" t="s">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="54" t="n">
+      <c r="D4" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="55" t="n">
+      <c r="E4" s="18" t="n">
         <v>15.999</v>
       </c>
-      <c r="F4" s="56" t="n">
+      <c r="F4" s="19" t="n">
         <f aca="false">((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
         <v>0.365918703070119</v>
       </c>
-      <c r="G4" s="57" t="n">
+      <c r="G4" s="20" t="n">
         <f aca="false">$B$1*F4</f>
         <v>731.837406140239</v>
       </c>
-      <c r="H4" s="54" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="59" t="n">
+      <c r="H4" s="21" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="E5" s="60" t="n">
+      <c r="E5" s="24" t="n">
         <v>28.085</v>
       </c>
-      <c r="F5" s="61" t="n">
+      <c r="F5" s="25" t="n">
         <f aca="false">((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
         <v>0.568780256759455</v>
       </c>
-      <c r="G5" s="62" t="n">
+      <c r="G5" s="26" t="n">
         <f aca="false">$B$1*F5</f>
         <v>1137.56051351891</v>
       </c>
-      <c r="H5" s="59" t="n">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="11" t="n">
+      <c r="H5" s="27" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="29" t="n">
         <v>23</v>
       </c>
-      <c r="E6" s="64" t="n">
+      <c r="E6" s="30" t="n">
         <v>50.942</v>
       </c>
-      <c r="F6" s="65" t="n">
+      <c r="F6" s="31" t="n">
         <f aca="false">((SQRT(1-(4.0026/E6)^2*SIN(RADIANS(165))^2)+4.0026/E6*COS(RADIANS(165)))/(1+4.0026/E6))^2</f>
         <v>0.733754404909352</v>
       </c>
-      <c r="G6" s="66" t="n">
+      <c r="G6" s="32" t="n">
         <f aca="false">$B$1*F6</f>
         <v>1467.5088098187</v>
       </c>
-      <c r="H6" s="11" t="n">
-        <v>567</v>
-      </c>
-      <c r="I6" s="67" t="n">
-        <f aca="false">G6</f>
-        <v>1467.5088098187</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="69" t="n">
+      <c r="H6" s="33" t="n">
+        <v>582</v>
+      </c>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="36" t="n">
         <v>41</v>
       </c>
-      <c r="E7" s="70" t="n">
+      <c r="E7" s="37" t="n">
         <v>92.906</v>
       </c>
-      <c r="F7" s="71" t="n">
+      <c r="F7" s="38" t="n">
         <f aca="false">((SQRT(1-(4.0026/E7)^2*SIN(RADIANS(165))^2)+4.0026/E7*COS(RADIANS(165)))/(1+4.0026/E7))^2</f>
         <v>0.844087022736318</v>
       </c>
-      <c r="G7" s="72" t="n">
+      <c r="G7" s="39" t="n">
         <f aca="false">$B$1*F7</f>
         <v>1688.17404547264</v>
       </c>
-      <c r="H7" s="69" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="74" t="n">
+      <c r="H7" s="40" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="42" t="n">
         <v>73</v>
       </c>
-      <c r="E8" s="75" t="n">
+      <c r="E8" s="43" t="n">
         <v>180.95</v>
       </c>
-      <c r="F8" s="76" t="n">
+      <c r="F8" s="44" t="n">
         <f aca="false">((SQRT(1-(4.0026/E8)^2*SIN(RADIANS(165))^2)+4.0026/E8*COS(RADIANS(165)))/(1+4.0026/E8))^2</f>
         <v>0.916689308662427</v>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="45" t="n">
         <f aca="false">$B$1*F8</f>
         <v>1833.37861732485</v>
       </c>
-      <c r="H8" s="74" t="n">
-        <v>714</v>
+      <c r="H8" s="46" t="n">
+        <v>733</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,11 +1857,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
+++ b/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Ta-Nb-V Calib - RBS1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Ta-Nb-V Calib - RBS1 - Alfas" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Ta-Nb-V Calib - RBS1 - Protoes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t xml:space="preserve">2000 keV</t>
   </si>
@@ -144,6 +145,21 @@
   </si>
   <si>
     <t xml:space="preserve">Ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 1, 21 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 1, 23 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 1, 25 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 1, 27 mm</t>
   </si>
 </sst>
 </file>
@@ -312,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -397,6 +413,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -423,7 +460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -609,6 +646,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,7 +749,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -790,59 +855,59 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1'!$H$4:$H$8</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Protoes'!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>438</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>582</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>674</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>733</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1'!$G$4:$G$8</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Protoes'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>731.837406140239</c:v>
+                  <c:v>1563.71597763967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1137.56051351891</c:v>
+                  <c:v>1738.61482613068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1467.5088098187</c:v>
+                  <c:v>1851.42237313358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1688.17404547264</c:v>
+                  <c:v>1917.12135869353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1833.37861732485</c:v>
+                  <c:v>1957.01042597917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="53916164"/>
-        <c:axId val="46444463"/>
+        <c:axId val="69621464"/>
+        <c:axId val="86911508"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53916164"/>
+        <c:axId val="69621464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,12 +983,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46444463"/>
+        <c:crossAx val="86911508"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46444463"/>
+        <c:axId val="86911508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1064,350 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53916164"/>
+        <c:crossAx val="69621464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-PT" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="pt-PT" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Calib.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="a5a5a5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln cap="rnd" w="19080">
+                <a:solidFill>
+                  <a:srgbClr val="a5a5a5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>731.837406140239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1137.56051351891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1467.5088098187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1688.17404547264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1833.37861732485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="57571278"/>
+        <c:axId val="27844347"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57571278"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27844347"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="27844347"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-PT" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57571278"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1100,6 +1508,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8069760" y="257760"/>
+        <a:ext cx="5395320" cy="2731320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31320</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="9753" t="11419" r="11554" b="9487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="311040" y="1751400"/>
+          <a:ext cx="5731560" cy="3790440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1698,8 +2179,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1865,4 +2346,207 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" s="49" t="n">
+        <v>15.999</v>
+      </c>
+      <c r="F4" s="50" t="n">
+        <f aca="false">((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
+        <v>0.781857988819834</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <f aca="false">$B$1*F4</f>
+        <v>1563.71597763967</v>
+      </c>
+      <c r="H4" s="52" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>28.085</v>
+      </c>
+      <c r="F5" s="19" t="n">
+        <f aca="false">((SQRT(1-(1/E5)^2*SIN(RADIANS(165))^2)+1/E5*COS(RADIANS(165)))/(1+1/E5))^2</f>
+        <v>0.869307413065341</v>
+      </c>
+      <c r="G5" s="26" t="n">
+        <f aca="false">$B$1*F5</f>
+        <v>1738.61482613068</v>
+      </c>
+      <c r="H5" s="27" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>50.942</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <f aca="false">((SQRT(1-(1/E6)^2*SIN(RADIANS(165))^2)+1/E6*COS(RADIANS(165)))/(1+1/E6))^2</f>
+        <v>0.925711186566788</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <f aca="false">$B$1*F6</f>
+        <v>1851.42237313358</v>
+      </c>
+      <c r="H6" s="33" t="n">
+        <v>752</v>
+      </c>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="36" t="n">
+        <v>41</v>
+      </c>
+      <c r="E7" s="37" t="n">
+        <v>92.906</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <f aca="false">((SQRT(1-(1/E7)^2*SIN(RADIANS(165))^2)+1/E7*COS(RADIANS(165)))/(1+1/E7))^2</f>
+        <v>0.958560679346767</v>
+      </c>
+      <c r="G7" s="39" t="n">
+        <f aca="false">$B$1*F7</f>
+        <v>1917.12135869353</v>
+      </c>
+      <c r="H7" s="40" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="42" t="n">
+        <v>73</v>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>180.95</v>
+      </c>
+      <c r="F8" s="53" t="n">
+        <f aca="false">((SQRT(1-(1/E8)^2*SIN(RADIANS(165))^2)+1/E8*COS(RADIANS(165)))/(1+1/E8))^2</f>
+        <v>0.978505212989584</v>
+      </c>
+      <c r="G8" s="45" t="n">
+        <f aca="false">$B$1*F8</f>
+        <v>1957.01042597917</v>
+      </c>
+      <c r="H8" s="46" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
+++ b/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>2000 keV</t>
   </si>
@@ -166,7 +166,40 @@
     <t>Target 1, 27 mm</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Delta_E (keV)</t>
+  </si>
+  <si>
+    <t>E_Pb (keV)</t>
+  </si>
+  <si>
+    <t>K * E_0</t>
+  </si>
+  <si>
+    <t>[S] (eV/nm)</t>
+  </si>
+  <si>
+    <t>x (nm)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_in [E_0] (MeV cm^2 / g)</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead density = </t>
+  </si>
+  <si>
+    <t>g/cm^3</t>
+  </si>
+  <si>
+    <t>(dE/dx)_in [E_0] (keV/cm)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_out [K * E_0] (MeV cm^2 / g)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_out [K * E_0] (keV/cm)</t>
   </si>
 </sst>
 </file>
@@ -177,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,8 +238,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +332,38 @@
         <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF97BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBDDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBDDE"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -426,8 +497,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left/>
+      <right/>
+      <top style="hair">
         <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="hair">
@@ -438,7 +570,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -446,21 +580,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,13 +706,71 @@
     <xf numFmtId="165" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,6 +844,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFBDDE"/>
+      <color rgb="FFFF97BC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -659,6 +893,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -742,6 +977,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -803,11 +1039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-608082496"/>
-        <c:axId val="-608080864"/>
+        <c:axId val="-1506831616"/>
+        <c:axId val="-1506828352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-608082496"/>
+        <c:axId val="-1506831616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,6 +1085,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -884,12 +1121,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-608080864"/>
+        <c:crossAx val="-1506828352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-608080864"/>
+        <c:axId val="-1506828352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,6 +1168,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -966,7 +1204,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-608082496"/>
+        <c:crossAx val="-1506831616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1179,11 +1417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-608078144"/>
-        <c:axId val="-608089568"/>
+        <c:axId val="-1337801216"/>
+        <c:axId val="-1337811552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-608078144"/>
+        <c:axId val="-1337801216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,12 +1499,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-608089568"/>
+        <c:crossAx val="-1337811552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-608089568"/>
+        <c:axId val="-1337811552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1582,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-608078144"/>
+        <c:crossAx val="-1337801216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1388,10 +1626,83 @@
       <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>974890</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304690</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266270</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="9753" t="11419" r="11554" b="9487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304690" y="2578180"/>
+          <a:ext cx="4952680" cy="3790470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>631990</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1418,81 +1729,8 @@
       <xdr:rowOff>127080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="9753" t="11419" r="11554" b="9487"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="311040" y="1751400"/>
-          <a:ext cx="5731560" cy="3790440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590120</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
@@ -2369,17 +2607,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" customWidth="1"/>
+    <col min="16" max="16" width="19.1796875" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -2393,6 +2641,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>11.29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="C3" s="11" t="s">
         <v>30</v>
@@ -2526,7 +2785,177 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="83">
+        <v>82</v>
+      </c>
+      <c r="E10" s="83">
+        <v>207.2</v>
+      </c>
+      <c r="F10" s="85">
+        <f>((SQRT(1-(4.0026/E10)^2*SIN(RADIANS(165))^2)+4.0026/E10*COS(RADIANS(165)))/(1+4.0026/E10))^2</f>
+        <v>0.92685011433311859</v>
+      </c>
+      <c r="G10" s="86">
+        <f>$B$1*F10</f>
+        <v>1853.7002286662371</v>
+      </c>
       <c r="J10" s="5"/>
+    </row>
+    <row r="18" spans="10:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="J18" s="82"/>
+      <c r="K18" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="10:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="J19" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="81">
+        <v>1610</v>
+      </c>
+      <c r="M19" s="81">
+        <f>2000-L19</f>
+        <v>390</v>
+      </c>
+      <c r="N19" s="81">
+        <v>349.1</v>
+      </c>
+      <c r="O19" s="81">
+        <f>N19*$B$2*10^3</f>
+        <v>3941339</v>
+      </c>
+      <c r="P19" s="81">
+        <v>359</v>
+      </c>
+      <c r="Q19" s="81">
+        <f>P19*$B$2*10^3</f>
+        <v>4053109.9999999995</v>
+      </c>
+      <c r="R19" s="87">
+        <f>(($F$10/COS(RADIANS(0))*O19)+(1/COS(RADIANS(15)*Q19)))/10^6</f>
+        <v>3.6530293480750409</v>
+      </c>
+      <c r="S19" s="89">
+        <f>M19*10^3/R19</f>
+        <v>106760.7081244803</v>
+      </c>
+    </row>
+    <row r="20" spans="10:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="J20" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81">
+        <v>1600</v>
+      </c>
+      <c r="M20" s="81">
+        <f t="shared" ref="M20:M22" si="0">2000-L20</f>
+        <v>400</v>
+      </c>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81">
+        <f t="shared" ref="O20:O22" si="1">N20*$B$2*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81">
+        <f t="shared" ref="Q20:Q22" si="2">P20*$B$2*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="87">
+        <f t="shared" ref="R20:R22" si="3">(($F$10/COS(RADIANS(0))*O20)+(1/COS(RADIANS(15)*Q20)))/10^6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="S20" s="88">
+        <f t="shared" ref="S20:S22" si="4">M20/R20</f>
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="21" spans="10:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="J21" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="87">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="S21" s="88">
+        <f t="shared" si="4"/>
+        <v>2000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="10:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="J22" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="87">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="S22" s="88">
+        <f t="shared" si="4"/>
+        <v>2000000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2541,22 +2970,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" customWidth="1"/>
     <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -2567,176 +3002,153 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="79" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <v>8</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <v>15.999000000000001</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="49">
         <f>((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f>$B$1*F4</f>
         <v>1563.7159776396684</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="56">
         <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="58">
         <v>14</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="59">
         <v>28.085000000000001</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="60">
         <f>((SQRT(1-(1/E5)^2*SIN(RADIANS(165))^2)+1/E5*COS(RADIANS(165)))/(1+1/E5))^2</f>
         <v>0.86930741306534087</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="61">
         <f>$B$1*F5</f>
         <v>1738.6148261306816</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="62">
         <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="64">
         <v>23</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="65">
         <v>50.942</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="60">
         <f>((SQRT(1-(1/E6)^2*SIN(RADIANS(165))^2)+1/E6*COS(RADIANS(165)))/(1+1/E6))^2</f>
         <v>0.9257111865667883</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="66">
         <f>$B$1*F6</f>
         <v>1851.4223731335767</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="67">
         <v>752</v>
       </c>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="69">
         <v>41</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="70">
         <v>92.906000000000006</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="60">
         <f>((SQRT(1-(1/E7)^2*SIN(RADIANS(165))^2)+1/E7*COS(RADIANS(165)))/(1+1/E7))^2</f>
         <v>0.95856067934676659</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="71">
         <f>$B$1*F7</f>
         <v>1917.1213586935332</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="72">
         <v>778</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C8" s="41" t="s">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="74">
         <v>73</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="75">
         <v>180.95</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="76">
         <f>((SQRT(1-(1/E8)^2*SIN(RADIANS(165))^2)+1/E8*COS(RADIANS(165)))/(1+1/E8))^2</f>
         <v>0.97850521298958393</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="77">
         <f>$B$1*F8</f>
         <v>1957.0104259791678</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="78">
         <v>796</v>
       </c>
+      <c r="J8" s="80"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J10" s="5"/>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
+++ b/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>2000 keV</t>
   </si>
@@ -151,27 +151,9 @@
     <t>Ta</t>
   </si>
   <si>
-    <t>Pb channel</t>
-  </si>
-  <si>
-    <t>Target 1, 21 mm</t>
-  </si>
-  <si>
-    <t>Target 1, 23 mm</t>
-  </si>
-  <si>
-    <t>Target 1, 25 mm</t>
-  </si>
-  <si>
-    <t>Target 1, 27 mm</t>
-  </si>
-  <si>
     <t>Delta_E (keV)</t>
   </si>
   <si>
-    <t>E_Pb (keV)</t>
-  </si>
-  <si>
     <t>K * E_0</t>
   </si>
   <si>
@@ -193,13 +175,40 @@
     <t>g/cm^3</t>
   </si>
   <si>
-    <t>(dE/dx)_in [E_0] (keV/cm)</t>
-  </si>
-  <si>
     <t>(dE/dx)_out [K * E_0] (MeV cm^2 / g)</t>
   </si>
   <si>
-    <t>(dE/dx)_out [K * E_0] (keV/cm)</t>
+    <t>Pb channel in</t>
+  </si>
+  <si>
+    <t>Pb channel out</t>
+  </si>
+  <si>
+    <t>Target 1 (21 mm)</t>
+  </si>
+  <si>
+    <t>Target 1 (23 mm)</t>
+  </si>
+  <si>
+    <t>Target 1 (25 mm)</t>
+  </si>
+  <si>
+    <t>Target 1 (27 mm)</t>
+  </si>
+  <si>
+    <t>Back Energy (keV) [K * E0]</t>
+  </si>
+  <si>
+    <t>(dE/dx)_in [E_0] (eV/nm)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_out [K * E_0] (eV/nm)</t>
+  </si>
+  <si>
+    <t>Target 3 (55 mm)</t>
+  </si>
+  <si>
+    <t>Target 3 (57 mm)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +256,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,12 +367,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -628,11 +643,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,9 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -753,23 +881,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,13 +1140,54 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0108278837638457E-2"/>
+                  <c:y val="-0.17556116875528505"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 2,3681x + 94,322</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </c:spPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$H$4:$H$8</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1007,7 +1211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$G$4:$G$8</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1039,11 +1243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1506831616"/>
-        <c:axId val="-1506828352"/>
+        <c:axId val="1886700864"/>
+        <c:axId val="1886710112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1506831616"/>
+        <c:axId val="1886700864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,12 +1325,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506828352"/>
+        <c:crossAx val="1886710112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1506828352"/>
+        <c:axId val="1886710112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1408,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506831616"/>
+        <c:crossAx val="1886700864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1271,7 +1475,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1355,7 +1558,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1417,11 +1619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1337801216"/>
-        <c:axId val="-1337811552"/>
+        <c:axId val="1886707936"/>
+        <c:axId val="1886704672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1337801216"/>
+        <c:axId val="1886707936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1665,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1499,12 +1700,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1337811552"/>
+        <c:crossAx val="1886704672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1337811552"/>
+        <c:axId val="1886704672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1582,7 +1782,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1337801216"/>
+        <c:crossAx val="1886707936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1620,16 +1820,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>974890</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>361710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1650,16 +1850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304690</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266270</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107550</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482710</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1673,8 +1873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304690" y="2578180"/>
-          <a:ext cx="4952680" cy="3790470"/>
+          <a:off x="5295900" y="381000"/>
+          <a:ext cx="2908410" cy="1707750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2607,30 +2807,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V18" sqref="U18:V18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" customWidth="1"/>
-    <col min="15" max="15" width="16.6328125" customWidth="1"/>
-    <col min="16" max="16" width="19.1796875" customWidth="1"/>
-    <col min="17" max="17" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -2641,330 +2841,465 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="84">
+        <v>11.29</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="E5" s="18">
+        <f>((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
+        <v>0.36591870307011926</v>
+      </c>
+      <c r="F5" s="19">
+        <f>$B$1*E5</f>
+        <v>731.8374061402385</v>
+      </c>
+      <c r="G5" s="20">
+        <v>270</v>
+      </c>
+      <c r="O5" s="80"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="22">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="E6" s="24">
+        <f>((SQRT(1-(4.0026/D6)^2*SIN(RADIANS(165))^2)+4.0026/D6*COS(RADIANS(165)))/(1+4.0026/D6))^2</f>
+        <v>0.56878025675945543</v>
+      </c>
+      <c r="F6" s="25">
+        <f>$B$1*E6</f>
+        <v>1137.560513518911</v>
+      </c>
+      <c r="G6" s="26">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="28">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29">
+        <v>50.942</v>
+      </c>
+      <c r="E7" s="30">
+        <f>((SQRT(1-(4.0026/D7)^2*SIN(RADIANS(165))^2)+4.0026/D7*COS(RADIANS(165)))/(1+4.0026/D7))^2</f>
+        <v>0.7337544049093524</v>
+      </c>
+      <c r="F7" s="31">
+        <f>$B$1*E7</f>
+        <v>1467.5088098187048</v>
+      </c>
+      <c r="G7" s="32">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="35">
+        <v>41</v>
+      </c>
+      <c r="D8" s="36">
+        <v>92.906000000000006</v>
+      </c>
+      <c r="E8" s="37">
+        <f>((SQRT(1-(4.0026/D8)^2*SIN(RADIANS(165))^2)+4.0026/D8*COS(RADIANS(165)))/(1+4.0026/D8))^2</f>
+        <v>0.84408702273631764</v>
+      </c>
+      <c r="F8" s="38">
+        <f>$B$1*E8</f>
+        <v>1688.1740454726353</v>
+      </c>
+      <c r="G8" s="39">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="41">
+        <v>73</v>
+      </c>
+      <c r="D9" s="42">
+        <v>180.95</v>
+      </c>
+      <c r="E9" s="43">
+        <f>((SQRT(1-(4.0026/D9)^2*SIN(RADIANS(165))^2)+4.0026/D9*COS(RADIANS(165)))/(1+4.0026/D9))^2</f>
+        <v>0.91668930866242726</v>
+      </c>
+      <c r="F9" s="44">
+        <f>$B$1*E9</f>
+        <v>1833.3786173248545</v>
+      </c>
+      <c r="G9" s="45">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="81">
+        <v>82</v>
+      </c>
+      <c r="D11" s="81">
+        <v>207.2</v>
+      </c>
+      <c r="E11" s="82">
+        <f>((SQRT(1-(4.0026/D11)^2*SIN(RADIANS(165))^2)+4.0026/D11*COS(RADIANS(165)))/(1+4.0026/D11))^2</f>
+        <v>0.92685011433311859</v>
+      </c>
+      <c r="F11" s="83">
+        <f>$B$1*E11</f>
+        <v>1853.7002286662371</v>
+      </c>
+      <c r="G11" s="85">
+        <f>(F11-94.322)/2.3681</f>
+        <v>742.94929634147081</v>
+      </c>
+      <c r="I11" s="88"/>
+      <c r="J11" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I12" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="89">
+        <v>743</v>
+      </c>
+      <c r="K12" s="89">
+        <v>560</v>
+      </c>
+      <c r="L12" s="90">
+        <f>(J12-K12)*2.3681</f>
+        <v>433.3623</v>
+      </c>
+      <c r="M12" s="89">
+        <v>349.1</v>
+      </c>
+      <c r="N12" s="89">
+        <f>M12*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O12" s="89">
+        <v>359</v>
+      </c>
+      <c r="P12" s="89">
+        <f>O12*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q12" s="91">
+        <f>(($E$11/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R12" s="92">
+        <f>L12*10^3/Q12</f>
+        <v>1182.0640158995666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B2">
-        <v>11.29</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J13" s="89">
+        <v>745</v>
+      </c>
+      <c r="K13" s="89">
+        <v>539</v>
+      </c>
+      <c r="L13" s="90">
+        <f t="shared" ref="L13:L15" si="0">(J13-K13)*2.3681</f>
+        <v>487.82859999999999</v>
+      </c>
+      <c r="M13" s="89">
+        <v>349.1</v>
+      </c>
+      <c r="N13" s="89">
+        <f t="shared" ref="N13:N15" si="1">M13*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O13" s="89">
+        <v>359</v>
+      </c>
+      <c r="P13" s="89">
+        <f t="shared" ref="P13:P15" si="2">O13*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q13" s="91">
+        <f t="shared" ref="Q13" si="3">(($E$11/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R13" s="92">
+        <f>L13*10^3/Q13</f>
+        <v>1330.6294386629002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I14" s="86" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17">
-        <v>8</v>
-      </c>
-      <c r="E4" s="18">
-        <v>15.999000000000001</v>
-      </c>
-      <c r="F4" s="19">
-        <f>((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
-        <v>0.36591870307011926</v>
-      </c>
-      <c r="G4" s="20">
-        <f>$B$1*F4</f>
-        <v>731.8374061402385</v>
-      </c>
-      <c r="H4" s="21">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="23">
-        <v>14</v>
-      </c>
-      <c r="E5" s="24">
-        <v>28.085000000000001</v>
-      </c>
-      <c r="F5" s="25">
-        <f>((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
-        <v>0.56878025675945543</v>
-      </c>
-      <c r="G5" s="26">
-        <f>$B$1*F5</f>
-        <v>1137.560513518911</v>
-      </c>
-      <c r="H5" s="27">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="29">
-        <v>23</v>
-      </c>
-      <c r="E6" s="30">
-        <v>50.942</v>
-      </c>
-      <c r="F6" s="31">
-        <f>((SQRT(1-(4.0026/E6)^2*SIN(RADIANS(165))^2)+4.0026/E6*COS(RADIANS(165)))/(1+4.0026/E6))^2</f>
-        <v>0.7337544049093524</v>
-      </c>
-      <c r="G6" s="32">
-        <f>$B$1*F6</f>
-        <v>1467.5088098187048</v>
-      </c>
-      <c r="H6" s="33">
-        <v>582</v>
-      </c>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="J14" s="89">
+        <v>746</v>
+      </c>
+      <c r="K14" s="89">
+        <v>564</v>
+      </c>
+      <c r="L14" s="90">
+        <f t="shared" ref="L14" si="4">(J14-K14)*2.3681</f>
+        <v>430.99420000000003</v>
+      </c>
+      <c r="M14" s="89">
+        <v>349.1</v>
+      </c>
+      <c r="N14" s="89">
+        <f t="shared" si="1"/>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O14" s="89">
+        <v>359</v>
+      </c>
+      <c r="P14" s="89">
+        <f t="shared" si="2"/>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q14" s="91">
+        <f t="shared" ref="Q14" si="5">(($E$11/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R14" s="92">
+        <f>L14*10^3/Q14</f>
+        <v>1175.6046496924653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="89">
+        <v>745</v>
+      </c>
+      <c r="K15" s="89">
+        <v>561</v>
+      </c>
+      <c r="L15" s="90">
+        <f t="shared" si="0"/>
+        <v>435.73040000000003</v>
+      </c>
+      <c r="M15" s="89">
+        <v>349.1</v>
+      </c>
+      <c r="N15" s="89">
+        <f t="shared" si="1"/>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O15" s="89">
+        <v>359</v>
+      </c>
+      <c r="P15" s="89">
+        <f t="shared" si="2"/>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q15" s="91">
+        <f t="shared" ref="Q15" si="6">(($E$11/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R15" s="92">
+        <f>L15*10^3/Q15</f>
+        <v>1188.5233821066681</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="88"/>
+      <c r="J18" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="37">
-        <v>92.906000000000006</v>
-      </c>
-      <c r="F7" s="38">
-        <f>((SQRT(1-(4.0026/E7)^2*SIN(RADIANS(165))^2)+4.0026/E7*COS(RADIANS(165)))/(1+4.0026/E7))^2</f>
-        <v>0.84408702273631764</v>
-      </c>
-      <c r="G7" s="39">
-        <f>$B$1*F7</f>
-        <v>1688.1740454726353</v>
-      </c>
-      <c r="H7" s="40">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C8" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="42">
-        <v>73</v>
-      </c>
-      <c r="E8" s="43">
-        <v>180.95</v>
-      </c>
-      <c r="F8" s="44">
-        <f>((SQRT(1-(4.0026/E8)^2*SIN(RADIANS(165))^2)+4.0026/E8*COS(RADIANS(165)))/(1+4.0026/E8))^2</f>
-        <v>0.91668930866242726</v>
-      </c>
-      <c r="G8" s="45">
-        <f>$B$1*F8</f>
-        <v>1833.3786173248545</v>
-      </c>
-      <c r="H8" s="46">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C10" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="83">
-        <v>82</v>
-      </c>
-      <c r="E10" s="83">
-        <v>207.2</v>
-      </c>
-      <c r="F10" s="85">
-        <f>((SQRT(1-(4.0026/E10)^2*SIN(RADIANS(165))^2)+4.0026/E10*COS(RADIANS(165)))/(1+4.0026/E10))^2</f>
-        <v>0.92685011433311859</v>
-      </c>
-      <c r="G10" s="86">
-        <f>$B$1*F10</f>
-        <v>1853.7002286662371</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="18" spans="10:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="J18" s="82"/>
-      <c r="K18" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="82" t="s">
+      <c r="M18" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="82" t="s">
+      <c r="O18" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="S18" s="82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="10:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="J19" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="81">
-        <v>1610</v>
-      </c>
-      <c r="M19" s="81">
-        <f>2000-L19</f>
+      <c r="P18" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I19" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="89">
+        <v>739</v>
+      </c>
+      <c r="K19" s="89">
+        <v>530</v>
+      </c>
+      <c r="L19" s="90">
+        <f>(J19-K19)*2.3681</f>
+        <v>494.93290000000002</v>
+      </c>
+      <c r="M19" s="89">
+        <v>349.1</v>
+      </c>
+      <c r="N19" s="89">
+        <f>M19*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O19" s="89">
+        <v>359</v>
+      </c>
+      <c r="P19" s="89">
+        <f>O19*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q19" s="98">
+        <f>(($E$11/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R19" s="95">
+        <f>L19*10^3/Q19</f>
+        <v>1350.0075372842045</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="99">
+        <v>730</v>
+      </c>
+      <c r="K20" s="99">
         <v>390</v>
       </c>
-      <c r="N19" s="81">
+      <c r="L20" s="100">
+        <f t="shared" ref="L20:L22" si="7">(J20-K20)*2.3681</f>
+        <v>805.154</v>
+      </c>
+      <c r="M20" s="99">
         <v>349.1</v>
       </c>
-      <c r="O19" s="81">
-        <f>N19*$B$2*10^3</f>
-        <v>3941339</v>
-      </c>
-      <c r="P19" s="81">
+      <c r="N20" s="99">
+        <f t="shared" ref="N20:N22" si="8">M20*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O20" s="99">
         <v>359</v>
       </c>
-      <c r="Q19" s="81">
-        <f>P19*$B$2*10^3</f>
-        <v>4053109.9999999995</v>
-      </c>
-      <c r="R19" s="87">
-        <f>(($F$10/COS(RADIANS(0))*O19)+(1/COS(RADIANS(15)*Q19)))/10^6</f>
-        <v>3.6530293480750409</v>
-      </c>
-      <c r="S19" s="89">
-        <f>M19*10^3/R19</f>
-        <v>106760.7081244803</v>
-      </c>
-    </row>
-    <row r="20" spans="10:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="J20" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81">
-        <v>1600</v>
-      </c>
-      <c r="M20" s="81">
-        <f t="shared" ref="M20:M22" si="0">2000-L20</f>
-        <v>400</v>
-      </c>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81">
-        <f t="shared" ref="O20:O22" si="1">N20*$B$2*10^3</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81">
-        <f t="shared" ref="Q20:Q22" si="2">P20*$B$2*10^3</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="87">
-        <f t="shared" ref="R20:R22" si="3">(($F$10/COS(RADIANS(0))*O20)+(1/COS(RADIANS(15)*Q20)))/10^6</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S20" s="88">
-        <f t="shared" ref="S20:S22" si="4">M20/R20</f>
-        <v>400000000</v>
-      </c>
-    </row>
-    <row r="21" spans="10:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="J21" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="87">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S21" s="88">
-        <f t="shared" si="4"/>
-        <v>2000000000</v>
-      </c>
-    </row>
-    <row r="22" spans="10:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="J22" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="87">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S22" s="88">
-        <f t="shared" si="4"/>
-        <v>2000000000</v>
+      <c r="P20" s="99">
+        <f t="shared" ref="P20:P22" si="9">O20*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q20" s="101">
+        <f t="shared" ref="Q20:Q22" si="10">(($E$11/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R20" s="95">
+        <f>L20*10^3/Q20</f>
+        <v>2196.1845104144954</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3003,141 +3338,141 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="79" t="s">
-        <v>48</v>
+      <c r="G2" s="78" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>8</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <v>15.999000000000001</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="48">
         <f>((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <f>$B$1*F4</f>
         <v>1563.7159776396684</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="55">
         <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>14</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <v>28.085000000000001</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="59">
         <f>((SQRT(1-(1/E5)^2*SIN(RADIANS(165))^2)+1/E5*COS(RADIANS(165)))/(1+1/E5))^2</f>
         <v>0.86930741306534087</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="60">
         <f>$B$1*F5</f>
         <v>1738.6148261306816</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="61">
         <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>23</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="64">
         <v>50.942</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="59">
         <f>((SQRT(1-(1/E6)^2*SIN(RADIANS(165))^2)+1/E6*COS(RADIANS(165)))/(1+1/E6))^2</f>
         <v>0.9257111865667883</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="65">
         <f>$B$1*F6</f>
         <v>1851.4223731335767</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="66">
         <v>752</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="68">
         <v>41</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="69">
         <v>92.906000000000006</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="59">
         <f>((SQRT(1-(1/E7)^2*SIN(RADIANS(165))^2)+1/E7*COS(RADIANS(165)))/(1+1/E7))^2</f>
         <v>0.95856067934676659</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="70">
         <f>$B$1*F7</f>
         <v>1917.1213586935332</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="71">
         <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="73">
         <v>73</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="74">
         <v>180.95</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <f>((SQRT(1-(1/E8)^2*SIN(RADIANS(165))^2)+1/E8*COS(RADIANS(165)))/(1+1/E8))^2</f>
         <v>0.97850521298958393</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="76">
         <f>$B$1*F8</f>
         <v>1957.0104259791678</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="77">
         <v>796</v>
       </c>
-      <c r="J8" s="80"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J10" s="5"/>

--- a/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
+++ b/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
     <sheet name="Ta-Nb-V Calib - RBS1 - Alfas" sheetId="2" r:id="rId2"/>
-    <sheet name="Ta-Nb-V Calib - RBS1 - Protoes" sheetId="3" r:id="rId3"/>
+    <sheet name="Ta-Nb-V NEW Calib - RBS1 - Alfa" sheetId="4" r:id="rId3"/>
+    <sheet name="Ta-Nb-V Calib - RBS1 - Protoes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>2000 keV</t>
   </si>
@@ -169,9 +170,6 @@
     <t>Pb</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead density = </t>
-  </si>
-  <si>
     <t>g/cm^3</t>
   </si>
   <si>
@@ -209,17 +207,30 @@
   </si>
   <si>
     <t>Target 3 (57 mm)</t>
+  </si>
+  <si>
+    <t>Kinematic factor [K]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb density = </t>
+  </si>
+  <si>
+    <t>Target 4 (66 mm)</t>
+  </si>
+  <si>
+    <t>Target 4 (65 mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +262,26 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -378,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -426,92 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -688,10 +633,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -703,13 +648,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -724,7 +669,127 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -736,10 +801,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -751,19 +814,65 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,147 +900,206 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1243,11 +1411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1886700864"/>
-        <c:axId val="1886710112"/>
+        <c:axId val="-55826208"/>
+        <c:axId val="-55814784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1886700864"/>
+        <c:axId val="-55826208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,12 +1493,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886710112"/>
+        <c:crossAx val="-55814784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1886710112"/>
+        <c:axId val="-55814784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1576,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886700864"/>
+        <c:crossAx val="-55826208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1447,6 +1615,443 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-PT" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Calib.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5888414338875241E-2"/>
+                  <c:y val="-0.17556116875528505"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 2,3681x + 89,586</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V NEW Calib - RBS1 - Alfa'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V NEW Calib - RBS1 - Alfa'!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>731.8374061402385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1137.560513518911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1467.5088098187048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1688.1740454726353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1833.3786173248545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-49258512"/>
+        <c:axId val="-49261232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-49258512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-49261232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-49261232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-49258512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -1475,6 +2080,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1558,6 +2164,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1619,11 +2226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1886707936"/>
-        <c:axId val="1886704672"/>
+        <c:axId val="-55825120"/>
+        <c:axId val="-55814240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1886707936"/>
+        <c:axId val="-55825120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,6 +2272,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1700,12 +2308,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886704672"/>
+        <c:crossAx val="-55814240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1886704672"/>
+        <c:axId val="-55814240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,6 +2355,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1782,7 +2391,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886707936"/>
+        <c:crossAx val="-55825120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1858,8 +2467,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>482710</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63100</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1890,6 +2499,81 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>361710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482710</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="9753" t="11419" r="11554" b="9487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="387350"/>
+          <a:ext cx="2908410" cy="1339450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2228,7 +2912,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2790,14 +3474,10 @@
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>29</v>
-      </c>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>30</v>
-      </c>
+      <c r="B34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2807,10 +3487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2831,105 +3511,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="57">
         <v>2000</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="60">
+        <v>11.29</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="84">
-        <v>11.29</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="E4" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="67">
         <v>8</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="68">
         <v>15.999000000000001</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="25">
         <f>((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
         <v>0.36591870307011926</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="69">
         <f>$B$1*E5</f>
         <v>731.8374061402385</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="70">
         <v>270</v>
       </c>
-      <c r="O5" s="80"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="23">
         <v>14</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="24">
         <v>28.085000000000001</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="72">
         <f>((SQRT(1-(4.0026/D6)^2*SIN(RADIANS(165))^2)+4.0026/D6*COS(RADIANS(165)))/(1+4.0026/D6))^2</f>
         <v>0.56878025675945543</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="26">
         <f>$B$1*E6</f>
         <v>1137.560513518911</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="29">
         <v>23</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="30">
         <v>50.942</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="74">
         <f>((SQRT(1-(4.0026/D7)^2*SIN(RADIANS(165))^2)+4.0026/D7*COS(RADIANS(165)))/(1+4.0026/D7))^2</f>
         <v>0.7337544049093524</v>
       </c>
@@ -2942,259 +3623,260 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>41</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>92.906000000000006</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="76">
         <f>((SQRT(1-(4.0026/D8)^2*SIN(RADIANS(165))^2)+4.0026/D8*COS(RADIANS(165)))/(1+4.0026/D8))^2</f>
         <v>0.84408702273631764</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <f>$B$1*E8</f>
         <v>1688.1740454726353</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>73</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>180.95</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="78">
         <f>((SQRT(1-(4.0026/D9)^2*SIN(RADIANS(165))^2)+4.0026/D9*COS(RADIANS(165)))/(1+4.0026/D9))^2</f>
         <v>0.91668930866242726</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="42">
         <f>$B$1*E9</f>
         <v>1833.3786173248545</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="43">
         <v>733</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="80">
+        <v>82</v>
+      </c>
+      <c r="D10" s="80">
+        <v>207.2</v>
+      </c>
+      <c r="E10" s="81">
+        <f>((SQRT(1-(4.0026/D10)^2*SIN(RADIANS(165))^2)+4.0026/D10*COS(RADIANS(165)))/(1+4.0026/D10))^2</f>
+        <v>0.92685011433311859</v>
+      </c>
+      <c r="F10" s="82">
+        <f>$B$1*E10</f>
+        <v>1853.7002286662371</v>
+      </c>
+      <c r="G10" s="83">
+        <f>(F10-94.322)/2.3681</f>
+        <v>742.94929634147081</v>
+      </c>
+    </row>
     <row r="11" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="81">
-        <v>82</v>
-      </c>
-      <c r="D11" s="81">
-        <v>207.2</v>
-      </c>
-      <c r="E11" s="82">
-        <f>((SQRT(1-(4.0026/D11)^2*SIN(RADIANS(165))^2)+4.0026/D11*COS(RADIANS(165)))/(1+4.0026/D11))^2</f>
-        <v>0.92685011433311859</v>
-      </c>
-      <c r="F11" s="83">
-        <f>$B$1*E11</f>
-        <v>1853.7002286662371</v>
-      </c>
-      <c r="G11" s="85">
-        <f>(F11-94.322)/2.3681</f>
-        <v>742.94929634147081</v>
-      </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="93" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="93" t="s">
+      <c r="L11" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I12" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I12" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="89">
+      <c r="J12" s="99">
         <v>743</v>
       </c>
-      <c r="K12" s="89">
+      <c r="K12" s="91">
         <v>560</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="92">
         <f>(J12-K12)*2.3681</f>
         <v>433.3623</v>
       </c>
-      <c r="M12" s="89">
+      <c r="M12" s="91">
         <v>349.1</v>
       </c>
-      <c r="N12" s="89">
+      <c r="N12" s="102">
         <f>M12*$B$2/10</f>
         <v>394.13389999999998</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="91">
         <v>359</v>
       </c>
-      <c r="P12" s="89">
+      <c r="P12" s="103">
         <f>O12*$B$2/10</f>
         <v>405.31099999999998</v>
       </c>
-      <c r="Q12" s="91">
-        <f>(($E$11/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
+      <c r="Q12" s="93">
+        <f>(($E$10/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
         <v>366.6149160882843</v>
       </c>
-      <c r="R12" s="92">
+      <c r="R12" s="94">
         <f>L12*10^3/Q12</f>
         <v>1182.0640158995666</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="89">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="100">
         <v>745</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="48">
         <v>539</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="49">
         <f t="shared" ref="L13:L15" si="0">(J13-K13)*2.3681</f>
         <v>487.82859999999999</v>
       </c>
-      <c r="M13" s="89">
+      <c r="M13" s="48">
         <v>349.1</v>
       </c>
-      <c r="N13" s="89">
+      <c r="N13" s="54">
         <f t="shared" ref="N13:N15" si="1">M13*$B$2/10</f>
         <v>394.13389999999998</v>
       </c>
-      <c r="O13" s="89">
+      <c r="O13" s="48">
         <v>359</v>
       </c>
-      <c r="P13" s="89">
+      <c r="P13" s="55">
         <f t="shared" ref="P13:P15" si="2">O13*$B$2/10</f>
         <v>405.31099999999998</v>
       </c>
-      <c r="Q13" s="91">
-        <f t="shared" ref="Q13" si="3">(($E$11/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
+      <c r="Q13" s="50">
+        <f>(($E$10/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
         <v>366.6149160882843</v>
       </c>
-      <c r="R13" s="92">
+      <c r="R13" s="86">
         <f>L13*10^3/Q13</f>
         <v>1330.6294386629002</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I14" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="89">
+      <c r="I14" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="100">
         <v>746</v>
       </c>
-      <c r="K14" s="89">
+      <c r="K14" s="48">
         <v>564</v>
       </c>
-      <c r="L14" s="90">
-        <f t="shared" ref="L14" si="4">(J14-K14)*2.3681</f>
+      <c r="L14" s="49">
+        <f t="shared" ref="L14" si="3">(J14-K14)*2.3681</f>
         <v>430.99420000000003</v>
       </c>
-      <c r="M14" s="89">
+      <c r="M14" s="48">
         <v>349.1</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N14" s="54">
         <f t="shared" si="1"/>
         <v>394.13389999999998</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="48">
         <v>359</v>
       </c>
-      <c r="P14" s="89">
+      <c r="P14" s="55">
         <f t="shared" si="2"/>
         <v>405.31099999999998</v>
       </c>
-      <c r="Q14" s="91">
-        <f t="shared" ref="Q14" si="5">(($E$11/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
+      <c r="Q14" s="50">
+        <f>(($E$10/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
         <v>366.6149160882843</v>
       </c>
-      <c r="R14" s="92">
+      <c r="R14" s="86">
         <f>L14*10^3/Q14</f>
         <v>1175.6046496924653</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="89">
+      <c r="I15" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="88">
         <v>745</v>
       </c>
-      <c r="K15" s="89">
+      <c r="K15" s="51">
         <v>561</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="52">
         <f t="shared" si="0"/>
         <v>435.73040000000003</v>
       </c>
-      <c r="M15" s="89">
+      <c r="M15" s="51">
         <v>349.1</v>
       </c>
-      <c r="N15" s="89">
+      <c r="N15" s="84">
         <f t="shared" si="1"/>
         <v>394.13389999999998</v>
       </c>
-      <c r="O15" s="89">
+      <c r="O15" s="51">
         <v>359</v>
       </c>
-      <c r="P15" s="89">
+      <c r="P15" s="85">
         <f t="shared" si="2"/>
         <v>405.31099999999998</v>
       </c>
-      <c r="Q15" s="91">
-        <f t="shared" ref="Q15" si="6">(($E$11/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
+      <c r="Q15" s="53">
+        <f>(($E$10/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
         <v>366.6149160882843</v>
       </c>
-      <c r="R15" s="92">
+      <c r="R15" s="87">
         <f>L15*10^3/Q15</f>
         <v>1188.5233821066681</v>
       </c>
     </row>
     <row r="17" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="88"/>
-      <c r="J18" s="96" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="96" t="s">
         <v>50</v>
-      </c>
-      <c r="K18" s="96" t="s">
-        <v>51</v>
       </c>
       <c r="L18" s="96" t="s">
         <v>41</v>
@@ -3203,93 +3885,198 @@
         <v>45</v>
       </c>
       <c r="N18" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="96" t="s">
         <v>57</v>
-      </c>
-      <c r="O18" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="P18" s="96" t="s">
-        <v>58</v>
       </c>
       <c r="Q18" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="98" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="9:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I19" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="89">
+      <c r="I19" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="99">
         <v>739</v>
       </c>
-      <c r="K19" s="89">
+      <c r="K19" s="91">
         <v>530</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="92">
         <f>(J19-K19)*2.3681</f>
         <v>494.93290000000002</v>
       </c>
-      <c r="M19" s="89">
+      <c r="M19" s="91">
         <v>349.1</v>
       </c>
-      <c r="N19" s="89">
+      <c r="N19" s="91">
         <f>M19*$B$2/10</f>
         <v>394.13389999999998</v>
       </c>
-      <c r="O19" s="89">
+      <c r="O19" s="91">
         <v>359</v>
       </c>
-      <c r="P19" s="89">
+      <c r="P19" s="91">
         <f>O19*$B$2/10</f>
         <v>405.31099999999998</v>
       </c>
-      <c r="Q19" s="98">
-        <f>(($E$11/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
+      <c r="Q19" s="93">
+        <f>(($E$10/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
         <v>366.6149160882843</v>
       </c>
-      <c r="R19" s="95">
+      <c r="R19" s="94">
         <f>L19*10^3/Q19</f>
         <v>1350.0075372842045</v>
       </c>
     </row>
     <row r="20" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="99">
+      <c r="I20" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="105">
         <v>730</v>
       </c>
-      <c r="K20" s="99">
+      <c r="K20" s="106">
         <v>390</v>
       </c>
-      <c r="L20" s="100">
-        <f t="shared" ref="L20:L22" si="7">(J20-K20)*2.3681</f>
+      <c r="L20" s="52">
+        <f t="shared" ref="L20" si="4">(J20-K20)*2.3681</f>
         <v>805.154</v>
       </c>
-      <c r="M20" s="99">
+      <c r="M20" s="51">
         <v>349.1</v>
       </c>
-      <c r="N20" s="99">
-        <f t="shared" ref="N20:N22" si="8">M20*$B$2/10</f>
+      <c r="N20" s="51">
+        <f t="shared" ref="N20" si="5">M20*$B$2/10</f>
         <v>394.13389999999998</v>
       </c>
-      <c r="O20" s="99">
+      <c r="O20" s="51">
         <v>359</v>
       </c>
-      <c r="P20" s="99">
-        <f t="shared" ref="P20:P22" si="9">O20*$B$2/10</f>
+      <c r="P20" s="51">
+        <f t="shared" ref="P20" si="6">O20*$B$2/10</f>
         <v>405.31099999999998</v>
       </c>
-      <c r="Q20" s="101">
-        <f t="shared" ref="Q20:Q22" si="10">(($E$11/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
+      <c r="Q20" s="53">
+        <f>(($E$10/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
         <v>366.6149160882843</v>
       </c>
-      <c r="R20" s="95">
+      <c r="R20" s="87">
         <f>L20*10^3/Q20</f>
         <v>2196.1845104144954</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="47"/>
+      <c r="J23" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="9:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I24" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="104">
+        <v>744</v>
+      </c>
+      <c r="K24" s="91">
+        <v>500</v>
+      </c>
+      <c r="L24" s="92">
+        <f>(J25-K24)*2.3681</f>
+        <v>575.44830000000002</v>
+      </c>
+      <c r="M24" s="91">
+        <v>349.1</v>
+      </c>
+      <c r="N24" s="91">
+        <f>M24*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O24" s="91">
+        <v>359</v>
+      </c>
+      <c r="P24" s="91">
+        <f>O24*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q24" s="93">
+        <f>(($E$10/COS(RADIANS(0))*N24)+(1/COS(RADIANS(15)*P24)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R24" s="94">
+        <f>L24*10^3/Q24</f>
+        <v>1569.6259883256541</v>
+      </c>
+    </row>
+    <row r="25" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I25" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="88">
+        <v>743</v>
+      </c>
+      <c r="K25" s="51">
+        <v>510</v>
+      </c>
+      <c r="L25" s="52">
+        <f>(J25-K25)*2.3681</f>
+        <v>551.76729999999998</v>
+      </c>
+      <c r="M25" s="51">
+        <v>349.1</v>
+      </c>
+      <c r="N25" s="51">
+        <f t="shared" ref="N25" si="7">M25*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O25" s="51">
+        <v>359</v>
+      </c>
+      <c r="P25" s="51">
+        <f t="shared" ref="P25" si="8">O25*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q25" s="53">
+        <f>(($E$10/COS(RADIANS(0))*N25)+(1/COS(RADIANS(15)*P25)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R25" s="87">
+        <f>L25*10^3/Q25</f>
+        <v>1505.0323262546394</v>
       </c>
     </row>
   </sheetData>
@@ -3304,6 +4091,611 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="57">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="60">
+        <v>11.29</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="67">
+        <v>8</v>
+      </c>
+      <c r="D5" s="68">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="E5" s="25">
+        <f>((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
+        <v>0.36591870307011926</v>
+      </c>
+      <c r="F5" s="69">
+        <f>$B$1*E5</f>
+        <v>731.8374061402385</v>
+      </c>
+      <c r="G5" s="70">
+        <v>272</v>
+      </c>
+      <c r="O5" s="46"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="23">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="E6" s="72">
+        <f>((SQRT(1-(4.0026/D6)^2*SIN(RADIANS(165))^2)+4.0026/D6*COS(RADIANS(165)))/(1+4.0026/D6))^2</f>
+        <v>0.56878025675945543</v>
+      </c>
+      <c r="F6" s="26">
+        <f>$B$1*E6</f>
+        <v>1137.560513518911</v>
+      </c>
+      <c r="G6" s="27">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="29">
+        <v>23</v>
+      </c>
+      <c r="D7" s="30">
+        <v>50.942</v>
+      </c>
+      <c r="E7" s="74">
+        <f>((SQRT(1-(4.0026/D7)^2*SIN(RADIANS(165))^2)+4.0026/D7*COS(RADIANS(165)))/(1+4.0026/D7))^2</f>
+        <v>0.7337544049093524</v>
+      </c>
+      <c r="F7" s="31">
+        <f>$B$1*E7</f>
+        <v>1467.5088098187048</v>
+      </c>
+      <c r="G7" s="32">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="34">
+        <v>41</v>
+      </c>
+      <c r="D8" s="35">
+        <v>92.906000000000006</v>
+      </c>
+      <c r="E8" s="76">
+        <f>((SQRT(1-(4.0026/D8)^2*SIN(RADIANS(165))^2)+4.0026/D8*COS(RADIANS(165)))/(1+4.0026/D8))^2</f>
+        <v>0.84408702273631764</v>
+      </c>
+      <c r="F8" s="36">
+        <f>$B$1*E8</f>
+        <v>1688.1740454726353</v>
+      </c>
+      <c r="G8" s="37">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="39">
+        <v>73</v>
+      </c>
+      <c r="D9" s="40">
+        <v>180.95</v>
+      </c>
+      <c r="E9" s="78">
+        <f>((SQRT(1-(4.0026/D9)^2*SIN(RADIANS(165))^2)+4.0026/D9*COS(RADIANS(165)))/(1+4.0026/D9))^2</f>
+        <v>0.91668930866242726</v>
+      </c>
+      <c r="F9" s="42">
+        <f>$B$1*E9</f>
+        <v>1833.3786173248545</v>
+      </c>
+      <c r="G9" s="43">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="80">
+        <v>82</v>
+      </c>
+      <c r="D10" s="80">
+        <v>207.2</v>
+      </c>
+      <c r="E10" s="81">
+        <f>((SQRT(1-(4.0026/D10)^2*SIN(RADIANS(165))^2)+4.0026/D10*COS(RADIANS(165)))/(1+4.0026/D10))^2</f>
+        <v>0.92685011433311859</v>
+      </c>
+      <c r="F10" s="82">
+        <f>$B$1*E10</f>
+        <v>1853.7002286662371</v>
+      </c>
+      <c r="G10" s="83">
+        <f>(F10-94.322)/2.3681</f>
+        <v>742.94929634147081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="47"/>
+      <c r="J11" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I12" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="99">
+        <v>743</v>
+      </c>
+      <c r="K12" s="91">
+        <v>560</v>
+      </c>
+      <c r="L12" s="92">
+        <f>(J12-K12)*2.3681</f>
+        <v>433.3623</v>
+      </c>
+      <c r="M12" s="91">
+        <v>349.1</v>
+      </c>
+      <c r="N12" s="102">
+        <f>M12*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O12" s="91">
+        <v>359</v>
+      </c>
+      <c r="P12" s="103">
+        <f>O12*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q12" s="93">
+        <f>(($E$10/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R12" s="94">
+        <f>L12*10^3/Q12</f>
+        <v>1182.0640158995666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="100">
+        <v>745</v>
+      </c>
+      <c r="K13" s="48">
+        <v>539</v>
+      </c>
+      <c r="L13" s="49">
+        <f t="shared" ref="L13:L15" si="0">(J13-K13)*2.3681</f>
+        <v>487.82859999999999</v>
+      </c>
+      <c r="M13" s="48">
+        <v>349.1</v>
+      </c>
+      <c r="N13" s="54">
+        <f t="shared" ref="N13:N15" si="1">M13*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O13" s="48">
+        <v>359</v>
+      </c>
+      <c r="P13" s="55">
+        <f t="shared" ref="P13:P15" si="2">O13*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q13" s="50">
+        <f>(($E$10/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R13" s="86">
+        <f>L13*10^3/Q13</f>
+        <v>1330.6294386629002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I14" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="100">
+        <v>746</v>
+      </c>
+      <c r="K14" s="48">
+        <v>564</v>
+      </c>
+      <c r="L14" s="49">
+        <f t="shared" si="0"/>
+        <v>430.99420000000003</v>
+      </c>
+      <c r="M14" s="48">
+        <v>349.1</v>
+      </c>
+      <c r="N14" s="54">
+        <f t="shared" si="1"/>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O14" s="48">
+        <v>359</v>
+      </c>
+      <c r="P14" s="55">
+        <f t="shared" si="2"/>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q14" s="50">
+        <f>(($E$10/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R14" s="86">
+        <f>L14*10^3/Q14</f>
+        <v>1175.6046496924653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="88">
+        <v>745</v>
+      </c>
+      <c r="K15" s="51">
+        <v>561</v>
+      </c>
+      <c r="L15" s="52">
+        <f t="shared" si="0"/>
+        <v>435.73040000000003</v>
+      </c>
+      <c r="M15" s="51">
+        <v>349.1</v>
+      </c>
+      <c r="N15" s="84">
+        <f t="shared" si="1"/>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O15" s="51">
+        <v>359</v>
+      </c>
+      <c r="P15" s="85">
+        <f t="shared" si="2"/>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q15" s="53">
+        <f>(($E$10/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R15" s="87">
+        <f>L15*10^3/Q15</f>
+        <v>1188.5233821066681</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="47"/>
+      <c r="J18" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I19" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="99">
+        <v>739</v>
+      </c>
+      <c r="K19" s="91">
+        <v>530</v>
+      </c>
+      <c r="L19" s="92">
+        <f>(J19-K19)*2.3681</f>
+        <v>494.93290000000002</v>
+      </c>
+      <c r="M19" s="91">
+        <v>349.1</v>
+      </c>
+      <c r="N19" s="91">
+        <f>M19*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O19" s="91">
+        <v>359</v>
+      </c>
+      <c r="P19" s="91">
+        <f>O19*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q19" s="93">
+        <f>(($E$10/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R19" s="94">
+        <f>L19*10^3/Q19</f>
+        <v>1350.0075372842045</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="105">
+        <v>730</v>
+      </c>
+      <c r="K20" s="106">
+        <v>390</v>
+      </c>
+      <c r="L20" s="52">
+        <f t="shared" ref="L20" si="3">(J20-K20)*2.3681</f>
+        <v>805.154</v>
+      </c>
+      <c r="M20" s="51">
+        <v>349.1</v>
+      </c>
+      <c r="N20" s="51">
+        <f t="shared" ref="N20" si="4">M20*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O20" s="51">
+        <v>359</v>
+      </c>
+      <c r="P20" s="51">
+        <f t="shared" ref="P20" si="5">O20*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q20" s="53">
+        <f>(($E$10/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R20" s="87">
+        <f>L20*10^3/Q20</f>
+        <v>2196.1845104144954</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="47"/>
+      <c r="J23" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="9:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="I24" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="104">
+        <v>744</v>
+      </c>
+      <c r="K24" s="91">
+        <v>500</v>
+      </c>
+      <c r="L24" s="92">
+        <f>(J25-K24)*2.3681</f>
+        <v>575.44830000000002</v>
+      </c>
+      <c r="M24" s="91">
+        <v>349.1</v>
+      </c>
+      <c r="N24" s="91">
+        <f>M24*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O24" s="91">
+        <v>359</v>
+      </c>
+      <c r="P24" s="91">
+        <f>O24*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q24" s="93">
+        <f>(($E$10/COS(RADIANS(0))*N24)+(1/COS(RADIANS(15)*P24)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R24" s="94">
+        <f>L24*10^3/Q24</f>
+        <v>1569.6259883256541</v>
+      </c>
+    </row>
+    <row r="25" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I25" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="88">
+        <v>743</v>
+      </c>
+      <c r="K25" s="51">
+        <v>510</v>
+      </c>
+      <c r="L25" s="52">
+        <f>(J25-K25)*2.3681</f>
+        <v>551.76729999999998</v>
+      </c>
+      <c r="M25" s="51">
+        <v>349.1</v>
+      </c>
+      <c r="N25" s="51">
+        <f t="shared" ref="N25" si="6">M25*$B$2/10</f>
+        <v>394.13389999999998</v>
+      </c>
+      <c r="O25" s="51">
+        <v>359</v>
+      </c>
+      <c r="P25" s="51">
+        <f t="shared" ref="P25" si="7">O25*$B$2/10</f>
+        <v>405.31099999999998</v>
+      </c>
+      <c r="Q25" s="53">
+        <f>(($E$10/COS(RADIANS(0))*N25)+(1/COS(RADIANS(15)*P25)))</f>
+        <v>366.6149160882843</v>
+      </c>
+      <c r="R25" s="87">
+        <f>L25*10^3/Q25</f>
+        <v>1505.0323262546394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -3338,141 +4730,141 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="12">
         <v>8</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="13">
         <v>15.999000000000001</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="14">
         <f>((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="15">
         <f>$B$1*F4</f>
         <v>1563.7159776396684</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="21">
         <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="23">
         <v>14</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="24">
         <v>28.085000000000001</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="25">
         <f>((SQRT(1-(1/E5)^2*SIN(RADIANS(165))^2)+1/E5*COS(RADIANS(165)))/(1+1/E5))^2</f>
         <v>0.86930741306534087</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="26">
         <f>$B$1*F5</f>
         <v>1738.6148261306816</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="27">
         <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="29">
         <v>23</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="30">
         <v>50.942</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="25">
         <f>((SQRT(1-(1/E6)^2*SIN(RADIANS(165))^2)+1/E6*COS(RADIANS(165)))/(1+1/E6))^2</f>
         <v>0.9257111865667883</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="31">
         <f>$B$1*F6</f>
         <v>1851.4223731335767</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="32">
         <v>752</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="34">
         <v>41</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="35">
         <v>92.906000000000006</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="25">
         <f>((SQRT(1-(1/E7)^2*SIN(RADIANS(165))^2)+1/E7*COS(RADIANS(165)))/(1+1/E7))^2</f>
         <v>0.95856067934676659</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="36">
         <f>$B$1*F7</f>
         <v>1917.1213586935332</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="37">
         <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="39">
         <v>73</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="40">
         <v>180.95</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="41">
         <f>((SQRT(1-(1/E8)^2*SIN(RADIANS(165))^2)+1/E8*COS(RADIANS(165)))/(1+1/E8))^2</f>
         <v>0.97850521298958393</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="42">
         <f>$B$1*F8</f>
         <v>1957.0104259791678</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="43">
         <v>796</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J10" s="5"/>

--- a/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
+++ b/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
-    <sheet name="Ta-Nb-V Calib - RBS1 - Alfas" sheetId="2" r:id="rId2"/>
-    <sheet name="Ta-Nb-V NEW Calib - RBS1 - Alfa" sheetId="4" r:id="rId3"/>
-    <sheet name="Ta-Nb-V Calib - RBS1 - Protoes" sheetId="3" r:id="rId4"/>
+    <sheet name="Ta-Nb-V Calib - RBS1 - Alfa" sheetId="4" r:id="rId2"/>
+    <sheet name="Ta-Nb-V Calib - RBS1 - Protoes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="68">
   <si>
     <t>2000 keV</t>
   </si>
@@ -128,12 +127,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>kinematic factor</t>
-  </si>
-  <si>
-    <t>Back Energy (keV)</t>
-  </si>
-  <si>
     <t>Surface channel</t>
   </si>
   <si>
@@ -182,18 +175,6 @@
     <t>Pb channel out</t>
   </si>
   <si>
-    <t>Target 1 (21 mm)</t>
-  </si>
-  <si>
-    <t>Target 1 (23 mm)</t>
-  </si>
-  <si>
-    <t>Target 1 (25 mm)</t>
-  </si>
-  <si>
-    <t>Target 1 (27 mm)</t>
-  </si>
-  <si>
     <t>Back Energy (keV) [K * E0]</t>
   </si>
   <si>
@@ -203,22 +184,52 @@
     <t>(dE/dx)_out [K * E_0] (eV/nm)</t>
   </si>
   <si>
-    <t>Target 3 (55 mm)</t>
-  </si>
-  <si>
-    <t>Target 3 (57 mm)</t>
-  </si>
-  <si>
     <t>Kinematic factor [K]</t>
   </si>
   <si>
     <t xml:space="preserve">Pb density = </t>
   </si>
   <si>
-    <t>Target 4 (66 mm)</t>
-  </si>
-  <si>
-    <t>Target 4 (65 mm)</t>
+    <t>O channel in</t>
+  </si>
+  <si>
+    <t>O channel out</t>
+  </si>
+  <si>
+    <t>C channel in</t>
+  </si>
+  <si>
+    <t>C channel out</t>
+  </si>
+  <si>
+    <t>21 mm</t>
+  </si>
+  <si>
+    <t>23 mm</t>
+  </si>
+  <si>
+    <t>25 mm</t>
+  </si>
+  <si>
+    <t>27 mm</t>
+  </si>
+  <si>
+    <t>Traget 3</t>
+  </si>
+  <si>
+    <t>55 mm</t>
+  </si>
+  <si>
+    <t>57 mm</t>
+  </si>
+  <si>
+    <t>Target 4</t>
+  </si>
+  <si>
+    <t>65 mm</t>
+  </si>
+  <si>
+    <t>66 mm</t>
   </si>
 </sst>
 </file>
@@ -230,7 +241,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,8 +297,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +433,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -457,15 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -522,28 +568,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -633,37 +657,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -868,11 +862,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,208 +919,362 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="20" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="25" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,425 +1366,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="pt-PT" sz="1400" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT" sz="1400" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Calib.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19080" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="A5A5A5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.0108278837638457E-2"/>
-                  <c:y val="-0.17556116875528505"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 2,3681x + 94,322</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t/>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,9999</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$G$5:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>674</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>733</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1 - Alfas'!$F$5:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>731.8374061402385</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1137.560513518911</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1467.5088098187048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1688.1740454726353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1833.3786173248545</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-55826208"/>
-        <c:axId val="-55814784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-55826208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Channel</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-55814784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-55814784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Energy (keV)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-55826208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -1727,8 +1482,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5888414338875241E-2"/>
-                  <c:y val="-0.17556116875528505"/>
+                  <c:x val="6.128398982650083E-2"/>
+                  <c:y val="-0.1847793976214066"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1737,11 +1492,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:defRPr>
+                      <a:defRPr/>
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -1749,36 +1500,20 @@
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 2,3681x + 89,586</a:t>
+                      <a:t>y = 2,3657x + 97,266</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t/>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
+                      <a:rPr lang="en-US" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>R² = 0,9999</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1787,36 +1522,41 @@
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
               </c:spPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V NEW Calib - RBS1 - Alfa'!$G$5:$G$9</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfa'!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>272</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>440</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>584</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>676</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>735</c:v>
+                  <c:v>732.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V NEW Calib - RBS1 - Alfa'!$F$5:$F$9</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfa'!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1848,11 +1588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-49258512"/>
-        <c:axId val="-49261232"/>
+        <c:axId val="485546064"/>
+        <c:axId val="485533008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-49258512"/>
+        <c:axId val="485546064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,12 +1670,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-49261232"/>
+        <c:crossAx val="485533008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-49261232"/>
+        <c:axId val="485533008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +1753,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-49258512"/>
+        <c:crossAx val="485546064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2047,7 +1787,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -2151,21 +1891,58 @@
             </c:extLst>
           </c:dLbls>
           <c:trendline>
-            <c:spPr>
-              <a:ln w="19080" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="A5A5A5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.940884889990416E-2"/>
+                  <c:y val="-0.21896777612043217"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 2,381x + 62,245</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>R² = 0,9992</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2175,16 +1952,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>633</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>702</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>752</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>778</c:v>
+                  <c:v>779</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>796</c:v>
@@ -2226,11 +2003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-55825120"/>
-        <c:axId val="-55814240"/>
+        <c:axId val="485546608"/>
+        <c:axId val="485531376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-55825120"/>
+        <c:axId val="485546608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,12 +2085,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55814240"/>
+        <c:crossAx val="485531376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-55814240"/>
+        <c:axId val="485531376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2168,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55825120"/>
+        <c:crossAx val="485546608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2437,81 +2214,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>177560</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>361710</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>482710</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>56750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="9753" t="11419" r="11554" b="9487"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5295900" y="381000"/>
-          <a:ext cx="2908410" cy="1707750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177560</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>361710</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>533160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2541,7 +2245,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>482710</xdr:colOff>
+      <xdr:colOff>616060</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>56750</xdr:rowOff>
     </xdr:to>
@@ -2573,20 +2277,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>631990</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9690</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>342660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2603,44 +2307,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590120</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="9753" t="11419" r="11554" b="9487"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="311040" y="1751400"/>
-          <a:ext cx="5731560" cy="3790440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2912,7 +2578,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3487,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3499,584 +3165,1371 @@
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" customWidth="1"/>
     <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.36328125" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9" customWidth="1"/>
+    <col min="40" max="40" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="38">
         <v>2000</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="60">
-        <v>11.29</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+    <row r="2" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="41">
+        <v>11.31</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:40" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="65" t="s">
+      <c r="E4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="48">
+        <v>8</v>
+      </c>
+      <c r="D5" s="49">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E10" si="0">((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
+        <v>0.36591870307011926</v>
+      </c>
+      <c r="F5" s="50">
+        <f t="shared" ref="F5:F10" si="1">$B$1*E5</f>
+        <v>731.8374061402385</v>
+      </c>
+      <c r="G5" s="51">
+        <v>269</v>
+      </c>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="66" t="s">
+      <c r="C6" s="11">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="E6" s="53">
+        <f t="shared" si="0"/>
+        <v>0.56878025675945543</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>1137.560513518911</v>
+      </c>
+      <c r="G6" s="15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="67">
-        <v>8</v>
-      </c>
-      <c r="D5" s="68">
-        <v>15.999000000000001</v>
-      </c>
-      <c r="E5" s="25">
-        <f>((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
-        <v>0.36591870307011926</v>
-      </c>
-      <c r="F5" s="69">
-        <f>$B$1*E5</f>
-        <v>731.8374061402385</v>
-      </c>
-      <c r="G5" s="70">
-        <v>270</v>
-      </c>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="71" t="s">
+      <c r="C7" s="16">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17">
+        <v>50.942</v>
+      </c>
+      <c r="E7" s="55">
+        <f t="shared" si="0"/>
+        <v>0.7337544049093524</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>1467.5088098187048</v>
+      </c>
+      <c r="G7" s="19">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B8" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23">
-        <v>14</v>
-      </c>
-      <c r="D6" s="24">
-        <v>28.085000000000001</v>
-      </c>
-      <c r="E6" s="72">
-        <f>((SQRT(1-(4.0026/D6)^2*SIN(RADIANS(165))^2)+4.0026/D6*COS(RADIANS(165)))/(1+4.0026/D6))^2</f>
-        <v>0.56878025675945543</v>
-      </c>
-      <c r="F6" s="26">
-        <f>$B$1*E6</f>
-        <v>1137.560513518911</v>
-      </c>
-      <c r="G6" s="27">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="73" t="s">
+      <c r="C8" s="20">
+        <v>41</v>
+      </c>
+      <c r="D8" s="21">
+        <v>92.906000000000006</v>
+      </c>
+      <c r="E8" s="57">
+        <f t="shared" si="0"/>
+        <v>0.84408702273631764</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="1"/>
+        <v>1688.1740454726353</v>
+      </c>
+      <c r="G8" s="23">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="29">
-        <v>23</v>
-      </c>
-      <c r="D7" s="30">
-        <v>50.942</v>
-      </c>
-      <c r="E7" s="74">
-        <f>((SQRT(1-(4.0026/D7)^2*SIN(RADIANS(165))^2)+4.0026/D7*COS(RADIANS(165)))/(1+4.0026/D7))^2</f>
-        <v>0.7337544049093524</v>
-      </c>
-      <c r="F7" s="31">
-        <f>$B$1*E7</f>
-        <v>1467.5088098187048</v>
-      </c>
-      <c r="G7" s="32">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="34">
-        <v>41</v>
-      </c>
-      <c r="D8" s="35">
-        <v>92.906000000000006</v>
-      </c>
-      <c r="E8" s="76">
-        <f>((SQRT(1-(4.0026/D8)^2*SIN(RADIANS(165))^2)+4.0026/D8*COS(RADIANS(165)))/(1+4.0026/D8))^2</f>
-        <v>0.84408702273631764</v>
-      </c>
-      <c r="F8" s="36">
-        <f>$B$1*E8</f>
-        <v>1688.1740454726353</v>
-      </c>
-      <c r="G8" s="37">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="C9" s="24">
         <v>73</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="25">
         <v>180.95</v>
       </c>
-      <c r="E9" s="78">
-        <f>((SQRT(1-(4.0026/D9)^2*SIN(RADIANS(165))^2)+4.0026/D9*COS(RADIANS(165)))/(1+4.0026/D9))^2</f>
+      <c r="E9" s="59">
+        <f t="shared" si="0"/>
         <v>0.91668930866242726</v>
       </c>
-      <c r="F9" s="42">
-        <f>$B$1*E9</f>
+      <c r="F9" s="26">
+        <f t="shared" si="1"/>
         <v>1833.3786173248545</v>
       </c>
-      <c r="G9" s="43">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="80">
+      <c r="G9" s="27">
+        <v>732.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="84">
         <v>82</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="84">
         <v>207.2</v>
       </c>
-      <c r="E10" s="81">
-        <f>((SQRT(1-(4.0026/D10)^2*SIN(RADIANS(165))^2)+4.0026/D10*COS(RADIANS(165)))/(1+4.0026/D10))^2</f>
+      <c r="E10" s="85">
+        <f t="shared" si="0"/>
         <v>0.92685011433311859</v>
       </c>
-      <c r="F10" s="82">
-        <f>$B$1*E10</f>
+      <c r="F10" s="86">
+        <f t="shared" si="1"/>
         <v>1853.7002286662371</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="87">
         <f>(F10-94.322)/2.3681</f>
         <v>742.94929634147081</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="47"/>
-      <c r="J11" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="96" t="s">
+    <row r="11" spans="1:40" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="96" t="s">
+      <c r="O11" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="96" t="s">
+      <c r="R11" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="30"/>
+      <c r="T11" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="96" t="s">
+      <c r="AG11" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH11" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ11" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK11" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL11" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM11" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN11" s="127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I12" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="74">
+        <v>728</v>
+      </c>
+      <c r="K12" s="67">
+        <v>582</v>
+      </c>
+      <c r="L12" s="68">
+        <f>(J12-K12)*2.3657</f>
+        <v>345.3922</v>
+      </c>
+      <c r="M12" s="67">
+        <v>349.1</v>
+      </c>
+      <c r="N12" s="77">
+        <f>M12*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O12" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P12" s="77">
+        <f>O12*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q12" s="144">
+        <f>(($E$10/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R12" s="70">
+        <f>L12*10^3/Q12</f>
+        <v>941.16897299306925</v>
+      </c>
+      <c r="S12" s="30"/>
+      <c r="T12" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="135"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="68">
+        <f>(U12-V12)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="77">
+        <f>X12*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="77">
+        <f>Z12*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="144">
+        <f>(($F$9/COS(RADIANS(0))*Y12)+(1/COS(RADIANS(15)*AA12)))</f>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="137">
+        <f>W12*10^3/AB12</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="68">
+        <f>(AF12-AG12)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="77">
+        <f>AI12*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="77">
+        <f>AK12*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="144">
+        <f>(($F$9/COS(RADIANS(0))*AJ12)+(1/COS(RADIANS(15)*AL12)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN12" s="137">
+        <f>AH12*10^3/AM12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="75">
+        <v>724</v>
+      </c>
+      <c r="K13" s="31">
+        <v>575</v>
+      </c>
+      <c r="L13" s="32">
+        <f t="shared" ref="L13:L15" si="2">(J13-K13)*2.3681</f>
+        <v>352.84690000000001</v>
+      </c>
+      <c r="M13" s="67">
+        <v>349.1</v>
+      </c>
+      <c r="N13" s="77">
+        <f>M13*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O13" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P13" s="77">
+        <f>O13*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q13" s="144">
+        <f>(($E$10/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R13" s="70">
+        <f>L13*10^3/Q13</f>
+        <v>961.48249583166091</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="75"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="32">
+        <f t="shared" ref="W13:W15" si="3">(U13-V13)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="35">
+        <f t="shared" ref="Y13:Y15" si="4">X13*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="35">
+        <f t="shared" ref="AA13:AA15" si="5">Z13*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="144">
+        <f t="shared" ref="AB13:AB15" si="6">(($F$9/COS(RADIANS(0))*Y13)+(1/COS(RADIANS(15)*AA13)))</f>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="62">
+        <f>W13*10^3/AB13</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="32">
+        <f t="shared" ref="AH13:AH15" si="7">(AF13-AG13)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="35">
+        <f t="shared" ref="AJ13:AJ15" si="8">AI13*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="35">
+        <f t="shared" ref="AL13:AL15" si="9">AK13*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="144">
+        <f>(($F$9/COS(RADIANS(0))*AJ13)+(1/COS(RADIANS(15)*AL13)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="62">
+        <f>AH13*10^3/AM13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I14" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="75">
+        <v>729</v>
+      </c>
+      <c r="K14" s="31">
+        <v>582</v>
+      </c>
+      <c r="L14" s="32">
+        <f t="shared" si="2"/>
+        <v>348.11070000000001</v>
+      </c>
+      <c r="M14" s="67">
+        <v>349.1</v>
+      </c>
+      <c r="N14" s="77">
+        <f>M14*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O14" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P14" s="77">
+        <f>O14*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q14" s="144">
+        <f>(($E$10/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R14" s="70">
+        <f>L14*10^3/Q14</f>
+        <v>948.57669051848427</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="75"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="144">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="62">
+        <f>W14*10^3/AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="144">
+        <f>(($F$9/COS(RADIANS(0))*AJ14)+(1/COS(RADIANS(15)*AL14)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN14" s="62">
+        <f>AH14*10^3/AM14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="64">
+        <v>729</v>
+      </c>
+      <c r="K15" s="33">
+        <v>579</v>
+      </c>
+      <c r="L15" s="34">
+        <f t="shared" si="2"/>
+        <v>355.21500000000003</v>
+      </c>
+      <c r="M15" s="67">
+        <v>349.1</v>
+      </c>
+      <c r="N15" s="77">
+        <f>M15*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O15" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P15" s="77">
+        <f>O15*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q15" s="144">
+        <f>(($E$10/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R15" s="70">
+        <f>L15*10^3/Q15</f>
+        <v>967.93539848824935</v>
+      </c>
+      <c r="S15" s="30"/>
+      <c r="T15" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="64"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="63">
+        <f>W15*10^3/AB15</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="139"/>
+      <c r="AJ15" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="145">
+        <f>(($F$9/COS(RADIANS(0))*AJ15)+(1/COS(RADIANS(15)*AL15)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN15" s="63">
+        <f>AH15*10^3/AM15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+    </row>
+    <row r="17" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+    </row>
+    <row r="18" spans="9:40" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="96" t="s">
+      <c r="L18" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="30"/>
+      <c r="T18" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA18" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF18" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="97" t="s">
+      <c r="AH18" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I12" s="89" t="s">
+      <c r="AJ18" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK18" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL18" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="99">
-        <v>743</v>
-      </c>
-      <c r="K12" s="91">
-        <v>560</v>
-      </c>
-      <c r="L12" s="92">
-        <f>(J12-K12)*2.3681</f>
-        <v>433.3623</v>
-      </c>
-      <c r="M12" s="91">
+      <c r="AM18" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN18" s="127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="9:40" x14ac:dyDescent="0.35">
+      <c r="I19" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="74">
+        <v>686</v>
+      </c>
+      <c r="K19" s="67">
+        <v>553</v>
+      </c>
+      <c r="L19" s="68">
+        <f>(J19-K19)*2.3681</f>
+        <v>314.95730000000003</v>
+      </c>
+      <c r="M19" s="67">
         <v>349.1</v>
       </c>
-      <c r="N12" s="102">
-        <f>M12*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O12" s="91">
-        <v>359</v>
-      </c>
-      <c r="P12" s="103">
-        <f>O12*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q12" s="93">
-        <f>(($E$10/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R12" s="94">
-        <f>L12*10^3/Q12</f>
-        <v>1182.0640158995666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="100">
-        <v>745</v>
-      </c>
-      <c r="K13" s="48">
-        <v>539</v>
-      </c>
-      <c r="L13" s="49">
-        <f t="shared" ref="L13:L15" si="0">(J13-K13)*2.3681</f>
-        <v>487.82859999999999</v>
-      </c>
-      <c r="M13" s="48">
+      <c r="N19" s="67">
+        <f>M19*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O19" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P19" s="67">
+        <f>O19*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q19" s="144">
+        <f>(($E$10/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R19" s="70">
+        <f>L19*10^3/Q19</f>
+        <v>858.23605332624777</v>
+      </c>
+      <c r="S19" s="30"/>
+      <c r="T19" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="74"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="68">
+        <f>(U19-V19)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="77">
+        <f>X19*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="77">
+        <f>Z19*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="144">
+        <f>(($F$9/COS(RADIANS(0))*Y19)+(1/COS(RADIANS(15)*AA19)))</f>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="70">
+        <f>W19*10^3/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="68">
+        <f>(AF19-AG19)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67">
+        <f>AI19*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="77">
+        <f>AK19*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="144">
+        <f>(($F$9/COS(RADIANS(0))*AJ19)+(1/COS(RADIANS(15)*AL19)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN19" s="70">
+        <f>AH19*10^3/AM19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="131">
+        <v>617</v>
+      </c>
+      <c r="K20" s="132">
+        <v>436</v>
+      </c>
+      <c r="L20" s="34">
+        <f t="shared" ref="L20" si="10">(J20-K20)*2.3681</f>
+        <v>428.62610000000001</v>
+      </c>
+      <c r="M20" s="67">
         <v>349.1</v>
       </c>
-      <c r="N13" s="54">
-        <f t="shared" ref="N13:N15" si="1">M13*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O13" s="48">
-        <v>359</v>
-      </c>
-      <c r="P13" s="55">
-        <f t="shared" ref="P13:P15" si="2">O13*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q13" s="50">
-        <f>(($E$10/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R13" s="86">
-        <f>L13*10^3/Q13</f>
-        <v>1330.6294386629002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I14" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="100">
-        <v>746</v>
-      </c>
-      <c r="K14" s="48">
-        <v>564</v>
-      </c>
-      <c r="L14" s="49">
-        <f t="shared" ref="L14" si="3">(J14-K14)*2.3681</f>
-        <v>430.99420000000003</v>
-      </c>
-      <c r="M14" s="48">
+      <c r="N20" s="33">
+        <f t="shared" ref="N20" si="11">M20*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O20" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P20" s="33">
+        <f t="shared" ref="P20" si="12">O20*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q20" s="144">
+        <f>(($E$10/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R20" s="63">
+        <f>L20*10^3/Q20</f>
+        <v>1167.9753808424875</v>
+      </c>
+      <c r="S20" s="30"/>
+      <c r="T20" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" s="133"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="34">
+        <f t="shared" ref="W20" si="13">(U20-V20)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="60">
+        <f t="shared" ref="Y20" si="14">X20*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="60">
+        <f t="shared" ref="AA20" si="15">Z20*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="145">
+        <f>(($F$9/COS(RADIANS(0))*Y20)+(1/COS(RADIANS(15)*AA20)))</f>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="138">
+        <f>W20*10^3/AB20</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF20" s="133"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="34">
+        <f t="shared" ref="AH20" si="16">(AF20-AG20)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="33">
+        <f t="shared" ref="AJ20" si="17">AI20*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="139"/>
+      <c r="AL20" s="60">
+        <f t="shared" ref="AL20" si="18">AK20*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="145">
+        <f>(($F$9/COS(RADIANS(0))*AJ20)+(1/COS(RADIANS(15)*AL20)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN20" s="138">
+        <f>AH20*10^3/AM20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:40" x14ac:dyDescent="0.35">
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+    </row>
+    <row r="22" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+    </row>
+    <row r="23" spans="9:40" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="30"/>
+      <c r="T23" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="U23" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="V23" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="W23" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z23" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA23" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC23" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF23" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH23" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI23" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ23" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK23" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL23" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM23" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN23" s="127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="114">
+        <v>717</v>
+      </c>
+      <c r="K24" s="67">
+        <v>587</v>
+      </c>
+      <c r="L24" s="34">
+        <f t="shared" ref="L24:L25" si="19">(J24-K24)*2.3681</f>
+        <v>307.85300000000001</v>
+      </c>
+      <c r="M24" s="67">
         <v>349.1</v>
       </c>
-      <c r="N14" s="54">
-        <f t="shared" si="1"/>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O14" s="48">
-        <v>359</v>
-      </c>
-      <c r="P14" s="55">
-        <f t="shared" si="2"/>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q14" s="50">
-        <f>(($E$10/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R14" s="86">
-        <f>L14*10^3/Q14</f>
-        <v>1175.6046496924653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="88">
-        <v>745</v>
-      </c>
-      <c r="K15" s="51">
-        <v>561</v>
-      </c>
-      <c r="L15" s="52">
-        <f t="shared" si="0"/>
-        <v>435.73040000000003</v>
-      </c>
-      <c r="M15" s="51">
+      <c r="N24" s="67">
+        <f>M24*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O24" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P24" s="67">
+        <f>O24*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q24" s="144">
+        <f>(($E$10/COS(RADIANS(0))*N24)+(1/COS(RADIANS(15)*P24)))</f>
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R24" s="70">
+        <f>L24*10^3/Q24</f>
+        <v>838.87734535648258</v>
+      </c>
+      <c r="S24" s="30"/>
+      <c r="T24" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="U24" s="114"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="68">
+        <f>(U25-V24)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="77">
+        <f>X24*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="77">
+        <f>Z24*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="144">
+        <f>(($F$9/COS(RADIANS(0))*Y24)+(1/COS(RADIANS(15)*AA24)))</f>
+        <v>1</v>
+      </c>
+      <c r="AC24" s="70">
+        <f>W24*10^3/AB24</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="68">
+        <f>(AF25-AG24)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="67">
+        <f>AI24*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="77">
+        <f>AK24*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="144">
+        <f>(($F$9/COS(RADIANS(0))*AJ24)+(1/COS(RADIANS(15)*AL24)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN24" s="70">
+        <f>AH24*10^3/AM24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I25" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="64">
+        <v>717</v>
+      </c>
+      <c r="K25" s="33">
+        <v>586</v>
+      </c>
+      <c r="L25" s="34">
+        <f t="shared" si="19"/>
+        <v>310.22110000000004</v>
+      </c>
+      <c r="M25" s="67">
         <v>349.1</v>
       </c>
-      <c r="N15" s="84">
-        <f t="shared" si="1"/>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O15" s="51">
-        <v>359</v>
-      </c>
-      <c r="P15" s="85">
-        <f t="shared" si="2"/>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q15" s="53">
-        <f>(($E$10/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R15" s="87">
-        <f>L15*10^3/Q15</f>
-        <v>1188.5233821066681</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="47"/>
-      <c r="J18" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="9:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I19" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="99">
-        <v>739</v>
-      </c>
-      <c r="K19" s="91">
-        <v>530</v>
-      </c>
-      <c r="L19" s="92">
-        <f>(J19-K19)*2.3681</f>
-        <v>494.93290000000002</v>
-      </c>
-      <c r="M19" s="91">
-        <v>349.1</v>
-      </c>
-      <c r="N19" s="91">
-        <f>M19*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O19" s="91">
-        <v>359</v>
-      </c>
-      <c r="P19" s="91">
-        <f>O19*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q19" s="93">
-        <f>(($E$10/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R19" s="94">
-        <f>L19*10^3/Q19</f>
-        <v>1350.0075372842045</v>
-      </c>
-    </row>
-    <row r="20" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="105">
-        <v>730</v>
-      </c>
-      <c r="K20" s="106">
-        <v>390</v>
-      </c>
-      <c r="L20" s="52">
-        <f t="shared" ref="L20" si="4">(J20-K20)*2.3681</f>
-        <v>805.154</v>
-      </c>
-      <c r="M20" s="51">
-        <v>349.1</v>
-      </c>
-      <c r="N20" s="51">
-        <f t="shared" ref="N20" si="5">M20*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O20" s="51">
-        <v>359</v>
-      </c>
-      <c r="P20" s="51">
-        <f t="shared" ref="P20" si="6">O20*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q20" s="53">
-        <f>(($E$10/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R20" s="87">
-        <f>L20*10^3/Q20</f>
-        <v>2196.1845104144954</v>
-      </c>
-    </row>
-    <row r="22" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="47"/>
-      <c r="J23" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="9:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I24" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="104">
-        <v>744</v>
-      </c>
-      <c r="K24" s="91">
-        <v>500</v>
-      </c>
-      <c r="L24" s="92">
-        <f>(J25-K24)*2.3681</f>
-        <v>575.44830000000002</v>
-      </c>
-      <c r="M24" s="91">
-        <v>349.1</v>
-      </c>
-      <c r="N24" s="91">
-        <f>M24*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O24" s="91">
-        <v>359</v>
-      </c>
-      <c r="P24" s="91">
-        <f>O24*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q24" s="93">
-        <f>(($E$10/COS(RADIANS(0))*N24)+(1/COS(RADIANS(15)*P24)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R24" s="94">
-        <f>L24*10^3/Q24</f>
-        <v>1569.6259883256541</v>
-      </c>
-    </row>
-    <row r="25" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I25" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="88">
-        <v>743</v>
-      </c>
-      <c r="K25" s="51">
-        <v>510</v>
-      </c>
-      <c r="L25" s="52">
-        <f>(J25-K25)*2.3681</f>
-        <v>551.76729999999998</v>
-      </c>
-      <c r="M25" s="51">
-        <v>349.1</v>
-      </c>
-      <c r="N25" s="51">
-        <f t="shared" ref="N25" si="7">M25*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O25" s="51">
-        <v>359</v>
-      </c>
-      <c r="P25" s="51">
-        <f t="shared" ref="P25" si="8">O25*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q25" s="53">
+      <c r="N25" s="33">
+        <f t="shared" ref="N25" si="20">M25*$B$2/10</f>
+        <v>394.83210000000003</v>
+      </c>
+      <c r="O25" s="67">
+        <v>359.9</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" ref="P25" si="21">O25*$B$2/10</f>
+        <v>407.04689999999999</v>
+      </c>
+      <c r="Q25" s="144">
         <f>(($E$10/COS(RADIANS(0))*N25)+(1/COS(RADIANS(15)*P25)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R25" s="87">
+        <v>366.9821359512066</v>
+      </c>
+      <c r="R25" s="63">
         <f>L25*10^3/Q25</f>
-        <v>1505.0323262546394</v>
+        <v>845.33024801307101</v>
+      </c>
+      <c r="S25" s="30"/>
+      <c r="T25" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="U25" s="64"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34">
+        <f>(U25-V25)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="60">
+        <f t="shared" ref="Y25" si="22">X25*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="60">
+        <f t="shared" ref="AA25" si="23">Z25*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="145">
+        <f>(($F$9/COS(RADIANS(0))*Y25)+(1/COS(RADIANS(15)*AA25)))</f>
+        <v>1</v>
+      </c>
+      <c r="AC25" s="63">
+        <f>W25*10^3/AB25</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="34">
+        <f>(AF25-AG25)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="139"/>
+      <c r="AJ25" s="33">
+        <f t="shared" ref="AJ25" si="24">AI25*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="139"/>
+      <c r="AL25" s="60">
+        <f t="shared" ref="AL25" si="25">AK25*$B$2/10</f>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="145">
+        <f>(($F$9/COS(RADIANS(0))*AJ25)+(1/COS(RADIANS(15)*AL25)))</f>
+        <v>1</v>
+      </c>
+      <c r="AN25" s="63">
+        <f>AH25*10^3/AM25</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4092,782 +4545,1430 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ23" sqref="AJ23:AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.81640625" customWidth="1"/>
+    <col min="29" max="29" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.26953125" customWidth="1"/>
+    <col min="33" max="33" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="38">
         <v>2000</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="60">
-        <v>11.29</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+    <row r="2" spans="1:42" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="41">
+        <v>11.31</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="D3" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="E3" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="67">
+      <c r="F3" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="107">
         <v>8</v>
       </c>
-      <c r="D5" s="68">
+      <c r="E4" s="108">
         <v>15.999000000000001</v>
       </c>
-      <c r="E5" s="25">
-        <f>((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
-        <v>0.36591870307011926</v>
-      </c>
-      <c r="F5" s="69">
-        <f>$B$1*E5</f>
-        <v>731.8374061402385</v>
-      </c>
-      <c r="G5" s="70">
-        <v>272</v>
-      </c>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="23">
-        <v>14</v>
-      </c>
-      <c r="D6" s="24">
-        <v>28.085000000000001</v>
-      </c>
-      <c r="E6" s="72">
-        <f>((SQRT(1-(4.0026/D6)^2*SIN(RADIANS(165))^2)+4.0026/D6*COS(RADIANS(165)))/(1+4.0026/D6))^2</f>
-        <v>0.56878025675945543</v>
-      </c>
-      <c r="F6" s="26">
-        <f>$B$1*E6</f>
-        <v>1137.560513518911</v>
-      </c>
-      <c r="G6" s="27">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="29">
-        <v>23</v>
-      </c>
-      <c r="D7" s="30">
-        <v>50.942</v>
-      </c>
-      <c r="E7" s="74">
-        <f>((SQRT(1-(4.0026/D7)^2*SIN(RADIANS(165))^2)+4.0026/D7*COS(RADIANS(165)))/(1+4.0026/D7))^2</f>
-        <v>0.7337544049093524</v>
-      </c>
-      <c r="F7" s="31">
-        <f>$B$1*E7</f>
-        <v>1467.5088098187048</v>
-      </c>
-      <c r="G7" s="32">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="34">
-        <v>41</v>
-      </c>
-      <c r="D8" s="35">
-        <v>92.906000000000006</v>
-      </c>
-      <c r="E8" s="76">
-        <f>((SQRT(1-(4.0026/D8)^2*SIN(RADIANS(165))^2)+4.0026/D8*COS(RADIANS(165)))/(1+4.0026/D8))^2</f>
-        <v>0.84408702273631764</v>
-      </c>
-      <c r="F8" s="36">
-        <f>$B$1*E8</f>
-        <v>1688.1740454726353</v>
-      </c>
-      <c r="G8" s="37">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="39">
-        <v>73</v>
-      </c>
-      <c r="D9" s="40">
-        <v>180.95</v>
-      </c>
-      <c r="E9" s="78">
-        <f>((SQRT(1-(4.0026/D9)^2*SIN(RADIANS(165))^2)+4.0026/D9*COS(RADIANS(165)))/(1+4.0026/D9))^2</f>
-        <v>0.91668930866242726</v>
-      </c>
-      <c r="F9" s="42">
-        <f>$B$1*E9</f>
-        <v>1833.3786173248545</v>
-      </c>
-      <c r="G9" s="43">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="80">
-        <v>82</v>
-      </c>
-      <c r="D10" s="80">
-        <v>207.2</v>
-      </c>
-      <c r="E10" s="81">
-        <f>((SQRT(1-(4.0026/D10)^2*SIN(RADIANS(165))^2)+4.0026/D10*COS(RADIANS(165)))/(1+4.0026/D10))^2</f>
-        <v>0.92685011433311859</v>
-      </c>
-      <c r="F10" s="82">
-        <f>$B$1*E10</f>
-        <v>1853.7002286662371</v>
-      </c>
-      <c r="G10" s="83">
-        <f>(F10-94.322)/2.3681</f>
-        <v>742.94929634147081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="47"/>
-      <c r="J11" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I12" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="99">
-        <v>743</v>
-      </c>
-      <c r="K12" s="91">
-        <v>560</v>
-      </c>
-      <c r="L12" s="92">
-        <f>(J12-K12)*2.3681</f>
-        <v>433.3623</v>
-      </c>
-      <c r="M12" s="91">
-        <v>349.1</v>
-      </c>
-      <c r="N12" s="102">
-        <f>M12*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O12" s="91">
-        <v>359</v>
-      </c>
-      <c r="P12" s="103">
-        <f>O12*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q12" s="93">
-        <f>(($E$10/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R12" s="94">
-        <f>L12*10^3/Q12</f>
-        <v>1182.0640158995666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="100">
-        <v>745</v>
-      </c>
-      <c r="K13" s="48">
-        <v>539</v>
-      </c>
-      <c r="L13" s="49">
-        <f t="shared" ref="L13:L15" si="0">(J13-K13)*2.3681</f>
-        <v>487.82859999999999</v>
-      </c>
-      <c r="M13" s="48">
-        <v>349.1</v>
-      </c>
-      <c r="N13" s="54">
-        <f t="shared" ref="N13:N15" si="1">M13*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O13" s="48">
-        <v>359</v>
-      </c>
-      <c r="P13" s="55">
-        <f t="shared" ref="P13:P15" si="2">O13*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q13" s="50">
-        <f>(($E$10/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R13" s="86">
-        <f>L13*10^3/Q13</f>
-        <v>1330.6294386629002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I14" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="100">
-        <v>746</v>
-      </c>
-      <c r="K14" s="48">
-        <v>564</v>
-      </c>
-      <c r="L14" s="49">
-        <f t="shared" si="0"/>
-        <v>430.99420000000003</v>
-      </c>
-      <c r="M14" s="48">
-        <v>349.1</v>
-      </c>
-      <c r="N14" s="54">
-        <f t="shared" si="1"/>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O14" s="48">
-        <v>359</v>
-      </c>
-      <c r="P14" s="55">
-        <f t="shared" si="2"/>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q14" s="50">
-        <f>(($E$10/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R14" s="86">
-        <f>L14*10^3/Q14</f>
-        <v>1175.6046496924653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="88">
-        <v>745</v>
-      </c>
-      <c r="K15" s="51">
-        <v>561</v>
-      </c>
-      <c r="L15" s="52">
-        <f t="shared" si="0"/>
-        <v>435.73040000000003</v>
-      </c>
-      <c r="M15" s="51">
-        <v>349.1</v>
-      </c>
-      <c r="N15" s="84">
-        <f t="shared" si="1"/>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O15" s="51">
-        <v>359</v>
-      </c>
-      <c r="P15" s="85">
-        <f t="shared" si="2"/>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q15" s="53">
-        <f>(($E$10/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R15" s="87">
-        <f>L15*10^3/Q15</f>
-        <v>1188.5233821066681</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="47"/>
-      <c r="J18" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="9:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I19" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="99">
-        <v>739</v>
-      </c>
-      <c r="K19" s="91">
-        <v>530</v>
-      </c>
-      <c r="L19" s="92">
-        <f>(J19-K19)*2.3681</f>
-        <v>494.93290000000002</v>
-      </c>
-      <c r="M19" s="91">
-        <v>349.1</v>
-      </c>
-      <c r="N19" s="91">
-        <f>M19*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O19" s="91">
-        <v>359</v>
-      </c>
-      <c r="P19" s="91">
-        <f>O19*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q19" s="93">
-        <f>(($E$10/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R19" s="94">
-        <f>L19*10^3/Q19</f>
-        <v>1350.0075372842045</v>
-      </c>
-    </row>
-    <row r="20" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="105">
-        <v>730</v>
-      </c>
-      <c r="K20" s="106">
-        <v>390</v>
-      </c>
-      <c r="L20" s="52">
-        <f t="shared" ref="L20" si="3">(J20-K20)*2.3681</f>
-        <v>805.154</v>
-      </c>
-      <c r="M20" s="51">
-        <v>349.1</v>
-      </c>
-      <c r="N20" s="51">
-        <f t="shared" ref="N20" si="4">M20*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O20" s="51">
-        <v>359</v>
-      </c>
-      <c r="P20" s="51">
-        <f t="shared" ref="P20" si="5">O20*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q20" s="53">
-        <f>(($E$10/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R20" s="87">
-        <f>L20*10^3/Q20</f>
-        <v>2196.1845104144954</v>
-      </c>
-    </row>
-    <row r="22" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="9:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="47"/>
-      <c r="J23" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="9:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="I24" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="104">
-        <v>744</v>
-      </c>
-      <c r="K24" s="91">
-        <v>500</v>
-      </c>
-      <c r="L24" s="92">
-        <f>(J25-K24)*2.3681</f>
-        <v>575.44830000000002</v>
-      </c>
-      <c r="M24" s="91">
-        <v>349.1</v>
-      </c>
-      <c r="N24" s="91">
-        <f>M24*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O24" s="91">
-        <v>359</v>
-      </c>
-      <c r="P24" s="91">
-        <f>O24*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q24" s="93">
-        <f>(($E$10/COS(RADIANS(0))*N24)+(1/COS(RADIANS(15)*P24)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R24" s="94">
-        <f>L24*10^3/Q24</f>
-        <v>1569.6259883256541</v>
-      </c>
-    </row>
-    <row r="25" spans="9:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I25" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="88">
-        <v>743</v>
-      </c>
-      <c r="K25" s="51">
-        <v>510</v>
-      </c>
-      <c r="L25" s="52">
-        <f>(J25-K25)*2.3681</f>
-        <v>551.76729999999998</v>
-      </c>
-      <c r="M25" s="51">
-        <v>349.1</v>
-      </c>
-      <c r="N25" s="51">
-        <f t="shared" ref="N25" si="6">M25*$B$2/10</f>
-        <v>394.13389999999998</v>
-      </c>
-      <c r="O25" s="51">
-        <v>359</v>
-      </c>
-      <c r="P25" s="51">
-        <f t="shared" ref="P25" si="7">O25*$B$2/10</f>
-        <v>405.31099999999998</v>
-      </c>
-      <c r="Q25" s="53">
-        <f>(($E$10/COS(RADIANS(0))*N25)+(1/COS(RADIANS(15)*P25)))</f>
-        <v>366.6149160882843</v>
-      </c>
-      <c r="R25" s="87">
-        <f>L25*10^3/Q25</f>
-        <v>1505.0323262546394</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:Q21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" customWidth="1"/>
-    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="5.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="12">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13">
-        <v>15.999000000000001</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="F4" s="91">
         <f>((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="109">
         <f>$B$1*F4</f>
         <v>1563.7159776396684</v>
       </c>
-      <c r="H4" s="21">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="H4" s="110">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="89">
         <v>14</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="90">
         <v>28.085000000000001</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="91">
         <f>((SQRT(1-(1/E5)^2*SIN(RADIANS(165))^2)+1/E5*COS(RADIANS(165)))/(1+1/E5))^2</f>
         <v>0.86930741306534087</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="92">
         <f>$B$1*F5</f>
         <v>1738.6148261306816</v>
       </c>
-      <c r="H5" s="27">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="H5" s="93">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="94">
         <v>23</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="95">
         <v>50.942</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="91">
         <f>((SQRT(1-(1/E6)^2*SIN(RADIANS(165))^2)+1/E6*COS(RADIANS(165)))/(1+1/E6))^2</f>
         <v>0.9257111865667883</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="96">
         <f>$B$1*F6</f>
         <v>1851.4223731335767</v>
       </c>
-      <c r="H6" s="32">
-        <v>752</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="H6" s="97">
+        <v>753</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C7" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="98">
         <v>41</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="99">
         <v>92.906000000000006</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="91">
         <f>((SQRT(1-(1/E7)^2*SIN(RADIANS(165))^2)+1/E7*COS(RADIANS(165)))/(1+1/E7))^2</f>
         <v>0.95856067934676659</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="100">
         <f>$B$1*F7</f>
         <v>1917.1213586935332</v>
       </c>
-      <c r="H7" s="37">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="39">
+      <c r="H7" s="101">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="102">
         <v>73</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="103">
         <v>180.95</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="104">
         <f>((SQRT(1-(1/E8)^2*SIN(RADIANS(165))^2)+1/E8*COS(RADIANS(165)))/(1+1/E8))^2</f>
         <v>0.97850521298958393</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="105">
         <f>$B$1*F8</f>
         <v>1957.0104259791678</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="106">
         <v>796</v>
       </c>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="84">
+        <v>82</v>
+      </c>
+      <c r="E9" s="84">
+        <v>207.2</v>
+      </c>
+      <c r="F9" s="85">
+        <f>((SQRT(1-(1/E9)^2*SIN(RADIANS(165))^2)+1/E9*COS(RADIANS(165)))/(1+1/E9))^2</f>
+        <v>0.9812026480871997</v>
+      </c>
+      <c r="G9" s="86">
+        <f t="shared" ref="G9" si="0">$B$1*F9</f>
+        <v>1962.4052961743994</v>
+      </c>
+      <c r="H9" s="146">
+        <f>(G9-62.245)/2.381</f>
+        <v>798.05136336598059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J10" s="5"/>
+      <c r="K10" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE10" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ10" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK10" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL10" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN10" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP10" s="127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="K11" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="74">
+        <v>794</v>
+      </c>
+      <c r="M11" s="67">
+        <v>773</v>
+      </c>
+      <c r="N11" s="68">
+        <f>(L11-M11)*2.381</f>
+        <v>50.000999999999998</v>
+      </c>
+      <c r="O11" s="67">
+        <v>45.37</v>
+      </c>
+      <c r="P11" s="77">
+        <f>O11*$B$2/10</f>
+        <v>51.313469999999995</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>45.81</v>
+      </c>
+      <c r="R11" s="78">
+        <f>Q11*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S11" s="69">
+        <f>(($F$9/COS(RADIANS(0))*P11)+(1/COS(RADIANS(15)*R11)))</f>
+        <v>52.19325942501164</v>
+      </c>
+      <c r="T11" s="70">
+        <f>N11*10^3/S11</f>
+        <v>957.99726920367266</v>
+      </c>
+      <c r="V11" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" s="135"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="68">
+        <f>(W11-X11)*2.381</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="67">
+        <v>133.5</v>
+      </c>
+      <c r="AA11" s="77">
+        <f>Z11*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB11" s="67">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC11" s="78">
+        <f>AB11*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD11" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AA11)+(1/COS(RADIANS(15)*AC11)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE11" s="137">
+        <f>Y11*10^3/AD11</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="136"/>
+      <c r="AJ11" s="68">
+        <f>(AH11-AI11)*2.381</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="67">
+        <v>139.5</v>
+      </c>
+      <c r="AL11" s="77">
+        <f>AK11*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM11" s="67">
+        <v>141.5</v>
+      </c>
+      <c r="AN11" s="78">
+        <f>AM11*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO11" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AL11)+(1/COS(RADIANS(15)*AN11)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP11" s="137">
+        <f>AJ11*10^3/AO11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="K12" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="75">
+        <v>792</v>
+      </c>
+      <c r="M12" s="31">
+        <v>773</v>
+      </c>
+      <c r="N12" s="68">
+        <f t="shared" ref="N12:N14" si="1">(L12-M12)*2.381</f>
+        <v>45.238999999999997</v>
+      </c>
+      <c r="O12" s="67">
+        <v>45.37</v>
+      </c>
+      <c r="P12" s="35">
+        <f t="shared" ref="P12:P14" si="2">O12*$B$2/10</f>
+        <v>51.313469999999995</v>
+      </c>
+      <c r="Q12" s="67">
+        <v>45.81</v>
+      </c>
+      <c r="R12" s="36">
+        <f t="shared" ref="R12:R14" si="3">Q12*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S12" s="69">
+        <f t="shared" ref="S12:S14" si="4">(($F$9/COS(RADIANS(0))*P12)+(1/COS(RADIANS(15)*R12)))</f>
+        <v>52.19325942501164</v>
+      </c>
+      <c r="T12" s="62">
+        <f>N12*10^3/S12</f>
+        <v>866.7594340414181</v>
+      </c>
+      <c r="V12" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12" s="75">
+        <v>630</v>
+      </c>
+      <c r="X12" s="31">
+        <v>623</v>
+      </c>
+      <c r="Y12" s="68">
+        <f>(W12-X12)*2.381</f>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="Z12" s="67">
+        <v>133.5</v>
+      </c>
+      <c r="AA12" s="35">
+        <f t="shared" ref="AA12:AA14" si="5">Z12*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB12" s="67">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC12" s="36">
+        <f t="shared" ref="AC12:AC14" si="6">AB12*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD12" s="69">
+        <f t="shared" ref="AD12:AD14" si="7">(($F$9/COS(RADIANS(0))*AA12)+(1/COS(RADIANS(15)*AC12)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE12" s="62">
+        <f>Y12*10^3/AD12</f>
+        <v>113.5779644745444</v>
+      </c>
+      <c r="AG12" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH12" s="75">
+        <v>579</v>
+      </c>
+      <c r="AI12" s="31">
+        <v>573</v>
+      </c>
+      <c r="AJ12" s="68">
+        <f t="shared" ref="AJ12:AJ14" si="8">(AH12-AI12)*2.381</f>
+        <v>14.285999999999998</v>
+      </c>
+      <c r="AK12" s="67">
+        <v>139.5</v>
+      </c>
+      <c r="AL12" s="35">
+        <f t="shared" ref="AL12:AL14" si="9">AK12*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM12" s="67">
+        <v>141.5</v>
+      </c>
+      <c r="AN12" s="36">
+        <f t="shared" ref="AN12:AN14" si="10">AM12*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO12" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AL12)+(1/COS(RADIANS(15)*AN12)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP12" s="62">
+        <f>AJ12*10^3/AO12</f>
+        <v>93.51006113656608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="K13" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="75">
+        <v>793</v>
+      </c>
+      <c r="M13" s="31">
+        <v>775</v>
+      </c>
+      <c r="N13" s="68">
+        <f t="shared" si="1"/>
+        <v>42.857999999999997</v>
+      </c>
+      <c r="O13" s="67">
+        <v>45.37</v>
+      </c>
+      <c r="P13" s="35">
+        <f t="shared" si="2"/>
+        <v>51.313469999999995</v>
+      </c>
+      <c r="Q13" s="67">
+        <v>45.81</v>
+      </c>
+      <c r="R13" s="36">
+        <f t="shared" si="3"/>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S13" s="69">
+        <f t="shared" si="4"/>
+        <v>52.19325942501164</v>
+      </c>
+      <c r="T13" s="62">
+        <f>N13*10^3/S13</f>
+        <v>821.14051646029088</v>
+      </c>
+      <c r="V13" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" s="75">
+        <v>632</v>
+      </c>
+      <c r="X13" s="31">
+        <v>624</v>
+      </c>
+      <c r="Y13" s="68">
+        <f>(W13-X13)*2.381</f>
+        <v>19.047999999999998</v>
+      </c>
+      <c r="Z13" s="67">
+        <v>133.5</v>
+      </c>
+      <c r="AA13" s="35">
+        <f t="shared" si="5"/>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB13" s="67">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC13" s="36">
+        <f t="shared" si="6"/>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD13" s="69">
+        <f t="shared" si="7"/>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE13" s="62">
+        <f>Y13*10^3/AD13</f>
+        <v>129.80338797090792</v>
+      </c>
+      <c r="AG13" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH13" s="75">
+        <v>581</v>
+      </c>
+      <c r="AI13" s="31">
+        <v>574</v>
+      </c>
+      <c r="AJ13" s="68">
+        <f t="shared" si="8"/>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="AK13" s="67">
+        <v>139.5</v>
+      </c>
+      <c r="AL13" s="35">
+        <f t="shared" si="9"/>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM13" s="67">
+        <v>141.5</v>
+      </c>
+      <c r="AN13" s="36">
+        <f t="shared" si="10"/>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO13" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AL13)+(1/COS(RADIANS(15)*AN13)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP13" s="62">
+        <f>AJ13*10^3/AO13</f>
+        <v>109.09507132599374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="64">
+        <v>793</v>
+      </c>
+      <c r="M14" s="33">
+        <v>775</v>
+      </c>
+      <c r="N14" s="68">
+        <f t="shared" si="1"/>
+        <v>42.857999999999997</v>
+      </c>
+      <c r="O14" s="139">
+        <v>45.37</v>
+      </c>
+      <c r="P14" s="60">
+        <f t="shared" si="2"/>
+        <v>51.313469999999995</v>
+      </c>
+      <c r="Q14" s="139">
+        <v>45.81</v>
+      </c>
+      <c r="R14" s="61">
+        <f t="shared" si="3"/>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S14" s="140">
+        <f t="shared" si="4"/>
+        <v>52.19325942501164</v>
+      </c>
+      <c r="T14" s="63">
+        <f>N14*10^3/S14</f>
+        <v>821.14051646029088</v>
+      </c>
+      <c r="V14" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="64">
+        <v>632</v>
+      </c>
+      <c r="X14" s="33">
+        <v>624</v>
+      </c>
+      <c r="Y14" s="68">
+        <f>(W14-X14)*2.381</f>
+        <v>19.047999999999998</v>
+      </c>
+      <c r="Z14" s="139">
+        <v>133.5</v>
+      </c>
+      <c r="AA14" s="60">
+        <f t="shared" si="5"/>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB14" s="139">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC14" s="61">
+        <f t="shared" si="6"/>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD14" s="140">
+        <f t="shared" si="7"/>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE14" s="63">
+        <f>Y14*10^3/AD14</f>
+        <v>129.80338797090792</v>
+      </c>
+      <c r="AG14" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH14" s="64">
+        <v>580</v>
+      </c>
+      <c r="AI14" s="33">
+        <v>573</v>
+      </c>
+      <c r="AJ14" s="68">
+        <f t="shared" si="8"/>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="AK14" s="139">
+        <v>139.5</v>
+      </c>
+      <c r="AL14" s="60">
+        <f t="shared" si="9"/>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM14" s="139">
+        <v>141.5</v>
+      </c>
+      <c r="AN14" s="61">
+        <f t="shared" si="10"/>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO14" s="140">
+        <f>(($F$9/COS(RADIANS(0))*AL14)+(1/COS(RADIANS(15)*AN14)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP14" s="63">
+        <f>AJ14*10^3/AO14</f>
+        <v>109.09507132599374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+    </row>
+    <row r="16" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+    </row>
+    <row r="17" spans="11:42" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE17" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG17" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH17" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ17" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK17" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL17" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN17" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO17" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP17" s="127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="11:42" x14ac:dyDescent="0.35">
+      <c r="K18" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="74">
+        <v>790</v>
+      </c>
+      <c r="M18" s="67">
+        <v>771</v>
+      </c>
+      <c r="N18" s="68">
+        <f>(L18-M18)*2.381</f>
+        <v>45.238999999999997</v>
+      </c>
+      <c r="O18" s="67">
+        <v>45.81</v>
+      </c>
+      <c r="P18" s="67">
+        <f>O18*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>45.81</v>
+      </c>
+      <c r="R18" s="67">
+        <f>Q18*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S18" s="69">
+        <f t="shared" ref="S18:S19" si="11">(($F$9/COS(RADIANS(0))*P18)+(1/COS(RADIANS(15)*R18)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T18" s="70">
+        <f>N18*10^3/S18</f>
+        <v>858.72576259576738</v>
+      </c>
+      <c r="V18" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="74">
+        <v>630</v>
+      </c>
+      <c r="X18" s="67">
+        <v>623</v>
+      </c>
+      <c r="Y18" s="68">
+        <f t="shared" ref="Y18:Y19" si="12">(W18-X18)*2.381</f>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="Z18" s="67">
+        <v>133.5</v>
+      </c>
+      <c r="AA18" s="67">
+        <f>Z18*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB18" s="67">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC18" s="67">
+        <f>AB18*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD18" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AA18)+(1/COS(RADIANS(15)*AC18)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE18" s="70">
+        <f>Y18*10^3/AD18</f>
+        <v>113.5779644745444</v>
+      </c>
+      <c r="AG18" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH18" s="74">
+        <v>580</v>
+      </c>
+      <c r="AI18" s="67">
+        <v>571</v>
+      </c>
+      <c r="AJ18" s="68">
+        <f t="shared" ref="AJ18:AJ19" si="13">(AH18-AI18)*2.381</f>
+        <v>21.428999999999998</v>
+      </c>
+      <c r="AK18" s="67">
+        <v>139.5</v>
+      </c>
+      <c r="AL18" s="67">
+        <f>AK18*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM18" s="67">
+        <v>141.5</v>
+      </c>
+      <c r="AN18" s="67">
+        <f>AM18*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO18" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AL18)+(1/COS(RADIANS(15)*AN18)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP18" s="70">
+        <f>AJ18*10^3/AO18</f>
+        <v>140.26509170484914</v>
+      </c>
+    </row>
+    <row r="19" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="131">
+        <v>784</v>
+      </c>
+      <c r="M19" s="132">
+        <v>765</v>
+      </c>
+      <c r="N19" s="68">
+        <f>(L19-M19)*2.381</f>
+        <v>45.238999999999997</v>
+      </c>
+      <c r="O19" s="139">
+        <v>45.81</v>
+      </c>
+      <c r="P19" s="33">
+        <f t="shared" ref="P19" si="14">O19*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q19" s="139">
+        <v>45.81</v>
+      </c>
+      <c r="R19" s="33">
+        <f t="shared" ref="R19" si="15">Q19*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S19" s="140">
+        <f t="shared" si="11"/>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T19" s="63">
+        <f>N19*10^3/S19</f>
+        <v>858.72576259576738</v>
+      </c>
+      <c r="V19" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="W19" s="133">
+        <v>630</v>
+      </c>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="68">
+        <f t="shared" si="12"/>
+        <v>1500.03</v>
+      </c>
+      <c r="Z19" s="139">
+        <v>133.5</v>
+      </c>
+      <c r="AA19" s="33">
+        <f t="shared" ref="AA19" si="16">Z19*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB19" s="139">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC19" s="33">
+        <f t="shared" ref="AC19" si="17">AB19*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD19" s="140">
+        <f>(($F$9/COS(RADIANS(0))*AA19)+(1/COS(RADIANS(15)*AC19)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE19" s="138">
+        <f>Y19*10^3/AD19</f>
+        <v>10222.016802708999</v>
+      </c>
+      <c r="AG19" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH19" s="133">
+        <v>579</v>
+      </c>
+      <c r="AI19" s="134"/>
+      <c r="AJ19" s="68">
+        <f t="shared" si="13"/>
+        <v>1378.5989999999999</v>
+      </c>
+      <c r="AK19" s="139">
+        <v>139.5</v>
+      </c>
+      <c r="AL19" s="33">
+        <f t="shared" ref="AL19" si="18">AK19*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM19" s="139">
+        <v>141.5</v>
+      </c>
+      <c r="AN19" s="33">
+        <f t="shared" ref="AN19" si="19">AM19*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO19" s="140">
+        <f>(($F$9/COS(RADIANS(0))*AL19)+(1/COS(RADIANS(15)*AN19)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP19" s="138">
+        <f>AJ19*10^3/AO19</f>
+        <v>9023.7208996786285</v>
+      </c>
+    </row>
+    <row r="20" spans="11:42" x14ac:dyDescent="0.35">
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+    </row>
+    <row r="21" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+    </row>
+    <row r="22" spans="11:42" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="W22" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD22" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE22" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG22" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH22" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ22" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK22" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL22" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM22" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN22" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO22" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP22" s="127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="11:42" x14ac:dyDescent="0.35">
+      <c r="K23" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="79">
+        <v>793</v>
+      </c>
+      <c r="M23" s="67">
+        <v>776</v>
+      </c>
+      <c r="N23" s="68">
+        <f>(L23-M23)*2.381</f>
+        <v>40.476999999999997</v>
+      </c>
+      <c r="O23" s="67">
+        <v>45.81</v>
+      </c>
+      <c r="P23" s="67">
+        <f>O23*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>45.81</v>
+      </c>
+      <c r="R23" s="67">
+        <f>Q23*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S23" s="69">
+        <f t="shared" ref="S23:S24" si="20">(($F$9/COS(RADIANS(0))*P23)+(1/COS(RADIANS(15)*R23)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T23" s="70">
+        <f>N23*10^3/S23</f>
+        <v>768.33357705937078</v>
+      </c>
+      <c r="V23" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" s="114">
+        <v>631</v>
+      </c>
+      <c r="X23" s="67">
+        <v>625</v>
+      </c>
+      <c r="Y23" s="68">
+        <f t="shared" ref="Y23:Y24" si="21">(W23-X23)*2.381</f>
+        <v>14.285999999999998</v>
+      </c>
+      <c r="Z23" s="67">
+        <v>133.5</v>
+      </c>
+      <c r="AA23" s="67">
+        <f>Z23*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB23" s="67">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC23" s="67">
+        <f>AB23*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD23" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AA23)+(1/COS(RADIANS(15)*AC23)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE23" s="70">
+        <f>Y23*10^3/AD23</f>
+        <v>97.352540978180926</v>
+      </c>
+      <c r="AG23" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH23" s="114">
+        <v>580</v>
+      </c>
+      <c r="AI23" s="67">
+        <v>575</v>
+      </c>
+      <c r="AJ23" s="68">
+        <f t="shared" ref="AJ23:AJ24" si="22">(AH23-AI23)*2.381</f>
+        <v>11.904999999999999</v>
+      </c>
+      <c r="AK23" s="67">
+        <v>139.5</v>
+      </c>
+      <c r="AL23" s="67">
+        <f>AK23*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM23" s="67">
+        <v>141.5</v>
+      </c>
+      <c r="AN23" s="67">
+        <f>AM23*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO23" s="69">
+        <f>(($F$9/COS(RADIANS(0))*AL23)+(1/COS(RADIANS(15)*AN23)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP23" s="70">
+        <f>AJ23*10^3/AO23</f>
+        <v>77.925050947138402</v>
+      </c>
+    </row>
+    <row r="24" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="64">
+        <v>792</v>
+      </c>
+      <c r="M24" s="33">
+        <v>775</v>
+      </c>
+      <c r="N24" s="68">
+        <f>(L24-M24)*2.381</f>
+        <v>40.476999999999997</v>
+      </c>
+      <c r="O24" s="139">
+        <v>45.81</v>
+      </c>
+      <c r="P24" s="33">
+        <f t="shared" ref="P24" si="23">O24*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q24" s="139">
+        <v>45.81</v>
+      </c>
+      <c r="R24" s="33">
+        <f t="shared" ref="R24" si="24">Q24*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S24" s="140">
+        <f t="shared" si="20"/>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T24" s="63">
+        <f>N24*10^3/S24</f>
+        <v>768.33357705937078</v>
+      </c>
+      <c r="V24" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" s="64">
+        <v>631</v>
+      </c>
+      <c r="X24" s="33">
+        <v>623</v>
+      </c>
+      <c r="Y24" s="68">
+        <f t="shared" si="21"/>
+        <v>19.047999999999998</v>
+      </c>
+      <c r="Z24" s="139">
+        <v>133.5</v>
+      </c>
+      <c r="AA24" s="33">
+        <f t="shared" ref="AA24" si="25">Z24*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AB24" s="139">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC24" s="33">
+        <f t="shared" ref="AC24" si="26">AB24*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AD24" s="140">
+        <f>(($F$9/COS(RADIANS(0))*AA24)+(1/COS(RADIANS(15)*AC24)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AE24" s="63">
+        <f>Y24*10^3/AD24</f>
+        <v>129.80338797090792</v>
+      </c>
+      <c r="AG24" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH24" s="64">
+        <v>580</v>
+      </c>
+      <c r="AI24" s="33">
+        <v>573</v>
+      </c>
+      <c r="AJ24" s="68">
+        <f t="shared" si="22"/>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="AK24" s="139">
+        <v>139.5</v>
+      </c>
+      <c r="AL24" s="33">
+        <f t="shared" ref="AL24" si="27">AK24*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AM24" s="139">
+        <v>141.5</v>
+      </c>
+      <c r="AN24" s="33">
+        <f t="shared" ref="AN24" si="28">AM24*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AO24" s="140">
+        <f>(($F$9/COS(RADIANS(0))*AL24)+(1/COS(RADIANS(15)*AN24)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AP24" s="63">
+        <f>AJ24*10^3/AO24</f>
+        <v>109.09507132599374</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
+++ b/RBS_23Novembro/Logbook-RBS_23Novembro.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="71">
   <si>
     <t>2000 keV</t>
   </si>
@@ -231,6 +231,15 @@
   <si>
     <t>66 mm</t>
   </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>+-</t>
+  </si>
+  <si>
+    <t>mg/cm2</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +250,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -311,8 +320,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +487,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -888,11 +924,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,23 +995,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,9 +1029,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -986,35 +1041,24 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,6 +1319,144 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,6 +1532,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFFEBFF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFBDDE"/>
       <color rgb="FFFF97BC"/>
     </mruColors>
@@ -1532,7 +1716,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1 - Alfa'!$G$5:$G$9</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfa'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1556,7 +1740,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib - RBS1 - Alfa'!$F$5:$F$9</c:f>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Alfa'!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1588,11 +1772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485546064"/>
-        <c:axId val="485533008"/>
+        <c:axId val="962647344"/>
+        <c:axId val="962645712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485546064"/>
+        <c:axId val="962647344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,12 +1854,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485533008"/>
+        <c:crossAx val="962645712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485533008"/>
+        <c:axId val="962645712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1937,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485546064"/>
+        <c:crossAx val="962647344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1788,6 +1972,461 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pb signal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Ta-Nb-V Calib - RBS1 - Alfa'!$T$16,'Ta-Nb-V Calib - RBS1 - Alfa'!$T$21,'Ta-Nb-V Calib - RBS1 - Alfa'!$T$26)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>12.134367036695899</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>219.01877888689413</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>241.87627733418523</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Ta-Nb-V Calib - RBS1 - Alfa'!$T$16,'Ta-Nb-V Calib - RBS1 - Alfa'!$T$21,'Ta-Nb-V Calib - RBS1 - Alfa'!$T$26)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>12.134367036695899</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>219.01877888689413</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>241.87627733418523</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>('Ta-Nb-V Calib - RBS1 - Alfa'!$I$11,'Ta-Nb-V Calib - RBS1 - Alfa'!$I$18,'Ta-Nb-V Calib - RBS1 - Alfa'!$I$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Target 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traget 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Target 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Ta-Nb-V Calib - RBS1 - Alfa'!$R$16,'Ta-Nb-V Calib - RBS1 - Alfa'!$R$21,'Ta-Nb-V Calib - RBS1 - Alfa'!$R$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>954.79088945786589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1013.1057170843676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>842.10379668477685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="990509296"/>
+        <c:axId val="990513648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="990509296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>Target 1   </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1" baseline="0"/>
+                  <a:t>           </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>  Target 3                              Target 4</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.27238079615048116"/>
+              <c:y val="0.89268518518518514"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="990513648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="990513648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
+                  <a:t>Thickness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0"/>
+                  <a:t> (nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990509296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -2003,11 +2642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485546608"/>
-        <c:axId val="485531376"/>
+        <c:axId val="962640816"/>
+        <c:axId val="962650608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485546608"/>
+        <c:axId val="962640816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,12 +2724,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485531376"/>
+        <c:crossAx val="962650608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485531376"/>
+        <c:axId val="962650608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2807,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485546608"/>
+        <c:crossAx val="962640816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2202,6 +2841,1574 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pb signal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Ta-Nb-V Calib - RBS1 - Protoes'!$V$15,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$20,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$25)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>64.5148919440106</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Ta-Nb-V Calib - RBS1 - Protoes'!$V$15,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$20,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$25)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>64.5148919440106</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>('Ta-Nb-V Calib - RBS1 - Alfa'!$I$11,'Ta-Nb-V Calib - RBS1 - Alfa'!$I$18,'Ta-Nb-V Calib - RBS1 - Alfa'!$I$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Target 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traget 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Target 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Ta-Nb-V Calib - RBS1 - Alfa'!$R$16,'Ta-Nb-V Calib - RBS1 - Alfa'!$R$21,'Ta-Nb-V Calib - RBS1 - Alfa'!$R$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>954.79088945786589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1013.1057170843676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>842.10379668477685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1154949632"/>
+        <c:axId val="1154950176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1154949632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>Target 1   </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1" baseline="0"/>
+                  <a:t>           </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>  Target 3                              Target 4</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.27238079615048116"/>
+              <c:y val="0.89268518518518514"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1154950176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1154950176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
+                  <a:t>Thickness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0"/>
+                  <a:t> (nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154949632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2212,10 +4419,10 @@
       <xdr:rowOff>19300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177560</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>533160</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>806210</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2238,16 +4445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>231775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>616060</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>56750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>425560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2261,8 +4468,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5492750" y="387350"/>
-          <a:ext cx="2908410" cy="1339450"/>
+          <a:off x="47625" y="6823075"/>
+          <a:ext cx="2797285" cy="1387075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,6 +4479,36 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2289,8 +4526,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9690</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>342660</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2304,6 +4541,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2581,22 +4850,22 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" customWidth="1"/>
-    <col min="2" max="2" width="4.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
-    <col min="8" max="8" width="42.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="7.08984375" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +4899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2650,7 +4919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2673,7 +4942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2696,7 +4965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2716,7 +4985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2733,7 +5002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2750,7 +5019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2770,7 +5039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2791,7 +5060,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2809,7 +5078,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2830,7 +5099,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2848,7 +5117,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2866,7 +5135,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2877,7 +5146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2890,7 +5159,7 @@
       <c r="I17" s="9"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +5170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>15</v>
       </c>
@@ -2918,7 +5187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>16</v>
       </c>
@@ -2935,7 +5204,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>17</v>
       </c>
@@ -2955,7 +5224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18</v>
       </c>
@@ -2972,7 +5241,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>19</v>
       </c>
@@ -2989,7 +5258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20</v>
       </c>
@@ -3006,7 +5275,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>21</v>
       </c>
@@ -3023,7 +5292,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>22</v>
       </c>
@@ -3037,7 +5306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>23</v>
       </c>
@@ -3054,7 +5323,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>24</v>
       </c>
@@ -3071,7 +5340,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>25</v>
       </c>
@@ -3088,7 +5357,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>26</v>
       </c>
@@ -3105,7 +5374,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>27</v>
       </c>
@@ -3122,7 +5391,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>28</v>
       </c>
@@ -3139,10 +5408,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
     </row>
   </sheetData>
@@ -3153,1384 +5422,1625 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.36328125" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.7109375" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="15.28515625" customWidth="1"/>
+    <col min="37" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:33" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="23">
+        <v>11.31</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="38">
+      <c r="B2" s="21">
         <v>2000</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="41">
-        <v>11.31</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:40" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B5" s="47" t="s">
+      <c r="D2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="48">
+      <c r="E2" s="80">
         <v>8</v>
       </c>
-      <c r="D5" s="49">
+      <c r="F2" s="81">
         <v>15.999000000000001</v>
       </c>
-      <c r="E5" s="13">
-        <f t="shared" ref="E5:E10" si="0">((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
+      <c r="G2" s="64">
+        <f t="shared" ref="G2:G7" si="0">((SQRT(1-(4.0026/F2)^2*SIN(RADIANS(165))^2)+4.0026/F2*COS(RADIANS(165)))/(1+4.0026/F2))^2</f>
         <v>0.36591870307011926</v>
       </c>
-      <c r="F5" s="50">
-        <f t="shared" ref="F5:F10" si="1">$B$1*E5</f>
+      <c r="H2" s="82">
+        <f>$B$2*G2</f>
         <v>731.8374061402385</v>
       </c>
-      <c r="G5" s="51">
+      <c r="I2" s="83">
         <v>269</v>
       </c>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="K2" s="13"/>
+      <c r="Q2" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="150"/>
+      <c r="S2" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="152"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="152"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="11">
+      <c r="E3" s="62">
         <v>14</v>
       </c>
-      <c r="D6" s="12">
+      <c r="F3" s="63">
         <v>28.085000000000001</v>
       </c>
-      <c r="E6" s="53">
+      <c r="G3" s="120">
         <f t="shared" si="0"/>
         <v>0.56878025675945543</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="1"/>
+      <c r="H3" s="65">
+        <f>$B$2*G3</f>
         <v>1137.560513518911</v>
       </c>
-      <c r="G6" s="15">
+      <c r="I3" s="66">
         <v>437</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B7" s="54" t="s">
+      <c r="Q3" s="153">
+        <v>1</v>
+      </c>
+      <c r="R3" s="155">
+        <f>R16</f>
+        <v>954.79088945786589</v>
+      </c>
+      <c r="S3" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="157">
+        <f>T16</f>
+        <v>12.134367036695899</v>
+      </c>
+      <c r="U3" s="158">
+        <f>R3*344.092/0.30397*10^(-6)</f>
+        <v>1.0808168790845676</v>
+      </c>
+      <c r="V3" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="160">
+        <f>T3*344.092/0.30397*10^(-6)</f>
+        <v>1.373602204951398E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="16">
+      <c r="E4" s="67">
         <v>23</v>
       </c>
-      <c r="D7" s="17">
+      <c r="F4" s="68">
         <v>50.942</v>
       </c>
-      <c r="E7" s="55">
+      <c r="G4" s="121">
         <f t="shared" si="0"/>
         <v>0.7337544049093524</v>
       </c>
-      <c r="F7" s="18">
-        <f t="shared" si="1"/>
+      <c r="H4" s="69">
+        <f>$B$2*G4</f>
         <v>1467.5088098187048</v>
       </c>
-      <c r="G7" s="19">
+      <c r="I4" s="70">
         <v>582</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B8" s="56" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="153">
+        <v>3</v>
+      </c>
+      <c r="R4" s="155">
+        <f>R21</f>
+        <v>1013.1057170843676</v>
+      </c>
+      <c r="S4" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="157">
+        <f>T21</f>
+        <v>219.01877888689413</v>
+      </c>
+      <c r="U4" s="158">
+        <f t="shared" ref="U4:U5" si="1">R4*344.092/0.30397*10^(-6)</f>
+        <v>1.1468288725959608</v>
+      </c>
+      <c r="V4" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="160">
+        <f t="shared" ref="W4:W5" si="2">T4*344.092/0.30397*10^(-6)</f>
+        <v>0.24792778782363112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="20">
+      <c r="E5" s="71">
         <v>41</v>
       </c>
-      <c r="D8" s="21">
+      <c r="F5" s="72">
         <v>92.906000000000006</v>
       </c>
-      <c r="E8" s="57">
+      <c r="G5" s="122">
         <f t="shared" si="0"/>
         <v>0.84408702273631764</v>
       </c>
-      <c r="F8" s="22">
+      <c r="H5" s="73">
+        <f>$B$2*G5</f>
+        <v>1688.1740454726353</v>
+      </c>
+      <c r="I5" s="74">
+        <v>673</v>
+      </c>
+      <c r="Q5" s="154">
+        <v>4</v>
+      </c>
+      <c r="R5" s="161">
+        <f>R26</f>
+        <v>842.10379668477685</v>
+      </c>
+      <c r="S5" s="162" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="163">
+        <f>T26</f>
+        <v>241.87627733418523</v>
+      </c>
+      <c r="U5" s="164">
         <f t="shared" si="1"/>
-        <v>1688.1740454726353</v>
-      </c>
-      <c r="G8" s="23">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="58" t="s">
+        <v>0.95325584632976346</v>
+      </c>
+      <c r="V5" s="165" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="166">
+        <f t="shared" si="2"/>
+        <v>0.27380232266498156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="24">
+      <c r="E6" s="75">
         <v>73</v>
       </c>
-      <c r="D9" s="25">
+      <c r="F6" s="76">
         <v>180.95</v>
       </c>
-      <c r="E9" s="59">
+      <c r="G6" s="123">
         <f t="shared" si="0"/>
         <v>0.91668930866242726</v>
       </c>
-      <c r="F9" s="26">
-        <f t="shared" si="1"/>
+      <c r="H6" s="78">
+        <f>$B$2*G6</f>
         <v>1833.3786173248545</v>
       </c>
-      <c r="G9" s="27">
+      <c r="I6" s="79">
         <v>732.5</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="88" t="s">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="84">
+      <c r="E7" s="57">
         <v>82</v>
       </c>
-      <c r="D10" s="84">
+      <c r="F7" s="57">
         <v>207.2</v>
       </c>
-      <c r="E10" s="85">
+      <c r="G7" s="58">
         <f t="shared" si="0"/>
         <v>0.92685011433311859</v>
       </c>
-      <c r="F10" s="86">
-        <f t="shared" si="1"/>
+      <c r="H7" s="59">
+        <f>$B$2*G7</f>
         <v>1853.7002286662371</v>
       </c>
-      <c r="G10" s="87">
-        <f>(F10-94.322)/2.3681</f>
+      <c r="I7" s="60">
+        <f>(H7-94.322)/2.3681</f>
         <v>742.94929634147081</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="141" t="s">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="123" t="s">
+      <c r="J11" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="122" t="s">
+      <c r="K11" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="122" t="s">
+      <c r="M11" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="122" t="s">
+      <c r="O11" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="71" t="s">
+      <c r="P11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="72" t="s">
+      <c r="Q11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="73" t="s">
+      <c r="R11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="142" t="s">
+      <c r="S11" s="124"/>
+      <c r="T11" s="125"/>
+      <c r="V11" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="116" t="s">
+      <c r="W11" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="X11" s="116" t="s">
+      <c r="Z11" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="Y11" s="116" t="s">
+      <c r="AA11" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="116" t="s">
+      <c r="AB11" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="116" t="s">
+      <c r="AC11" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="AB11" s="117" t="s">
+      <c r="AD11" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AC11" s="118" t="s">
+      <c r="AE11" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF11" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG11" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH11" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI11" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ11" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK11" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL11" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM11" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN11" s="127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="I12" s="65" t="s">
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="125"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I12" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="47">
         <v>728</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="40">
         <v>582</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="41">
         <f>(J12-K12)*2.3657</f>
         <v>345.3922</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="40">
         <v>349.1</v>
       </c>
-      <c r="N12" s="77">
-        <f>M12*$B$2/10</f>
+      <c r="N12" s="50">
+        <f>M12*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="40">
         <v>359.9</v>
       </c>
-      <c r="P12" s="77">
-        <f>O12*$B$2/10</f>
+      <c r="P12" s="50">
+        <f>O12*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q12" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
+      <c r="Q12" s="117">
+        <f>(($G$7/COS(RADIANS(0))*N12)+(1/COS(RADIANS(15)*P12)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R12" s="70">
+      <c r="R12" s="43">
         <f>L12*10^3/Q12</f>
         <v>941.16897299306925</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="119" t="s">
+      <c r="S12" s="130"/>
+      <c r="T12" s="134">
+        <f>(R12-$R$16)^2</f>
+        <v>185.55660817389781</v>
+      </c>
+      <c r="V12" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="135"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="68">
-        <f>(U12-V12)*2.3681</f>
+      <c r="W12" s="108"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="41">
+        <f>(W12-X12)*2.3681</f>
         <v>0</v>
       </c>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="77">
-        <f>X12*$B$2/10</f>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="50">
+        <f>Z12*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="77">
-        <f>Z12*$B$2/10</f>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="50">
+        <f>AB12*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="144">
-        <f>(($F$9/COS(RADIANS(0))*Y12)+(1/COS(RADIANS(15)*AA12)))</f>
+      <c r="AD12" s="117">
+        <f>(($H$6/COS(RADIANS(0))*AA12)+(1/COS(RADIANS(15)*AC12)))</f>
         <v>1</v>
       </c>
-      <c r="AC12" s="137">
-        <f>W12*10^3/AB12</f>
+      <c r="AE12" s="110">
+        <f>Y12*10^3/AD12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="68">
-        <f>(AF12-AG12)*2.3681</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="77">
-        <f>AI12*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="77">
-        <f>AK12*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="144">
-        <f>(($F$9/COS(RADIANS(0))*AJ12)+(1/COS(RADIANS(15)*AL12)))</f>
-        <v>1</v>
-      </c>
-      <c r="AN12" s="137">
-        <f>AH12*10^3/AM12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="126"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="75">
+      <c r="J13" s="48">
         <v>724</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="14">
         <v>575</v>
       </c>
-      <c r="L13" s="32">
-        <f t="shared" ref="L13:L15" si="2">(J13-K13)*2.3681</f>
+      <c r="L13" s="15">
+        <f t="shared" ref="L13:L15" si="3">(J13-K13)*2.3681</f>
         <v>352.84690000000001</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="40">
         <v>349.1</v>
       </c>
-      <c r="N13" s="77">
-        <f>M13*$B$2/10</f>
+      <c r="N13" s="50">
+        <f>M13*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="40">
         <v>359.9</v>
       </c>
-      <c r="P13" s="77">
-        <f>O13*$B$2/10</f>
+      <c r="P13" s="50">
+        <f>O13*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q13" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
+      <c r="Q13" s="117">
+        <f>(($G$7/COS(RADIANS(0))*N13)+(1/COS(RADIANS(15)*P13)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R13" s="70">
+      <c r="R13" s="43">
         <f>L13*10^3/Q13</f>
         <v>961.48249583166091</v>
       </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="120" t="s">
+      <c r="S13" s="130"/>
+      <c r="T13" s="134">
+        <f>(R13-$R$16)^2</f>
+        <v>44.777595861814206</v>
+      </c>
+      <c r="V13" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="75"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="32">
-        <f t="shared" ref="W13:W15" si="3">(U13-V13)*2.3681</f>
+      <c r="W13" s="48"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="15">
+        <f t="shared" ref="Y13:Y15" si="4">(W13-X13)*2.3681</f>
         <v>0</v>
       </c>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="35">
-        <f t="shared" ref="Y13:Y15" si="4">X13*$B$2/10</f>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="18">
+        <f>Z13*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="35">
-        <f t="shared" ref="AA13:AA15" si="5">Z13*$B$2/10</f>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="18">
+        <f>AB13*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="144">
-        <f t="shared" ref="AB13:AB15" si="6">(($F$9/COS(RADIANS(0))*Y13)+(1/COS(RADIANS(15)*AA13)))</f>
+      <c r="AD13" s="117">
+        <f>(($H$6/COS(RADIANS(0))*AA13)+(1/COS(RADIANS(15)*AC13)))</f>
         <v>1</v>
       </c>
-      <c r="AC13" s="62">
-        <f>W13*10^3/AB13</f>
+      <c r="AE13" s="35">
+        <f>Y13*10^3/AD13</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="32">
-        <f t="shared" ref="AH13:AH15" si="7">(AF13-AG13)*2.3681</f>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="35">
-        <f t="shared" ref="AJ13:AJ15" si="8">AI13*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="35">
-        <f t="shared" ref="AL13:AL15" si="9">AK13*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="144">
-        <f>(($F$9/COS(RADIANS(0))*AJ13)+(1/COS(RADIANS(15)*AL13)))</f>
-        <v>1</v>
-      </c>
-      <c r="AN13" s="62">
-        <f>AH13*10^3/AM13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="I14" s="76" t="s">
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="126"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I14" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J14" s="48">
         <v>729</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="14">
         <v>582</v>
       </c>
-      <c r="L14" s="32">
-        <f t="shared" si="2"/>
+      <c r="L14" s="15">
+        <f t="shared" si="3"/>
         <v>348.11070000000001</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="40">
         <v>349.1</v>
       </c>
-      <c r="N14" s="77">
-        <f>M14*$B$2/10</f>
+      <c r="N14" s="50">
+        <f>M14*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="40">
         <v>359.9</v>
       </c>
-      <c r="P14" s="77">
-        <f>O14*$B$2/10</f>
+      <c r="P14" s="50">
+        <f>O14*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q14" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
+      <c r="Q14" s="117">
+        <f>(($G$7/COS(RADIANS(0))*N14)+(1/COS(RADIANS(15)*P14)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R14" s="70">
+      <c r="R14" s="43">
         <f>L14*10^3/Q14</f>
         <v>948.57669051848427</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="120" t="s">
+      <c r="S14" s="130"/>
+      <c r="T14" s="134">
+        <f>(R14-$R$16)^2</f>
+        <v>38.616268458211621</v>
+      </c>
+      <c r="V14" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="75"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="35">
+      <c r="W14" s="48"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="35">
-        <f t="shared" si="5"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="18">
+        <f>Z14*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="144">
-        <f t="shared" si="6"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="18">
+        <f>AB14*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="117">
+        <f>(($H$6/COS(RADIANS(0))*AA14)+(1/COS(RADIANS(15)*AC14)))</f>
         <v>1</v>
       </c>
-      <c r="AC14" s="62">
-        <f>W14*10^3/AB14</f>
+      <c r="AE14" s="35">
+        <f>Y14*10^3/AD14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="144">
-        <f>(($F$9/COS(RADIANS(0))*AJ14)+(1/COS(RADIANS(15)*AL14)))</f>
-        <v>1</v>
-      </c>
-      <c r="AN14" s="62">
-        <f>AH14*10^3/AM14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="66" t="s">
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="126"/>
+    </row>
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="37">
         <v>729</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="16">
         <v>579</v>
       </c>
-      <c r="L15" s="34">
-        <f t="shared" si="2"/>
+      <c r="L15" s="17">
+        <f t="shared" si="3"/>
         <v>355.21500000000003</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="112">
         <v>349.1</v>
       </c>
-      <c r="N15" s="77">
-        <f>M15*$B$2/10</f>
+      <c r="N15" s="143">
+        <f>M15*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="112">
         <v>359.9</v>
       </c>
-      <c r="P15" s="77">
-        <f>O15*$B$2/10</f>
+      <c r="P15" s="143">
+        <f>O15*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q15" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
+      <c r="Q15" s="118">
+        <f>(($G$7/COS(RADIANS(0))*N15)+(1/COS(RADIANS(15)*P15)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R15" s="70">
+      <c r="R15" s="136">
         <f>L15*10^3/Q15</f>
         <v>967.93539848824935</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="121" t="s">
+      <c r="S15" s="130"/>
+      <c r="T15" s="134">
+        <f>(R15-$R$16)^2</f>
+        <v>172.77811764983232</v>
+      </c>
+      <c r="V15" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="64"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="60">
+      <c r="W15" s="37"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="60">
-        <f t="shared" si="5"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="33">
+        <f>Z15*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="145">
-        <f t="shared" si="6"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="33">
+        <f>AB15*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="118">
+        <f>(($H$6/COS(RADIANS(0))*AA15)+(1/COS(RADIANS(15)*AC15)))</f>
         <v>1</v>
       </c>
-      <c r="AC15" s="63">
-        <f>W15*10^3/AB15</f>
+      <c r="AE15" s="36">
+        <f>Y15*10^3/AD15</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="145">
-        <f>(($F$9/COS(RADIANS(0))*AJ15)+(1/COS(RADIANS(15)*AL15)))</f>
-        <v>1</v>
-      </c>
-      <c r="AN15" s="63">
-        <f>AH15*10^3/AM15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-    </row>
-    <row r="17" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-    </row>
-    <row r="18" spans="9:40" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="141" t="s">
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="126"/>
+    </row>
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="127"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="145">
+        <f>SUM(R12:R15)/4</f>
+        <v>954.79088945786589</v>
+      </c>
+      <c r="S16" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="133">
+        <f>SQRT(SUM(T12:T15)/3)</f>
+        <v>12.134367036695899</v>
+      </c>
+      <c r="V16" s="127"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="126"/>
+    </row>
+    <row r="17" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="127"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="126"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="126"/>
+    </row>
+    <row r="18" spans="9:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="123" t="s">
+      <c r="J18" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="122" t="s">
+      <c r="K18" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="71" t="s">
+      <c r="L18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="122" t="s">
+      <c r="M18" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="122" t="s">
+      <c r="O18" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="71" t="s">
+      <c r="P18" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="Q18" s="72" t="s">
+      <c r="Q18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="73" t="s">
+      <c r="R18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="30"/>
-      <c r="T18" s="142" t="s">
+      <c r="S18" s="6"/>
+      <c r="T18" s="126"/>
+      <c r="V18" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="V18" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" s="116" t="s">
+      <c r="W18" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="X18" s="116" t="s">
+      <c r="Z18" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" s="116" t="s">
+      <c r="AA18" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="Z18" s="116" t="s">
+      <c r="AB18" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AA18" s="116" t="s">
+      <c r="AC18" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="AB18" s="117" t="s">
+      <c r="AD18" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AC18" s="118" t="s">
+      <c r="AE18" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="143" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF18" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG18" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH18" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI18" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ18" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK18" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL18" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM18" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN18" s="127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="9:40" x14ac:dyDescent="0.35">
-      <c r="I19" s="65" t="s">
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="126"/>
+    </row>
+    <row r="19" spans="9:33" x14ac:dyDescent="0.25">
+      <c r="I19" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="74">
+      <c r="J19" s="47">
         <v>686</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="40">
         <v>553</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="41">
         <f>(J19-K19)*2.3681</f>
         <v>314.95730000000003</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="40">
         <v>349.1</v>
       </c>
-      <c r="N19" s="67">
-        <f>M19*$B$2/10</f>
+      <c r="N19" s="40">
+        <f>M19*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O19" s="67">
+      <c r="O19" s="40">
         <v>359.9</v>
       </c>
-      <c r="P19" s="67">
-        <f>O19*$B$2/10</f>
+      <c r="P19" s="40">
+        <f>O19*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q19" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
+      <c r="Q19" s="117">
+        <f>(($G$7/COS(RADIANS(0))*N19)+(1/COS(RADIANS(15)*P19)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R19" s="70">
+      <c r="R19" s="43">
         <f>L19*10^3/Q19</f>
         <v>858.23605332624777</v>
       </c>
-      <c r="S19" s="30"/>
-      <c r="T19" s="119" t="s">
+      <c r="S19" s="6"/>
+      <c r="T19" s="126">
+        <f>($R$21-R19)^2</f>
+        <v>23984.612752553094</v>
+      </c>
+      <c r="V19" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="74"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="68">
-        <f>(U19-V19)*2.3681</f>
+      <c r="W19" s="47"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="41">
+        <f>(W19-X19)*2.3681</f>
         <v>0</v>
       </c>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="77">
-        <f>X19*$B$2/10</f>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40">
+        <f>Z19*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="77">
-        <f>Z19*$B$2/10</f>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="50">
+        <f>AB19*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="144">
-        <f>(($F$9/COS(RADIANS(0))*Y19)+(1/COS(RADIANS(15)*AA19)))</f>
+      <c r="AD19" s="117">
+        <f>(($H$6/COS(RADIANS(0))*AA19)+(1/COS(RADIANS(15)*AC19)))</f>
         <v>1</v>
       </c>
-      <c r="AC19" s="70">
-        <f>W19*10^3/AB19</f>
+      <c r="AE19" s="43">
+        <f>Y19*10^3/AD19</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="68">
-        <f>(AF19-AG19)*2.3681</f>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67">
-        <f>AI19*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="77">
-        <f>AK19*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AM19" s="144">
-        <f>(($F$9/COS(RADIANS(0))*AJ19)+(1/COS(RADIANS(15)*AL19)))</f>
-        <v>1</v>
-      </c>
-      <c r="AN19" s="70">
-        <f>AH19*10^3/AM19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="66" t="s">
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="126"/>
+    </row>
+    <row r="20" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="104">
         <v>617</v>
       </c>
-      <c r="K20" s="132">
+      <c r="K20" s="105">
         <v>436</v>
       </c>
-      <c r="L20" s="34">
-        <f t="shared" ref="L20" si="10">(J20-K20)*2.3681</f>
+      <c r="L20" s="17">
+        <f t="shared" ref="L20" si="5">(J20-K20)*2.3681</f>
         <v>428.62610000000001</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="112">
         <v>349.1</v>
       </c>
-      <c r="N20" s="33">
-        <f t="shared" ref="N20" si="11">M20*$B$2/10</f>
+      <c r="N20" s="16">
+        <f>M20*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O20" s="67">
+      <c r="O20" s="112">
         <v>359.9</v>
       </c>
-      <c r="P20" s="33">
-        <f t="shared" ref="P20" si="12">O20*$B$2/10</f>
+      <c r="P20" s="16">
+        <f>O20*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q20" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
+      <c r="Q20" s="118">
+        <f>(($G$7/COS(RADIANS(0))*N20)+(1/COS(RADIANS(15)*P20)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R20" s="63">
+      <c r="R20" s="36">
         <f>L20*10^3/Q20</f>
         <v>1167.9753808424875</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="121" t="s">
+      <c r="S20" s="6"/>
+      <c r="T20" s="126">
+        <f t="shared" ref="T20" si="6">($R$21-R20)^2</f>
+        <v>23984.61275255313</v>
+      </c>
+      <c r="V20" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="U20" s="133"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="34">
-        <f t="shared" ref="W20" si="13">(U20-V20)*2.3681</f>
+      <c r="W20" s="106"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="17">
+        <f t="shared" ref="Y20" si="7">(W20-X20)*2.3681</f>
         <v>0</v>
       </c>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="60">
-        <f t="shared" ref="Y20" si="14">X20*$B$2/10</f>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="16">
+        <f>Z20*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="60">
-        <f t="shared" ref="AA20" si="15">Z20*$B$2/10</f>
+      <c r="AB20" s="112"/>
+      <c r="AC20" s="33">
+        <f>AB20*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="145">
-        <f>(($F$9/COS(RADIANS(0))*Y20)+(1/COS(RADIANS(15)*AA20)))</f>
+      <c r="AD20" s="118">
+        <f>(($H$6/COS(RADIANS(0))*AA20)+(1/COS(RADIANS(15)*AC20)))</f>
         <v>1</v>
       </c>
-      <c r="AC20" s="138">
-        <f>W20*10^3/AB20</f>
+      <c r="AE20" s="111">
+        <f>Y20*10^3/AD20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF20" s="133"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="34">
-        <f t="shared" ref="AH20" si="16">(AF20-AG20)*2.3681</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="139"/>
-      <c r="AJ20" s="33">
-        <f t="shared" ref="AJ20" si="17">AI20*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="139"/>
-      <c r="AL20" s="60">
-        <f t="shared" ref="AL20" si="18">AK20*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="145">
-        <f>(($F$9/COS(RADIANS(0))*AJ20)+(1/COS(RADIANS(15)*AL20)))</f>
-        <v>1</v>
-      </c>
-      <c r="AN20" s="138">
-        <f>AH20*10^3/AM20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="9:40" x14ac:dyDescent="0.35">
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-    </row>
-    <row r="22" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-    </row>
-    <row r="23" spans="9:40" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="141" t="s">
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="126"/>
+    </row>
+    <row r="21" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="127"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="145">
+        <f>SUM(R17:R20)/2</f>
+        <v>1013.1057170843676</v>
+      </c>
+      <c r="S21" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21" s="133">
+        <f>SQRT(SUM(T19:T20))</f>
+        <v>219.01877888689413</v>
+      </c>
+      <c r="V21" s="127"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="126"/>
+    </row>
+    <row r="22" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="127"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="126"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="126"/>
+    </row>
+    <row r="23" spans="9:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="123" t="s">
+      <c r="J23" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="122" t="s">
+      <c r="K23" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="71" t="s">
+      <c r="L23" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="122" t="s">
+      <c r="M23" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="O23" s="122" t="s">
+      <c r="O23" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="P23" s="71" t="s">
+      <c r="P23" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="Q23" s="72" t="s">
+      <c r="Q23" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="R23" s="73" t="s">
+      <c r="R23" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="142" t="s">
+      <c r="S23" s="6"/>
+      <c r="T23" s="126"/>
+      <c r="V23" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="U23" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="V23" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="W23" s="116" t="s">
+      <c r="W23" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="X23" s="116" t="s">
+      <c r="Z23" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" s="116" t="s">
+      <c r="AA23" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="Z23" s="116" t="s">
+      <c r="AB23" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AA23" s="116" t="s">
+      <c r="AC23" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="AB23" s="117" t="s">
+      <c r="AD23" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AC23" s="118" t="s">
+      <c r="AE23" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF23" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG23" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH23" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI23" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ23" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK23" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL23" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM23" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN23" s="127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I24" s="65" t="s">
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="126"/>
+    </row>
+    <row r="24" spans="9:33" x14ac:dyDescent="0.25">
+      <c r="I24" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="114">
+      <c r="J24" s="14">
         <v>717</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="14">
         <v>587</v>
       </c>
-      <c r="L24" s="34">
-        <f t="shared" ref="L24:L25" si="19">(J24-K24)*2.3681</f>
+      <c r="L24" s="15">
+        <f t="shared" ref="L24:L25" si="8">(J24-K24)*2.3681</f>
         <v>307.85300000000001</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="14">
         <v>349.1</v>
       </c>
-      <c r="N24" s="67">
-        <f>M24*$B$2/10</f>
+      <c r="N24" s="14">
+        <f>M24*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="14">
         <v>359.9</v>
       </c>
-      <c r="P24" s="67">
-        <f>O24*$B$2/10</f>
+      <c r="P24" s="14">
+        <f>O24*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q24" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N24)+(1/COS(RADIANS(15)*P24)))</f>
+      <c r="Q24" s="19">
+        <f>(($G$7/COS(RADIANS(0))*N24)+(1/COS(RADIANS(15)*P24)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R24" s="70">
+      <c r="R24" s="138">
         <f>L24*10^3/Q24</f>
         <v>838.87734535648258</v>
       </c>
-      <c r="S24" s="30"/>
-      <c r="T24" s="119" t="s">
+      <c r="S24" s="6"/>
+      <c r="T24" s="126">
+        <f>($R$21-R24)^2</f>
+        <v>30355.525514950084</v>
+      </c>
+      <c r="V24" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="U24" s="114"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="68">
-        <f>(U25-V24)*2.3681</f>
+      <c r="W24" s="87"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="41">
+        <f>(W25-X24)*2.3681</f>
         <v>0</v>
       </c>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="77">
-        <f>X24*$B$2/10</f>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40">
+        <f>Z24*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="77">
-        <f>Z24*$B$2/10</f>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="50">
+        <f>AB24*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB24" s="144">
-        <f>(($F$9/COS(RADIANS(0))*Y24)+(1/COS(RADIANS(15)*AA24)))</f>
+      <c r="AD24" s="117">
+        <f>(($H$6/COS(RADIANS(0))*AA24)+(1/COS(RADIANS(15)*AC24)))</f>
         <v>1</v>
       </c>
-      <c r="AC24" s="70">
-        <f>W24*10^3/AB24</f>
+      <c r="AE24" s="43">
+        <f>Y24*10^3/AD24</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="68">
-        <f>(AF25-AG24)*2.3681</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67">
-        <f>AI24*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="77">
-        <f>AK24*$B$2/10</f>
-        <v>0</v>
-      </c>
-      <c r="AM24" s="144">
-        <f>(($F$9/COS(RADIANS(0))*AJ24)+(1/COS(RADIANS(15)*AL24)))</f>
-        <v>1</v>
-      </c>
-      <c r="AN24" s="70">
-        <f>AH24*10^3/AM24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I25" s="66" t="s">
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="126"/>
+    </row>
+    <row r="25" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="16">
         <v>717</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="16">
         <v>586</v>
       </c>
-      <c r="L25" s="34">
-        <f t="shared" si="19"/>
+      <c r="L25" s="17">
+        <f t="shared" si="8"/>
         <v>310.22110000000004</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="16">
         <v>349.1</v>
       </c>
-      <c r="N25" s="33">
-        <f t="shared" ref="N25" si="20">M25*$B$2/10</f>
+      <c r="N25" s="16">
+        <f>M25*$B$1/10</f>
         <v>394.83210000000003</v>
       </c>
-      <c r="O25" s="67">
+      <c r="O25" s="16">
         <v>359.9</v>
       </c>
-      <c r="P25" s="33">
-        <f t="shared" ref="P25" si="21">O25*$B$2/10</f>
+      <c r="P25" s="16">
+        <f>O25*$B$1/10</f>
         <v>407.04689999999999</v>
       </c>
-      <c r="Q25" s="144">
-        <f>(($E$10/COS(RADIANS(0))*N25)+(1/COS(RADIANS(15)*P25)))</f>
+      <c r="Q25" s="34">
+        <f>(($G$7/COS(RADIANS(0))*N25)+(1/COS(RADIANS(15)*P25)))</f>
         <v>366.9821359512066</v>
       </c>
-      <c r="R25" s="63">
+      <c r="R25" s="136">
         <f>L25*10^3/Q25</f>
         <v>845.33024801307101</v>
       </c>
-      <c r="S25" s="30"/>
-      <c r="T25" s="121" t="s">
+      <c r="S25" s="6"/>
+      <c r="T25" s="126">
+        <f t="shared" ref="T25" si="9">($R$21-R25)^2</f>
+        <v>28148.608022093598</v>
+      </c>
+      <c r="V25" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="U25" s="64"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34">
-        <f>(U25-V25)*2.3681</f>
+      <c r="W25" s="37"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="17">
+        <f>(W25-X25)*2.3681</f>
         <v>0</v>
       </c>
-      <c r="X25" s="139"/>
-      <c r="Y25" s="60">
-        <f t="shared" ref="Y25" si="22">X25*$B$2/10</f>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="16">
+        <f>Z25*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="139"/>
-      <c r="AA25" s="60">
-        <f t="shared" ref="AA25" si="23">Z25*$B$2/10</f>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="33">
+        <f>AB25*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="145">
-        <f>(($F$9/COS(RADIANS(0))*Y25)+(1/COS(RADIANS(15)*AA25)))</f>
+      <c r="AD25" s="118">
+        <f>(($H$6/COS(RADIANS(0))*AA25)+(1/COS(RADIANS(15)*AC25)))</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="63">
-        <f>W25*10^3/AB25</f>
+      <c r="AE25" s="36">
+        <f>Y25*10^3/AD25</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="130" t="s">
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="128"/>
+    </row>
+    <row r="26" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="144"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="145">
+        <f>SUM(R22:R25)/2</f>
+        <v>842.10379668477685</v>
+      </c>
+      <c r="S26" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="T26" s="133">
+        <f>SQRT(SUM(T24:T25))</f>
+        <v>241.87627733418523</v>
+      </c>
+    </row>
+    <row r="27" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="9:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="129"/>
+      <c r="T28" s="125"/>
+    </row>
+    <row r="29" spans="9:33" x14ac:dyDescent="0.25">
+      <c r="I29" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="108"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="41">
+        <f>(J29-K29)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="40"/>
+      <c r="N29" s="50">
+        <f>M29*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="40"/>
+      <c r="P29" s="50">
+        <f>O29*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="117">
+        <f>(($H$6/COS(RADIANS(0))*N29)+(1/COS(RADIANS(15)*P29)))</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="110">
+        <f>L29*10^3/Q29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="130"/>
+      <c r="T29" s="126"/>
+    </row>
+    <row r="30" spans="9:33" x14ac:dyDescent="0.25">
+      <c r="I30" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="48"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15">
+        <f t="shared" ref="L30:L32" si="10">(J30-K30)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="40"/>
+      <c r="N30" s="18">
+        <f>M30*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="40"/>
+      <c r="P30" s="18">
+        <f>O30*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="117">
+        <f>(($H$6/COS(RADIANS(0))*N30)+(1/COS(RADIANS(15)*P30)))</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="35">
+        <f>L30*10^3/Q30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="130"/>
+      <c r="T30" s="126"/>
+    </row>
+    <row r="31" spans="9:33" x14ac:dyDescent="0.25">
+      <c r="I31" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="40"/>
+      <c r="N31" s="18">
+        <f>M31*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="40"/>
+      <c r="P31" s="18">
+        <f>O31*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="117">
+        <f>(($H$6/COS(RADIANS(0))*N31)+(1/COS(RADIANS(15)*P31)))</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="35">
+        <f>L31*10^3/Q31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="130"/>
+      <c r="T31" s="126"/>
+    </row>
+    <row r="32" spans="9:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="37"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="112"/>
+      <c r="N32" s="33">
+        <f>M32*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="112"/>
+      <c r="P32" s="33">
+        <f>O32*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="118">
+        <f>(($H$6/COS(RADIANS(0))*N32)+(1/COS(RADIANS(15)*P32)))</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="36">
+        <f>L32*10^3/Q32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="130"/>
+      <c r="T32" s="126"/>
+    </row>
+    <row r="33" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I33" s="127"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="126"/>
+    </row>
+    <row r="34" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="127"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="130"/>
+      <c r="T34" s="126"/>
+    </row>
+    <row r="35" spans="9:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q35" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35" s="130"/>
+      <c r="T35" s="126"/>
+    </row>
+    <row r="36" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I36" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41">
+        <f>(J36-K36)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="40"/>
+      <c r="N36" s="50">
+        <f>M36*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="40"/>
+      <c r="P36" s="50">
+        <f>O36*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="117">
+        <f>(($H$6/COS(RADIANS(0))*N36)+(1/COS(RADIANS(15)*P36)))</f>
+        <v>1</v>
+      </c>
+      <c r="R36" s="43">
+        <f>L36*10^3/Q36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="130"/>
+      <c r="T36" s="126"/>
+    </row>
+    <row r="37" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="106"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="17">
+        <f t="shared" ref="L37" si="11">(J37-K37)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="112"/>
+      <c r="N37" s="33">
+        <f>M37*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="112"/>
+      <c r="P37" s="33">
+        <f>O37*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="118">
+        <f>(($H$6/COS(RADIANS(0))*N37)+(1/COS(RADIANS(15)*P37)))</f>
+        <v>1</v>
+      </c>
+      <c r="R37" s="111">
+        <f>L37*10^3/Q37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="130"/>
+      <c r="T37" s="126"/>
+    </row>
+    <row r="38" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I38" s="127"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="126"/>
+    </row>
+    <row r="39" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="127"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="126"/>
+    </row>
+    <row r="40" spans="9:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="S40" s="130"/>
+      <c r="T40" s="126"/>
+    </row>
+    <row r="41" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I41" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="87"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="41">
+        <f>(J42-K41)*2.3681</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="40"/>
+      <c r="N41" s="50">
+        <f>M41*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="40"/>
+      <c r="P41" s="50">
+        <f>O41*$B$1/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="117">
+        <f>(($H$6/COS(RADIANS(0))*N41)+(1/COS(RADIANS(15)*P41)))</f>
+        <v>1</v>
+      </c>
+      <c r="R41" s="43">
+        <f>L41*10^3/Q41</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="130"/>
+      <c r="T41" s="126"/>
+    </row>
+    <row r="42" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="34">
-        <f>(AF25-AG25)*2.3681</f>
+      <c r="J42" s="37"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17">
+        <f>(J42-K42)*2.3681</f>
         <v>0</v>
       </c>
-      <c r="AI25" s="139"/>
-      <c r="AJ25" s="33">
-        <f t="shared" ref="AJ25" si="24">AI25*$B$2/10</f>
+      <c r="M42" s="112"/>
+      <c r="N42" s="33">
+        <f>M42*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AK25" s="139"/>
-      <c r="AL25" s="60">
-        <f t="shared" ref="AL25" si="25">AK25*$B$2/10</f>
+      <c r="O42" s="112"/>
+      <c r="P42" s="33">
+        <f>O42*$B$1/10</f>
         <v>0</v>
       </c>
-      <c r="AM25" s="145">
-        <f>(($F$9/COS(RADIANS(0))*AJ25)+(1/COS(RADIANS(15)*AL25)))</f>
+      <c r="Q42" s="118">
+        <f>(($H$6/COS(RADIANS(0))*N42)+(1/COS(RADIANS(15)*P42)))</f>
         <v>1</v>
       </c>
-      <c r="AN25" s="63">
-        <f>AH25*10^3/AM25</f>
+      <c r="R42" s="36">
+        <f>L42*10^3/Q42</f>
         <v>0</v>
       </c>
+      <c r="S42" s="131"/>
+      <c r="T42" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4545,1430 +7055,1768 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP24"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ23" sqref="AJ23:AJ24"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.81640625" customWidth="1"/>
-    <col min="29" max="29" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.26953125" customWidth="1"/>
-    <col min="33" max="33" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="38">
+      <c r="B1" s="21">
         <v>2000</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="23">
         <v>11.31</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="111" t="s">
+    <row r="3" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="113" t="s">
+      <c r="H3" s="86" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="C4" s="47" t="s">
+    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="80">
         <v>8</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="81">
         <v>15.999000000000001</v>
       </c>
-      <c r="F4" s="91">
-        <f>((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
+      <c r="F4" s="64">
+        <f t="shared" ref="F4:F9" si="0">((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="G4" s="109">
+      <c r="G4" s="82">
         <f>$B$1*F4</f>
         <v>1563.7159776396684</v>
       </c>
-      <c r="H4" s="110">
+      <c r="H4" s="83">
         <v>632</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="C5" s="52" t="s">
+      <c r="S4" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="167"/>
+      <c r="U4" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="169"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="169"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="62">
         <v>14</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="63">
         <v>28.085000000000001</v>
       </c>
-      <c r="F5" s="91">
-        <f>((SQRT(1-(1/E5)^2*SIN(RADIANS(165))^2)+1/E5*COS(RADIANS(165)))/(1+1/E5))^2</f>
+      <c r="F5" s="64">
+        <f t="shared" si="0"/>
         <v>0.86930741306534087</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="65">
         <f>$B$1*F5</f>
         <v>1738.6148261306816</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="66">
         <v>701</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="C6" s="54" t="s">
+      <c r="S5" s="153">
+        <v>1</v>
+      </c>
+      <c r="T5" s="170">
+        <f>T15</f>
+        <v>866.75943404141822</v>
+      </c>
+      <c r="U5" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="171">
+        <f>V15</f>
+        <v>64.5148919440106</v>
+      </c>
+      <c r="W5" s="172">
+        <f>T5*344.092/0.30397*10^(-6)</f>
+        <v>0.98116586234884906</v>
+      </c>
+      <c r="X5" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="176">
+        <f>V5*344.092/0.30397*10^(-6)</f>
+        <v>7.3030424709012373E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="67">
         <v>23</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="68">
         <v>50.942</v>
       </c>
-      <c r="F6" s="91">
-        <f>((SQRT(1-(1/E6)^2*SIN(RADIANS(165))^2)+1/E6*COS(RADIANS(165)))/(1+1/E6))^2</f>
+      <c r="F6" s="64">
+        <f t="shared" si="0"/>
         <v>0.9257111865667883</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="69">
         <f>$B$1*F6</f>
         <v>1851.4223731335767</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="70">
         <v>753</v>
       </c>
       <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="C7" s="56" t="s">
+      <c r="S6" s="153">
+        <v>3</v>
+      </c>
+      <c r="T6" s="170">
+        <f>T20</f>
+        <v>858.72576259576738</v>
+      </c>
+      <c r="U6" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="171">
+        <f>V20</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="172">
+        <f t="shared" ref="W6:W7" si="1">T6*344.092/0.30397*10^(-6)</f>
+        <v>0.97207180018785666</v>
+      </c>
+      <c r="X6" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="176">
+        <f t="shared" ref="Y6:Y7" si="2">V6*344.092/0.30397*10^(-6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="71">
         <v>41</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="72">
         <v>92.906000000000006</v>
       </c>
-      <c r="F7" s="91">
-        <f>((SQRT(1-(1/E7)^2*SIN(RADIANS(165))^2)+1/E7*COS(RADIANS(165)))/(1+1/E7))^2</f>
+      <c r="F7" s="64">
+        <f t="shared" si="0"/>
         <v>0.95856067934676659</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="73">
         <f>$B$1*F7</f>
         <v>1917.1213586935332</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="74">
         <v>779</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="58" t="s">
+      <c r="S7" s="154">
+        <v>4</v>
+      </c>
+      <c r="T7" s="173">
+        <f>T25</f>
+        <v>768.33357705937078</v>
+      </c>
+      <c r="U7" s="162" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="174">
+        <f>V25</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="175">
+        <f t="shared" si="1"/>
+        <v>0.86974845279966106</v>
+      </c>
+      <c r="X7" s="162" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="75">
         <v>73</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="76">
         <v>180.95</v>
       </c>
-      <c r="F8" s="104">
-        <f>((SQRT(1-(1/E8)^2*SIN(RADIANS(165))^2)+1/E8*COS(RADIANS(165)))/(1+1/E8))^2</f>
+      <c r="F8" s="77">
+        <f t="shared" si="0"/>
         <v>0.97850521298958393</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="78">
         <f>$B$1*F8</f>
         <v>1957.0104259791678</v>
       </c>
-      <c r="H8" s="106">
+      <c r="H8" s="79">
         <v>796</v>
       </c>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="88" t="s">
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="57">
         <v>82</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="57">
         <v>207.2</v>
       </c>
-      <c r="F9" s="85">
-        <f>((SQRT(1-(1/E9)^2*SIN(RADIANS(165))^2)+1/E9*COS(RADIANS(165)))/(1+1/E9))^2</f>
+      <c r="F9" s="58">
+        <f t="shared" si="0"/>
         <v>0.9812026480871997</v>
       </c>
-      <c r="G9" s="86">
-        <f t="shared" ref="G9" si="0">$B$1*F9</f>
+      <c r="G9" s="59">
+        <f t="shared" ref="G9" si="3">$B$1*F9</f>
         <v>1962.4052961743994</v>
       </c>
-      <c r="H9" s="146">
+      <c r="H9" s="119">
         <f>(G9-62.245)/2.381</f>
         <v>798.05136336598059</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J10" s="5"/>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="122" t="s">
+      <c r="M10" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="122" t="s">
+      <c r="O10" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="71" t="s">
+      <c r="P10" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="122" t="s">
+      <c r="Q10" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="72" t="s">
+      <c r="S10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="73" t="s">
+      <c r="T10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V10" s="142" t="s">
+      <c r="U10" s="129"/>
+      <c r="V10" s="125"/>
+      <c r="X10" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y10" s="116" t="s">
+      <c r="Y10" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="116" t="s">
+      <c r="AB10" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="116" t="s">
+      <c r="AC10" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="AB10" s="116" t="s">
+      <c r="AD10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="116" t="s">
+      <c r="AE10" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="117" t="s">
+      <c r="AF10" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AE10" s="118" t="s">
+      <c r="AG10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AG10" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH10" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI10" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ10" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK10" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL10" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM10" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN10" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO10" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP10" s="127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="K11" s="65" t="s">
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="125"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="K11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="47">
         <v>794</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="40">
         <v>773</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="41">
         <f>(L11-M11)*2.381</f>
         <v>50.000999999999998</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="40">
         <v>45.37</v>
       </c>
-      <c r="P11" s="77">
+      <c r="P11" s="50">
         <f>O11*$B$2/10</f>
         <v>51.313469999999995</v>
       </c>
-      <c r="Q11" s="67">
+      <c r="Q11" s="40">
         <v>45.81</v>
       </c>
-      <c r="R11" s="78">
+      <c r="R11" s="51">
         <f>Q11*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="S11" s="69">
+      <c r="S11" s="42">
         <f>(($F$9/COS(RADIANS(0))*P11)+(1/COS(RADIANS(15)*R11)))</f>
         <v>52.19325942501164</v>
       </c>
-      <c r="T11" s="70">
+      <c r="T11" s="43">
         <f>N11*10^3/S11</f>
         <v>957.99726920367266</v>
       </c>
-      <c r="V11" s="119" t="s">
+      <c r="U11" s="130"/>
+      <c r="V11" s="147">
+        <f>($T$15-T11)^2</f>
+        <v>8324.3425650947138</v>
+      </c>
+      <c r="X11" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="135"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="68">
-        <f>(W11-X11)*2.381</f>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="41">
+        <f>(Y11-Z11)*2.381</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="67">
-        <v>133.5</v>
-      </c>
-      <c r="AA11" s="77">
-        <f>Z11*$B$2/10</f>
-        <v>150.98849999999999</v>
-      </c>
-      <c r="AB11" s="67">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC11" s="78">
+      <c r="AB11" s="40">
+        <v>139.5</v>
+      </c>
+      <c r="AC11" s="50">
         <f>AB11*$B$2/10</f>
-        <v>153.02430000000001</v>
-      </c>
-      <c r="AD11" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AA11)+(1/COS(RADIANS(15)*AC11)))</f>
-        <v>146.74501411526421</v>
-      </c>
-      <c r="AE11" s="137">
-        <f>Y11*10^3/AD11</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AD11" s="40">
+        <v>141.5</v>
+      </c>
+      <c r="AE11" s="51">
+        <f>AD11*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AF11" s="42">
+        <f>(($F$9/COS(RADIANS(0))*AC11)+(1/COS(RADIANS(15)*AE11)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AG11" s="110">
+        <f>AA11*10^3/AF11</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="136"/>
-      <c r="AJ11" s="68">
-        <f>(AH11-AI11)*2.381</f>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="67">
-        <v>139.5</v>
-      </c>
-      <c r="AL11" s="77">
-        <f>AK11*$B$2/10</f>
-        <v>157.77450000000002</v>
-      </c>
-      <c r="AM11" s="67">
-        <v>141.5</v>
-      </c>
-      <c r="AN11" s="78">
-        <f>AM11*$B$2/10</f>
-        <v>160.03649999999999</v>
-      </c>
-      <c r="AO11" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AL11)+(1/COS(RADIANS(15)*AN11)))</f>
-        <v>152.7750043830697</v>
-      </c>
-      <c r="AP11" s="137">
-        <f>AJ11*10^3/AO11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="K12" s="76" t="s">
+      <c r="AH11" s="130"/>
+      <c r="AI11" s="126"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="K12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="48">
         <v>792</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="14">
         <v>773</v>
       </c>
-      <c r="N12" s="68">
-        <f t="shared" ref="N12:N14" si="1">(L12-M12)*2.381</f>
+      <c r="N12" s="41">
+        <f t="shared" ref="N12:N14" si="4">(L12-M12)*2.381</f>
         <v>45.238999999999997</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="40">
         <v>45.37</v>
       </c>
-      <c r="P12" s="35">
-        <f t="shared" ref="P12:P14" si="2">O12*$B$2/10</f>
+      <c r="P12" s="18">
+        <f t="shared" ref="P12:P14" si="5">O12*$B$2/10</f>
         <v>51.313469999999995</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="40">
         <v>45.81</v>
       </c>
-      <c r="R12" s="36">
-        <f t="shared" ref="R12:R14" si="3">Q12*$B$2/10</f>
+      <c r="R12" s="19">
+        <f t="shared" ref="R12:R14" si="6">Q12*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="S12" s="69">
-        <f t="shared" ref="S12:S14" si="4">(($F$9/COS(RADIANS(0))*P12)+(1/COS(RADIANS(15)*R12)))</f>
+      <c r="S12" s="42">
+        <f t="shared" ref="S12:S14" si="7">(($F$9/COS(RADIANS(0))*P12)+(1/COS(RADIANS(15)*R12)))</f>
         <v>52.19325942501164</v>
       </c>
-      <c r="T12" s="62">
+      <c r="T12" s="35">
         <f>N12*10^3/S12</f>
         <v>866.7594340414181</v>
       </c>
-      <c r="V12" s="120" t="s">
+      <c r="U12" s="130"/>
+      <c r="V12" s="147">
+        <f t="shared" ref="V12:V14" si="8">($T$15-T12)^2</f>
+        <v>1.2924697071141057E-26</v>
+      </c>
+      <c r="X12" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="75">
-        <v>630</v>
-      </c>
-      <c r="X12" s="31">
-        <v>623</v>
-      </c>
-      <c r="Y12" s="68">
-        <f>(W12-X12)*2.381</f>
-        <v>16.666999999999998</v>
-      </c>
-      <c r="Z12" s="67">
-        <v>133.5</v>
-      </c>
-      <c r="AA12" s="35">
-        <f t="shared" ref="AA12:AA14" si="5">Z12*$B$2/10</f>
-        <v>150.98849999999999</v>
-      </c>
-      <c r="AB12" s="67">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC12" s="36">
-        <f t="shared" ref="AC12:AC14" si="6">AB12*$B$2/10</f>
-        <v>153.02430000000001</v>
-      </c>
-      <c r="AD12" s="69">
-        <f t="shared" ref="AD12:AD14" si="7">(($F$9/COS(RADIANS(0))*AA12)+(1/COS(RADIANS(15)*AC12)))</f>
-        <v>146.74501411526421</v>
-      </c>
-      <c r="AE12" s="62">
-        <f>Y12*10^3/AD12</f>
-        <v>113.5779644745444</v>
-      </c>
-      <c r="AG12" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH12" s="75">
+      <c r="Y12" s="48">
         <v>579</v>
       </c>
-      <c r="AI12" s="31">
+      <c r="Z12" s="14">
         <v>573</v>
       </c>
-      <c r="AJ12" s="68">
-        <f t="shared" ref="AJ12:AJ14" si="8">(AH12-AI12)*2.381</f>
+      <c r="AA12" s="41">
+        <f t="shared" ref="AA12:AA14" si="9">(Y12-Z12)*2.381</f>
         <v>14.285999999999998</v>
       </c>
-      <c r="AK12" s="67">
+      <c r="AB12" s="40">
         <v>139.5</v>
       </c>
-      <c r="AL12" s="35">
-        <f t="shared" ref="AL12:AL14" si="9">AK12*$B$2/10</f>
+      <c r="AC12" s="18">
+        <f t="shared" ref="AC12:AC14" si="10">AB12*$B$2/10</f>
         <v>157.77450000000002</v>
       </c>
-      <c r="AM12" s="67">
+      <c r="AD12" s="40">
         <v>141.5</v>
       </c>
-      <c r="AN12" s="36">
-        <f t="shared" ref="AN12:AN14" si="10">AM12*$B$2/10</f>
+      <c r="AE12" s="19">
+        <f t="shared" ref="AE12:AE14" si="11">AD12*$B$2/10</f>
         <v>160.03649999999999</v>
       </c>
-      <c r="AO12" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AL12)+(1/COS(RADIANS(15)*AN12)))</f>
+      <c r="AF12" s="42">
+        <f>(($F$9/COS(RADIANS(0))*AC12)+(1/COS(RADIANS(15)*AE12)))</f>
         <v>152.7750043830697</v>
       </c>
-      <c r="AP12" s="62">
-        <f>AJ12*10^3/AO12</f>
+      <c r="AG12" s="35">
+        <f>AA12*10^3/AF12</f>
         <v>93.51006113656608</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="K13" s="76" t="s">
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="126"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="K13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="48">
         <v>793</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="14">
         <v>775</v>
       </c>
-      <c r="N13" s="68">
-        <f t="shared" si="1"/>
+      <c r="N13" s="41">
+        <f t="shared" si="4"/>
         <v>42.857999999999997</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="40">
         <v>45.37</v>
       </c>
-      <c r="P13" s="35">
-        <f t="shared" si="2"/>
+      <c r="P13" s="18">
+        <f t="shared" si="5"/>
         <v>51.313469999999995</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="40">
         <v>45.81</v>
       </c>
-      <c r="R13" s="36">
-        <f t="shared" si="3"/>
+      <c r="R13" s="19">
+        <f t="shared" si="6"/>
         <v>51.811110000000006</v>
       </c>
-      <c r="S13" s="69">
-        <f t="shared" si="4"/>
+      <c r="S13" s="42">
+        <f t="shared" si="7"/>
         <v>52.19325942501164</v>
       </c>
-      <c r="T13" s="62">
+      <c r="T13" s="35">
         <f>N13*10^3/S13</f>
         <v>821.14051646029088</v>
       </c>
-      <c r="V13" s="120" t="s">
+      <c r="U13" s="130"/>
+      <c r="V13" s="147">
+        <f t="shared" si="8"/>
+        <v>2081.0856412736885</v>
+      </c>
+      <c r="X13" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="W13" s="75">
-        <v>632</v>
-      </c>
-      <c r="X13" s="31">
-        <v>624</v>
-      </c>
-      <c r="Y13" s="68">
-        <f>(W13-X13)*2.381</f>
-        <v>19.047999999999998</v>
-      </c>
-      <c r="Z13" s="67">
-        <v>133.5</v>
-      </c>
-      <c r="AA13" s="35">
+      <c r="Y13" s="48">
+        <v>581</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>574</v>
+      </c>
+      <c r="AA13" s="41">
+        <f t="shared" si="9"/>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="AB13" s="40">
+        <v>139.5</v>
+      </c>
+      <c r="AC13" s="18">
+        <f t="shared" si="10"/>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AD13" s="40">
+        <v>141.5</v>
+      </c>
+      <c r="AE13" s="19">
+        <f t="shared" si="11"/>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AF13" s="42">
+        <f>(($F$9/COS(RADIANS(0))*AC13)+(1/COS(RADIANS(15)*AE13)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AG13" s="35">
+        <f>AA13*10^3/AF13</f>
+        <v>109.09507132599374</v>
+      </c>
+      <c r="AH13" s="130"/>
+      <c r="AI13" s="126"/>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="37">
+        <v>793</v>
+      </c>
+      <c r="M14" s="16">
+        <v>775</v>
+      </c>
+      <c r="N14" s="179">
+        <f t="shared" si="4"/>
+        <v>42.857999999999997</v>
+      </c>
+      <c r="O14" s="112">
+        <v>45.37</v>
+      </c>
+      <c r="P14" s="33">
         <f t="shared" si="5"/>
-        <v>150.98849999999999</v>
-      </c>
-      <c r="AB13" s="67">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC13" s="36">
+        <v>51.313469999999995</v>
+      </c>
+      <c r="Q14" s="112">
+        <v>45.81</v>
+      </c>
+      <c r="R14" s="34">
         <f t="shared" si="6"/>
-        <v>153.02430000000001</v>
-      </c>
-      <c r="AD13" s="69">
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S14" s="113">
         <f t="shared" si="7"/>
-        <v>146.74501411526421</v>
-      </c>
-      <c r="AE13" s="62">
-        <f>Y13*10^3/AD13</f>
-        <v>129.80338797090792</v>
-      </c>
-      <c r="AG13" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH13" s="75">
-        <v>581</v>
-      </c>
-      <c r="AI13" s="31">
-        <v>574</v>
-      </c>
-      <c r="AJ13" s="68">
-        <f t="shared" si="8"/>
-        <v>16.666999999999998</v>
-      </c>
-      <c r="AK13" s="67">
-        <v>139.5</v>
-      </c>
-      <c r="AL13" s="35">
-        <f t="shared" si="9"/>
-        <v>157.77450000000002</v>
-      </c>
-      <c r="AM13" s="67">
-        <v>141.5</v>
-      </c>
-      <c r="AN13" s="36">
-        <f t="shared" si="10"/>
-        <v>160.03649999999999</v>
-      </c>
-      <c r="AO13" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AL13)+(1/COS(RADIANS(15)*AN13)))</f>
-        <v>152.7750043830697</v>
-      </c>
-      <c r="AP13" s="62">
-        <f>AJ13*10^3/AO13</f>
-        <v>109.09507132599374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K14" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="64">
-        <v>793</v>
-      </c>
-      <c r="M14" s="33">
-        <v>775</v>
-      </c>
-      <c r="N14" s="68">
-        <f t="shared" si="1"/>
-        <v>42.857999999999997</v>
-      </c>
-      <c r="O14" s="139">
-        <v>45.37</v>
-      </c>
-      <c r="P14" s="60">
-        <f t="shared" si="2"/>
-        <v>51.313469999999995</v>
-      </c>
-      <c r="Q14" s="139">
-        <v>45.81</v>
-      </c>
-      <c r="R14" s="61">
-        <f t="shared" si="3"/>
-        <v>51.811110000000006</v>
-      </c>
-      <c r="S14" s="140">
-        <f t="shared" si="4"/>
         <v>52.19325942501164</v>
       </c>
-      <c r="T14" s="63">
+      <c r="T14" s="36">
         <f>N14*10^3/S14</f>
         <v>821.14051646029088</v>
       </c>
-      <c r="V14" s="121" t="s">
+      <c r="U14" s="130"/>
+      <c r="V14" s="147">
+        <f t="shared" si="8"/>
+        <v>2081.0856412736885</v>
+      </c>
+      <c r="X14" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="W14" s="64">
-        <v>632</v>
-      </c>
-      <c r="X14" s="33">
-        <v>624</v>
-      </c>
-      <c r="Y14" s="68">
-        <f>(W14-X14)*2.381</f>
-        <v>19.047999999999998</v>
-      </c>
-      <c r="Z14" s="139">
-        <v>133.5</v>
-      </c>
-      <c r="AA14" s="60">
-        <f t="shared" si="5"/>
-        <v>150.98849999999999</v>
-      </c>
-      <c r="AB14" s="139">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC14" s="61">
-        <f t="shared" si="6"/>
-        <v>153.02430000000001</v>
-      </c>
-      <c r="AD14" s="140">
-        <f t="shared" si="7"/>
-        <v>146.74501411526421</v>
-      </c>
-      <c r="AE14" s="63">
-        <f>Y14*10^3/AD14</f>
-        <v>129.80338797090792</v>
-      </c>
-      <c r="AG14" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH14" s="64">
+      <c r="Y14" s="37">
         <v>580</v>
       </c>
-      <c r="AI14" s="33">
+      <c r="Z14" s="16">
         <v>573</v>
       </c>
-      <c r="AJ14" s="68">
-        <f t="shared" si="8"/>
+      <c r="AA14" s="179">
+        <f t="shared" si="9"/>
         <v>16.666999999999998</v>
       </c>
-      <c r="AK14" s="139">
+      <c r="AB14" s="112">
         <v>139.5</v>
       </c>
-      <c r="AL14" s="60">
-        <f t="shared" si="9"/>
+      <c r="AC14" s="33">
+        <f t="shared" si="10"/>
         <v>157.77450000000002</v>
       </c>
-      <c r="AM14" s="139">
+      <c r="AD14" s="112">
         <v>141.5</v>
       </c>
-      <c r="AN14" s="61">
-        <f t="shared" si="10"/>
+      <c r="AE14" s="34">
+        <f t="shared" si="11"/>
         <v>160.03649999999999</v>
       </c>
-      <c r="AO14" s="140">
-        <f>(($F$9/COS(RADIANS(0))*AL14)+(1/COS(RADIANS(15)*AN14)))</f>
+      <c r="AF14" s="113">
+        <f>(($F$9/COS(RADIANS(0))*AC14)+(1/COS(RADIANS(15)*AE14)))</f>
         <v>152.7750043830697</v>
       </c>
-      <c r="AP14" s="63">
-        <f>AJ14*10^3/AO14</f>
+      <c r="AG14" s="36">
+        <f>AA14*10^3/AF14</f>
         <v>109.09507132599374</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-    </row>
-    <row r="16" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-    </row>
-    <row r="17" spans="11:42" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="141" t="s">
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="126"/>
+    </row>
+    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="146"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="145">
+        <f>SUM(T11:T14)/4</f>
+        <v>866.75943404141822</v>
+      </c>
+      <c r="U15" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="V15" s="133">
+        <f>SQRT(SUM(V11:V14)/3)</f>
+        <v>64.5148919440106</v>
+      </c>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="126"/>
+    </row>
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="146"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="126"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="126"/>
+    </row>
+    <row r="17" spans="11:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="123" t="s">
+      <c r="L17" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="122" t="s">
+      <c r="M17" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="122" t="s">
+      <c r="O17" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="71" t="s">
+      <c r="P17" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="122" t="s">
+      <c r="Q17" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="S17" s="72" t="s">
+      <c r="S17" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T17" s="73" t="s">
+      <c r="T17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="142" t="s">
+      <c r="U17" s="130"/>
+      <c r="V17" s="126"/>
+      <c r="X17" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="W17" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="X17" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y17" s="116" t="s">
+      <c r="Y17" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA17" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="Z17" s="116" t="s">
+      <c r="AB17" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="116" t="s">
+      <c r="AC17" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="116" t="s">
+      <c r="AD17" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="116" t="s">
+      <c r="AE17" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="AD17" s="117" t="s">
+      <c r="AF17" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AE17" s="118" t="s">
+      <c r="AG17" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AG17" s="143" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH17" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI17" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ17" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK17" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL17" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM17" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN17" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO17" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP17" s="127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="11:42" x14ac:dyDescent="0.35">
-      <c r="K18" s="65" t="s">
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="126"/>
+    </row>
+    <row r="18" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="K18" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="74">
+      <c r="L18" s="47">
         <v>790</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="40">
         <v>771</v>
       </c>
-      <c r="N18" s="68">
+      <c r="N18" s="41">
         <f>(L18-M18)*2.381</f>
         <v>45.238999999999997</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="40">
         <v>45.81</v>
       </c>
-      <c r="P18" s="67">
+      <c r="P18" s="40">
         <f>O18*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="Q18" s="67">
+      <c r="Q18" s="40">
         <v>45.81</v>
       </c>
-      <c r="R18" s="67">
+      <c r="R18" s="40">
         <f>Q18*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="S18" s="69">
-        <f t="shared" ref="S18:S19" si="11">(($F$9/COS(RADIANS(0))*P18)+(1/COS(RADIANS(15)*R18)))</f>
+      <c r="S18" s="42">
+        <f t="shared" ref="S18:S19" si="12">(($F$9/COS(RADIANS(0))*P18)+(1/COS(RADIANS(15)*R18)))</f>
         <v>52.681545110805764</v>
       </c>
-      <c r="T18" s="70">
+      <c r="T18" s="43">
         <f>N18*10^3/S18</f>
         <v>858.72576259576738</v>
       </c>
-      <c r="V18" s="119" t="s">
+      <c r="U18" s="130"/>
+      <c r="V18" s="147">
+        <f>($T$20-T18)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W18" s="74">
-        <v>630</v>
-      </c>
-      <c r="X18" s="67">
-        <v>623</v>
-      </c>
-      <c r="Y18" s="68">
-        <f t="shared" ref="Y18:Y19" si="12">(W18-X18)*2.381</f>
-        <v>16.666999999999998</v>
-      </c>
-      <c r="Z18" s="67">
-        <v>133.5</v>
-      </c>
-      <c r="AA18" s="67">
-        <f>Z18*$B$2/10</f>
-        <v>150.98849999999999</v>
-      </c>
-      <c r="AB18" s="67">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC18" s="67">
+      <c r="Y18" s="47">
+        <v>580</v>
+      </c>
+      <c r="Z18" s="40">
+        <v>571</v>
+      </c>
+      <c r="AA18" s="41">
+        <f t="shared" ref="AA18:AA19" si="13">(Y18-Z18)*2.381</f>
+        <v>21.428999999999998</v>
+      </c>
+      <c r="AB18" s="40">
+        <v>139.5</v>
+      </c>
+      <c r="AC18" s="40">
         <f>AB18*$B$2/10</f>
-        <v>153.02430000000001</v>
-      </c>
-      <c r="AD18" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AA18)+(1/COS(RADIANS(15)*AC18)))</f>
-        <v>146.74501411526421</v>
-      </c>
-      <c r="AE18" s="70">
-        <f>Y18*10^3/AD18</f>
-        <v>113.5779644745444</v>
-      </c>
-      <c r="AG18" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH18" s="74">
-        <v>580</v>
-      </c>
-      <c r="AI18" s="67">
-        <v>571</v>
-      </c>
-      <c r="AJ18" s="68">
-        <f t="shared" ref="AJ18:AJ19" si="13">(AH18-AI18)*2.381</f>
-        <v>21.428999999999998</v>
-      </c>
-      <c r="AK18" s="67">
-        <v>139.5</v>
-      </c>
-      <c r="AL18" s="67">
-        <f>AK18*$B$2/10</f>
         <v>157.77450000000002</v>
       </c>
-      <c r="AM18" s="67">
+      <c r="AD18" s="40">
         <v>141.5</v>
       </c>
-      <c r="AN18" s="67">
-        <f>AM18*$B$2/10</f>
+      <c r="AE18" s="40">
+        <f>AD18*$B$2/10</f>
         <v>160.03649999999999</v>
       </c>
-      <c r="AO18" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AL18)+(1/COS(RADIANS(15)*AN18)))</f>
+      <c r="AF18" s="42">
+        <f>(($F$9/COS(RADIANS(0))*AC18)+(1/COS(RADIANS(15)*AE18)))</f>
         <v>152.7750043830697</v>
       </c>
-      <c r="AP18" s="70">
-        <f>AJ18*10^3/AO18</f>
+      <c r="AG18" s="43">
+        <f>AA18*10^3/AF18</f>
         <v>140.26509170484914</v>
       </c>
-    </row>
-    <row r="19" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K19" s="66" t="s">
+      <c r="AH18" s="130"/>
+      <c r="AI18" s="126"/>
+    </row>
+    <row r="19" spans="11:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="131">
+      <c r="L19" s="104">
         <v>784</v>
       </c>
-      <c r="M19" s="132">
+      <c r="M19" s="105">
         <v>765</v>
       </c>
-      <c r="N19" s="68">
+      <c r="N19" s="179">
         <f>(L19-M19)*2.381</f>
         <v>45.238999999999997</v>
       </c>
-      <c r="O19" s="139">
+      <c r="O19" s="112">
         <v>45.81</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="16">
         <f t="shared" ref="P19" si="14">O19*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="Q19" s="139">
+      <c r="Q19" s="112">
         <v>45.81</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="16">
         <f t="shared" ref="R19" si="15">Q19*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="S19" s="140">
-        <f t="shared" si="11"/>
+      <c r="S19" s="113">
+        <f t="shared" si="12"/>
         <v>52.681545110805764</v>
       </c>
-      <c r="T19" s="63">
+      <c r="T19" s="36">
         <f>N19*10^3/S19</f>
         <v>858.72576259576738</v>
       </c>
-      <c r="V19" s="121" t="s">
+      <c r="U19" s="130"/>
+      <c r="V19" s="147">
+        <f>($T$20-T19)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="W19" s="133">
-        <v>630</v>
-      </c>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="68">
-        <f t="shared" si="12"/>
-        <v>1500.03</v>
-      </c>
-      <c r="Z19" s="139">
-        <v>133.5</v>
-      </c>
-      <c r="AA19" s="33">
-        <f t="shared" ref="AA19" si="16">Z19*$B$2/10</f>
-        <v>150.98849999999999</v>
-      </c>
-      <c r="AB19" s="139">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC19" s="33">
-        <f t="shared" ref="AC19" si="17">AB19*$B$2/10</f>
-        <v>153.02430000000001</v>
-      </c>
-      <c r="AD19" s="140">
-        <f>(($F$9/COS(RADIANS(0))*AA19)+(1/COS(RADIANS(15)*AC19)))</f>
-        <v>146.74501411526421</v>
-      </c>
-      <c r="AE19" s="138">
-        <f>Y19*10^3/AD19</f>
-        <v>10222.016802708999</v>
-      </c>
-      <c r="AG19" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH19" s="133">
+      <c r="Y19" s="106">
         <v>579</v>
       </c>
-      <c r="AI19" s="134"/>
-      <c r="AJ19" s="68">
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="179">
         <f t="shared" si="13"/>
         <v>1378.5989999999999</v>
       </c>
-      <c r="AK19" s="139">
+      <c r="AB19" s="112">
         <v>139.5</v>
       </c>
-      <c r="AL19" s="33">
-        <f t="shared" ref="AL19" si="18">AK19*$B$2/10</f>
+      <c r="AC19" s="16">
+        <f t="shared" ref="AC19" si="16">AB19*$B$2/10</f>
         <v>157.77450000000002</v>
       </c>
-      <c r="AM19" s="139">
+      <c r="AD19" s="112">
         <v>141.5</v>
       </c>
-      <c r="AN19" s="33">
-        <f t="shared" ref="AN19" si="19">AM19*$B$2/10</f>
+      <c r="AE19" s="16">
+        <f t="shared" ref="AE19" si="17">AD19*$B$2/10</f>
         <v>160.03649999999999</v>
       </c>
-      <c r="AO19" s="140">
-        <f>(($F$9/COS(RADIANS(0))*AL19)+(1/COS(RADIANS(15)*AN19)))</f>
+      <c r="AF19" s="113">
+        <f>(($F$9/COS(RADIANS(0))*AC19)+(1/COS(RADIANS(15)*AE19)))</f>
         <v>152.7750043830697</v>
       </c>
-      <c r="AP19" s="138">
-        <f>AJ19*10^3/AO19</f>
+      <c r="AG19" s="111">
+        <f>AA19*10^3/AF19</f>
         <v>9023.7208996786285</v>
       </c>
-    </row>
-    <row r="20" spans="11:42" x14ac:dyDescent="0.35">
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-    </row>
-    <row r="21" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-    </row>
-    <row r="22" spans="11:42" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K22" s="141" t="s">
+      <c r="AH19" s="130"/>
+      <c r="AI19" s="126"/>
+    </row>
+    <row r="20" spans="11:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="146"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="178">
+        <f>SUM(T18:T19)/2</f>
+        <v>858.72576259576738</v>
+      </c>
+      <c r="U20" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="V20" s="148">
+        <f>SQRT(SUM(V18:V19))</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="130"/>
+      <c r="AI20" s="126"/>
+    </row>
+    <row r="21" spans="11:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="146"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="126"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="126"/>
+    </row>
+    <row r="22" spans="11:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="123" t="s">
+      <c r="L22" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="122" t="s">
+      <c r="M22" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="122" t="s">
+      <c r="O22" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="71" t="s">
+      <c r="P22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="122" t="s">
+      <c r="Q22" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="R22" s="71" t="s">
+      <c r="R22" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="S22" s="72" t="s">
+      <c r="S22" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T22" s="73" t="s">
+      <c r="T22" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="142" t="s">
+      <c r="U22" s="130"/>
+      <c r="V22" s="126"/>
+      <c r="X22" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="W22" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="X22" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y22" s="116" t="s">
+      <c r="Y22" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA22" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="Z22" s="116" t="s">
+      <c r="AB22" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" s="116" t="s">
+      <c r="AC22" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="AB22" s="116" t="s">
+      <c r="AD22" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AC22" s="116" t="s">
+      <c r="AE22" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="AD22" s="117" t="s">
+      <c r="AF22" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AE22" s="118" t="s">
+      <c r="AG22" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH22" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI22" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ22" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK22" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL22" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM22" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN22" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO22" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP22" s="127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="11:42" x14ac:dyDescent="0.35">
-      <c r="K23" s="65" t="s">
+      <c r="AH22" s="130"/>
+      <c r="AI22" s="126"/>
+    </row>
+    <row r="23" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="K23" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="79">
+      <c r="L23" s="52">
         <v>793</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="40">
         <v>776</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="41">
         <f>(L23-M23)*2.381</f>
         <v>40.476999999999997</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="40">
         <v>45.81</v>
       </c>
-      <c r="P23" s="67">
+      <c r="P23" s="40">
         <f>O23*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="40">
         <v>45.81</v>
       </c>
-      <c r="R23" s="67">
+      <c r="R23" s="40">
         <f>Q23*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="S23" s="69">
-        <f t="shared" ref="S23:S24" si="20">(($F$9/COS(RADIANS(0))*P23)+(1/COS(RADIANS(15)*R23)))</f>
+      <c r="S23" s="42">
+        <f t="shared" ref="S23:S24" si="18">(($F$9/COS(RADIANS(0))*P23)+(1/COS(RADIANS(15)*R23)))</f>
         <v>52.681545110805764</v>
       </c>
-      <c r="T23" s="70">
+      <c r="T23" s="43">
         <f>N23*10^3/S23</f>
         <v>768.33357705937078</v>
       </c>
-      <c r="V23" s="119" t="s">
+      <c r="U23" s="130"/>
+      <c r="V23" s="147">
+        <f>($T$25-T23)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="114">
-        <v>631</v>
-      </c>
-      <c r="X23" s="67">
-        <v>625</v>
-      </c>
-      <c r="Y23" s="68">
-        <f t="shared" ref="Y23:Y24" si="21">(W23-X23)*2.381</f>
-        <v>14.285999999999998</v>
-      </c>
-      <c r="Z23" s="67">
-        <v>133.5</v>
-      </c>
-      <c r="AA23" s="67">
-        <f>Z23*$B$2/10</f>
-        <v>150.98849999999999</v>
-      </c>
-      <c r="AB23" s="67">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC23" s="67">
+      <c r="Y23" s="87">
+        <v>580</v>
+      </c>
+      <c r="Z23" s="40">
+        <v>575</v>
+      </c>
+      <c r="AA23" s="41">
+        <f t="shared" ref="AA23:AA24" si="19">(Y23-Z23)*2.381</f>
+        <v>11.904999999999999</v>
+      </c>
+      <c r="AB23" s="40">
+        <v>139.5</v>
+      </c>
+      <c r="AC23" s="40">
         <f>AB23*$B$2/10</f>
-        <v>153.02430000000001</v>
-      </c>
-      <c r="AD23" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AA23)+(1/COS(RADIANS(15)*AC23)))</f>
-        <v>146.74501411526421</v>
-      </c>
-      <c r="AE23" s="70">
-        <f>Y23*10^3/AD23</f>
-        <v>97.352540978180926</v>
-      </c>
-      <c r="AG23" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH23" s="114">
-        <v>580</v>
-      </c>
-      <c r="AI23" s="67">
-        <v>575</v>
-      </c>
-      <c r="AJ23" s="68">
-        <f t="shared" ref="AJ23:AJ24" si="22">(AH23-AI23)*2.381</f>
-        <v>11.904999999999999</v>
-      </c>
-      <c r="AK23" s="67">
-        <v>139.5</v>
-      </c>
-      <c r="AL23" s="67">
-        <f>AK23*$B$2/10</f>
         <v>157.77450000000002</v>
       </c>
-      <c r="AM23" s="67">
+      <c r="AD23" s="40">
         <v>141.5</v>
       </c>
-      <c r="AN23" s="67">
-        <f>AM23*$B$2/10</f>
+      <c r="AE23" s="40">
+        <f>AD23*$B$2/10</f>
         <v>160.03649999999999</v>
       </c>
-      <c r="AO23" s="69">
-        <f>(($F$9/COS(RADIANS(0))*AL23)+(1/COS(RADIANS(15)*AN23)))</f>
+      <c r="AF23" s="42">
+        <f>(($F$9/COS(RADIANS(0))*AC23)+(1/COS(RADIANS(15)*AE23)))</f>
         <v>152.7750043830697</v>
       </c>
-      <c r="AP23" s="70">
-        <f>AJ23*10^3/AO23</f>
+      <c r="AG23" s="43">
+        <f>AA23*10^3/AF23</f>
         <v>77.925050947138402</v>
       </c>
-    </row>
-    <row r="24" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K24" s="66" t="s">
+      <c r="AH23" s="130"/>
+      <c r="AI23" s="126"/>
+    </row>
+    <row r="24" spans="11:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="37">
         <v>792</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="16">
         <v>775</v>
       </c>
-      <c r="N24" s="68">
+      <c r="N24" s="179">
         <f>(L24-M24)*2.381</f>
         <v>40.476999999999997</v>
       </c>
-      <c r="O24" s="139">
+      <c r="O24" s="112">
         <v>45.81</v>
       </c>
-      <c r="P24" s="33">
-        <f t="shared" ref="P24" si="23">O24*$B$2/10</f>
+      <c r="P24" s="16">
+        <f t="shared" ref="P24" si="20">O24*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="Q24" s="139">
+      <c r="Q24" s="112">
         <v>45.81</v>
       </c>
-      <c r="R24" s="33">
-        <f t="shared" ref="R24" si="24">Q24*$B$2/10</f>
+      <c r="R24" s="16">
+        <f t="shared" ref="R24" si="21">Q24*$B$2/10</f>
         <v>51.811110000000006</v>
       </c>
-      <c r="S24" s="140">
-        <f t="shared" si="20"/>
+      <c r="S24" s="113">
+        <f t="shared" si="18"/>
         <v>52.681545110805764</v>
       </c>
-      <c r="T24" s="63">
+      <c r="T24" s="36">
         <f>N24*10^3/S24</f>
         <v>768.33357705937078</v>
       </c>
-      <c r="V24" s="121" t="s">
+      <c r="U24" s="130"/>
+      <c r="V24" s="147">
+        <f t="shared" ref="V24" si="22">($T$25-T24)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="W24" s="64">
+      <c r="Y24" s="37">
+        <v>580</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>573</v>
+      </c>
+      <c r="AA24" s="179">
+        <f t="shared" si="19"/>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="AB24" s="112">
+        <v>139.5</v>
+      </c>
+      <c r="AC24" s="16">
+        <f t="shared" ref="AC24" si="23">AB24*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AD24" s="112">
+        <v>141.5</v>
+      </c>
+      <c r="AE24" s="16">
+        <f t="shared" ref="AE24" si="24">AD24*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AF24" s="113">
+        <f>(($F$9/COS(RADIANS(0))*AC24)+(1/COS(RADIANS(15)*AE24)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AG24" s="36">
+        <f>AA24*10^3/AF24</f>
+        <v>109.09507132599374</v>
+      </c>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="126"/>
+    </row>
+    <row r="25" spans="11:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="144"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="178">
+        <f>SUM(T23:T24)/2</f>
+        <v>768.33357705937078</v>
+      </c>
+      <c r="U25" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="V25" s="148">
+        <f>SQRT(SUM(V23:V24))</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="144"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="131"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="131"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="128"/>
+    </row>
+    <row r="26" spans="11:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="11:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="129"/>
+      <c r="V27" s="125"/>
+    </row>
+    <row r="28" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="K28" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="108"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="41">
+        <f>(L28-M28)*2.381</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="40">
+        <v>133.5</v>
+      </c>
+      <c r="P28" s="50">
+        <f>O28*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="Q28" s="40">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R28" s="51">
+        <f>Q28*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="S28" s="42">
+        <f>(($F$9/COS(RADIANS(0))*P28)+(1/COS(RADIANS(15)*R28)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="T28" s="110">
+        <f>N28*10^3/S28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="130"/>
+      <c r="V28" s="126"/>
+    </row>
+    <row r="29" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="K29" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="48">
+        <v>630</v>
+      </c>
+      <c r="M29" s="14">
+        <v>623</v>
+      </c>
+      <c r="N29" s="41">
+        <f>(L29-M29)*2.381</f>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="O29" s="40">
+        <v>133.5</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" ref="P29:P31" si="25">O29*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="Q29" s="40">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R29" s="19">
+        <f t="shared" ref="R29:R31" si="26">Q29*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="S29" s="42">
+        <f t="shared" ref="S29:S31" si="27">(($F$9/COS(RADIANS(0))*P29)+(1/COS(RADIANS(15)*R29)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="T29" s="35">
+        <f>N29*10^3/S29</f>
+        <v>113.5779644745444</v>
+      </c>
+      <c r="U29" s="130"/>
+      <c r="V29" s="126"/>
+    </row>
+    <row r="30" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="K30" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="48">
+        <v>632</v>
+      </c>
+      <c r="M30" s="14">
+        <v>624</v>
+      </c>
+      <c r="N30" s="41">
+        <f>(L30-M30)*2.381</f>
+        <v>19.047999999999998</v>
+      </c>
+      <c r="O30" s="40">
+        <v>133.5</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="25"/>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="Q30" s="40">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R30" s="19">
+        <f t="shared" si="26"/>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="S30" s="42">
+        <f t="shared" si="27"/>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="T30" s="35">
+        <f>N30*10^3/S30</f>
+        <v>129.80338797090792</v>
+      </c>
+      <c r="U30" s="130"/>
+      <c r="V30" s="126"/>
+    </row>
+    <row r="31" spans="11:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="37">
+        <v>632</v>
+      </c>
+      <c r="M31" s="16">
+        <v>624</v>
+      </c>
+      <c r="N31" s="179">
+        <f>(L31-M31)*2.381</f>
+        <v>19.047999999999998</v>
+      </c>
+      <c r="O31" s="112">
+        <v>133.5</v>
+      </c>
+      <c r="P31" s="33">
+        <f t="shared" si="25"/>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="Q31" s="112">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R31" s="34">
+        <f t="shared" si="26"/>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="S31" s="113">
+        <f t="shared" si="27"/>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="T31" s="36">
+        <f>N31*10^3/S31</f>
+        <v>129.80338797090792</v>
+      </c>
+      <c r="U31" s="130"/>
+      <c r="V31" s="126"/>
+    </row>
+    <row r="32" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="K32" s="127"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="126"/>
+    </row>
+    <row r="33" spans="11:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="127"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="126"/>
+    </row>
+    <row r="34" spans="11:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="T34" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="U34" s="130"/>
+      <c r="V34" s="126"/>
+    </row>
+    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K35" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="47">
+        <v>630</v>
+      </c>
+      <c r="M35" s="40">
+        <v>623</v>
+      </c>
+      <c r="N35" s="41">
+        <f t="shared" ref="N35:N36" si="28">(L35-M35)*2.381</f>
+        <v>16.666999999999998</v>
+      </c>
+      <c r="O35" s="40">
+        <v>133.5</v>
+      </c>
+      <c r="P35" s="40">
+        <f>O35*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="Q35" s="40">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R35" s="40">
+        <f>Q35*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="S35" s="42">
+        <f>(($F$9/COS(RADIANS(0))*P35)+(1/COS(RADIANS(15)*R35)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="T35" s="43">
+        <f>N35*10^3/S35</f>
+        <v>113.5779644745444</v>
+      </c>
+      <c r="U35" s="130"/>
+      <c r="V35" s="126"/>
+    </row>
+    <row r="36" spans="11:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="106">
+        <v>630</v>
+      </c>
+      <c r="M36" s="107"/>
+      <c r="N36" s="179">
+        <f t="shared" si="28"/>
+        <v>1500.03</v>
+      </c>
+      <c r="O36" s="112">
+        <v>133.5</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" ref="P36" si="29">O36*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="Q36" s="112">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R36" s="16">
+        <f t="shared" ref="R36" si="30">Q36*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="S36" s="113">
+        <f>(($F$9/COS(RADIANS(0))*P36)+(1/COS(RADIANS(15)*R36)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="T36" s="111">
+        <f>N36*10^3/S36</f>
+        <v>10222.016802708999</v>
+      </c>
+      <c r="U36" s="130"/>
+      <c r="V36" s="126"/>
+    </row>
+    <row r="37" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K37" s="127"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="126"/>
+    </row>
+    <row r="38" spans="11:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="127"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="126"/>
+    </row>
+    <row r="39" spans="11:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q39" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39" s="130"/>
+      <c r="V39" s="126"/>
+    </row>
+    <row r="40" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K40" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="87">
         <v>631</v>
       </c>
-      <c r="X24" s="33">
+      <c r="M40" s="40">
+        <v>625</v>
+      </c>
+      <c r="N40" s="41">
+        <f t="shared" ref="N40:N41" si="31">(L40-M40)*2.381</f>
+        <v>14.285999999999998</v>
+      </c>
+      <c r="O40" s="40">
+        <v>133.5</v>
+      </c>
+      <c r="P40" s="40">
+        <f>O40*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="Q40" s="40">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R40" s="40">
+        <f>Q40*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="S40" s="42">
+        <f>(($F$9/COS(RADIANS(0))*P40)+(1/COS(RADIANS(15)*R40)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="T40" s="43">
+        <f>N40*10^3/S40</f>
+        <v>97.352540978180926</v>
+      </c>
+      <c r="U40" s="130"/>
+      <c r="V40" s="126"/>
+    </row>
+    <row r="41" spans="11:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="37">
+        <v>631</v>
+      </c>
+      <c r="M41" s="16">
         <v>623</v>
       </c>
-      <c r="Y24" s="68">
-        <f t="shared" si="21"/>
+      <c r="N41" s="179">
+        <f t="shared" si="31"/>
         <v>19.047999999999998</v>
       </c>
-      <c r="Z24" s="139">
+      <c r="O41" s="112">
         <v>133.5</v>
       </c>
-      <c r="AA24" s="33">
-        <f t="shared" ref="AA24" si="25">Z24*$B$2/10</f>
+      <c r="P41" s="16">
+        <f t="shared" ref="P41" si="32">O41*$B$2/10</f>
         <v>150.98849999999999</v>
       </c>
-      <c r="AB24" s="139">
+      <c r="Q41" s="112">
         <v>135.30000000000001</v>
       </c>
-      <c r="AC24" s="33">
-        <f t="shared" ref="AC24" si="26">AB24*$B$2/10</f>
+      <c r="R41" s="16">
+        <f t="shared" ref="R41" si="33">Q41*$B$2/10</f>
         <v>153.02430000000001</v>
       </c>
-      <c r="AD24" s="140">
-        <f>(($F$9/COS(RADIANS(0))*AA24)+(1/COS(RADIANS(15)*AC24)))</f>
+      <c r="S41" s="113">
+        <f>(($F$9/COS(RADIANS(0))*P41)+(1/COS(RADIANS(15)*R41)))</f>
         <v>146.74501411526421</v>
       </c>
-      <c r="AE24" s="63">
-        <f>Y24*10^3/AD24</f>
+      <c r="T41" s="36">
+        <f>N41*10^3/S41</f>
         <v>129.80338797090792</v>
       </c>
-      <c r="AG24" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH24" s="64">
-        <v>580</v>
-      </c>
-      <c r="AI24" s="33">
-        <v>573</v>
-      </c>
-      <c r="AJ24" s="68">
-        <f t="shared" si="22"/>
-        <v>16.666999999999998</v>
-      </c>
-      <c r="AK24" s="139">
-        <v>139.5</v>
-      </c>
-      <c r="AL24" s="33">
-        <f t="shared" ref="AL24" si="27">AK24*$B$2/10</f>
-        <v>157.77450000000002</v>
-      </c>
-      <c r="AM24" s="139">
-        <v>141.5</v>
-      </c>
-      <c r="AN24" s="33">
-        <f t="shared" ref="AN24" si="28">AM24*$B$2/10</f>
-        <v>160.03649999999999</v>
-      </c>
-      <c r="AO24" s="140">
-        <f>(($F$9/COS(RADIANS(0))*AL24)+(1/COS(RADIANS(15)*AN24)))</f>
-        <v>152.7750043830697</v>
-      </c>
-      <c r="AP24" s="63">
-        <f>AJ24*10^3/AO24</f>
-        <v>109.09507132599374</v>
-      </c>
+      <c r="U41" s="130"/>
+      <c r="V41" s="126"/>
+    </row>
+    <row r="42" spans="11:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="144"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131"/>
+      <c r="R42" s="131"/>
+      <c r="S42" s="131"/>
+      <c r="T42" s="131"/>
+      <c r="U42" s="131"/>
+      <c r="V42" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
